--- a/ExactModelData.xlsx
+++ b/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37D795E-6C38-46B7-A14E-B4106785499E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE67D7E-0F02-47F5-A650-CB84A66DB7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,24 @@
     <sheet name="HorseStore" sheetId="5" r:id="rId5"/>
     <sheet name="TrailerStore" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="AverageUnload">'1D'!$L$2:$L$9</definedName>
+    <definedName name="Demand">'1D'!$I$2:$I$9</definedName>
+    <definedName name="DistanceCost">'1D'!$B$2:$B$5</definedName>
+    <definedName name="Distances">Distances!$A$1:$H$8</definedName>
+    <definedName name="Horses">'1D'!$A$2:$A$5</definedName>
+    <definedName name="HorseStore">HorseStore!$A$1:$F$4</definedName>
+    <definedName name="HorseTrailer">HorseTrailer!$A$1:$D$4</definedName>
+    <definedName name="Locations">'1D'!$F$2:$F$9</definedName>
+    <definedName name="PalletCapacity">'1D'!$E$2:$E$5</definedName>
+    <definedName name="Stores">'1D'!$F$3:$F$8</definedName>
+    <definedName name="TimeCost">'1D'!$C$2:$C$5</definedName>
+    <definedName name="Times">Times!$A$1:$H$8</definedName>
+    <definedName name="Trailers">'1D'!$D$2:$D$5</definedName>
+    <definedName name="TrailerStore">TrailerStore!$A$1:$F$4</definedName>
+    <definedName name="WindowEnd">'1D'!$K$2:$K$9</definedName>
+    <definedName name="WindowStart">'1D'!$J$2:$J$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +55,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Pallets</t>
   </si>
@@ -100,26 +140,74 @@
     <t>Depot</t>
   </si>
   <si>
-    <t>NumHorses</t>
-  </si>
-  <si>
-    <t>NumTrailers</t>
-  </si>
-  <si>
-    <t>NumStores</t>
-  </si>
-  <si>
     <t>Average Unload</t>
   </si>
   <si>
     <t>DepotReturn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Max X &amp; Y</t>
+  </si>
+  <si>
+    <t>Min X &amp; Y</t>
+  </si>
+  <si>
+    <t>Num stores</t>
+  </si>
+  <si>
+    <t>Max Trailer Capacity</t>
+  </si>
+  <si>
+    <t>Min Trailer Capacity</t>
+  </si>
+  <si>
+    <t>Number of vehicles</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Max Demand</t>
+  </si>
+  <si>
+    <t>Distance Cost Min</t>
+  </si>
+  <si>
+    <t>Distance Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Min</t>
+  </si>
+  <si>
+    <t>Chance of having window</t>
+  </si>
+  <si>
+    <t>Unload Min</t>
+  </si>
+  <si>
+    <t>Unload Max</t>
+  </si>
+  <si>
+    <t>Compatability Chance</t>
+  </si>
+  <si>
+    <t>Total Demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +219,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,16 +272,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,6 +303,970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot of Locations on Cartesian Plane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1D'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1D'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.663876321331017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-86.363112154623082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.218932088695823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.833679215018464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.75218871703116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.944371275112218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1D'!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.781533062381172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21275486059222715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-71.58372149632946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40711734426339774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39.923348899723592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.040369266668762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE0B-48B0-AD98-AFCF432CC92C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506125392"/>
+        <c:axId val="506128344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506125392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506128344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506128344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506125392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C9A7E3-AB21-41AC-B3D0-9BC478F1A1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,10 +1535,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,66 +1549,83 @@
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1">
-        <f>COUNTA(A:A)-1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1.2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
+      <c r="B2" cm="1">
+        <f t="array" aca="1" ref="B2:B5" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>0.98664086819012953</v>
+      </c>
+      <c r="C2" s="2" cm="1">
+        <f t="array" aca="1" ref="C2:C5" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>13.401519732405411</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
-        <v>20</v>
+      <c r="E2" s="2" cm="1">
+        <f t="array" aca="1" ref="E2:E5" ca="1">_xlfn.RANDARRAY(P8,1,P14,P13,TRUE)</f>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -537,191 +1637,305 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>24</v>
       </c>
-      <c r="J2">
-        <v>5.8259875367690915E-2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <f>COUNTA(D:D)-1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" cm="1">
+        <f t="array" aca="1" ref="L2:L8" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
+        <v>3.5813621874071888E-2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.3</v>
+        <f ca="1"/>
+        <v>1.2567010328101822</v>
       </c>
       <c r="C3" s="2">
-        <v>12</v>
+        <f ca="1"/>
+        <v>7.770315119544577</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>20</v>
+        <f ca="1"/>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>5</v>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3:H8" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
+        <v>71.663876321331017</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <f ca="1"/>
+        <v>94.781533062381172</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,0,ROUNDUP((P17/P2),0),TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f ca="1">IF(J3=0,24,J3+1)</f>
         <v>24</v>
       </c>
-      <c r="J3">
-        <v>5.6799109672937671E-2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <f>COUNTA(F:F)-3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f ca="1"/>
+        <v>2.3899492095697833E-2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.1000000000000001</v>
+        <f ca="1"/>
+        <v>1.1578831270211303</v>
       </c>
       <c r="C4" s="2">
-        <v>12</v>
+        <f ca="1"/>
+        <v>10.603806045264099</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <f ca="1"/>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <f ca="1"/>
+        <v>-86.363112154623082</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <f ca="1"/>
+        <v>0.21275486059222715</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.12798567368882249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J4:J8" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <f ca="1"/>
+        <v>3.5142919443954368E-2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>-100</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <f ca="1"/>
+        <v>1.3554921109137574</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <f ca="1"/>
+        <v>14.68383921911653</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>15</v>
+        <f ca="1"/>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
+        <f ca="1"/>
+        <v>32.218932088695823</v>
+      </c>
+      <c r="H5">
+        <f ca="1"/>
+        <v>-71.58372149632946</v>
+      </c>
+      <c r="I5">
+        <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="H5">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
       <c r="J5">
-        <v>7.4127184049705142E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <f ca="1"/>
+        <v>3.3532109347739758E-2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <f ca="1"/>
+        <v>49.833679215018464</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <f ca="1"/>
+        <v>0.40711734426339774</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <f ca="1"/>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>7.1190476804126129E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <f ca="1"/>
+        <v>7.2120436691763629E-2</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <f ca="1"/>
+        <v>76.75218871703116</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <f ca="1"/>
+        <v>-39.923348899723592</v>
       </c>
       <c r="I7">
-        <v>16</v>
+        <f ca="1"/>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>0.10449501455450595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <f ca="1"/>
+        <v>6.0065694441361117E-2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <f ca="1"/>
+        <v>36.944371275112218</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f ca="1"/>
+        <v>52.040369266668762</v>
       </c>
       <c r="I8">
-        <v>24</v>
+        <f ca="1"/>
+        <v>11</v>
       </c>
       <c r="J8">
-        <v>6.1642106378441801E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" ca="1" si="3">IF(J8=0,24,J8+1)</f>
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <f ca="1"/>
+        <v>6.5083299003850958E-2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -730,81 +1944,101 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J12">
-        <f ca="1">(RAND()*9+1)/60</f>
-        <v>6.9498934936655751E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <f ca="1">(RAND()*9+1)/60</f>
-        <v>6.1579438930207848E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <f t="shared" ref="G14:G17" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J18" ca="1" si="1">(RAND()*9+1)/60</f>
-        <v>8.4842153169330733E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6466561995184829E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8423109763891825E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12025060604539818</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14520569079926826</v>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17">
+        <f ca="1">SUM(E:E)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18">
+        <f ca="1">SUM(I:I)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="5">
+        <f ca="1">P18/P17</f>
+        <v>0.42168674698795183</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -813,492 +2047,284 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>40.604654676189618</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>39.604678746358253</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
+        <v>118.82445109931828</v>
       </c>
       <c r="C1">
-        <v>49.938928803238845</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
+        <v>86.363374214204427</v>
       </c>
       <c r="D1">
-        <v>11.715113635845263</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
+        <v>78.500246930822158</v>
       </c>
       <c r="E1">
-        <v>44.5965907257509</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
+        <v>49.835342164345207</v>
       </c>
       <c r="F1">
-        <v>32.39670014907054</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
+        <v>86.514578310385502</v>
       </c>
       <c r="G1">
-        <v>38.575643927510235</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
+        <v>63.820738027106671</v>
       </c>
       <c r="H1">
-        <v>10.392368705524202</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.0060590154458113</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
+        <v>118.82445109931828</v>
       </c>
       <c r="B2">
-        <v>8.3403968460756985</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>40.811650001703718</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
+        <v>184.16238187360219</v>
       </c>
       <c r="D2">
-        <v>11.532937861021081</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
+        <v>170.97748843020327</v>
       </c>
       <c r="E2">
-        <v>46.368960401474503</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
+        <v>96.866340117899426</v>
       </c>
       <c r="F2">
-        <v>39.984389843068335</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
+        <v>134.80095009850936</v>
       </c>
       <c r="G2">
-        <v>24.629386153075483</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
+        <v>55.065879755673841</v>
       </c>
       <c r="H2">
-        <v>46.270198089437805</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
+        <v>118.82445109931828</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>18.189880715244289</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
+        <v>86.363374214204427</v>
       </c>
       <c r="B3">
-        <v>21.394878013326327</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
+        <v>184.16238187360219</v>
       </c>
       <c r="C3">
-        <v>25.378752969077521</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>39.182443268754199</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
+        <v>138.62335746256639</v>
       </c>
       <c r="E3">
-        <v>17.876571647613286</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
+        <v>136.19693005409749</v>
       </c>
       <c r="F3">
-        <v>7.606255887589235</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
+        <v>167.98067806598809</v>
       </c>
       <c r="G3">
-        <v>50.787558379805972</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
+        <v>133.75663379735377</v>
       </c>
       <c r="H3">
-        <v>1.6679693945183918</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
+        <v>86.363374214204427</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50.017017840575221</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
+        <v>78.500246930822158</v>
       </c>
       <c r="B4">
-        <v>8.0832515480815932</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
+        <v>170.97748843020327</v>
       </c>
       <c r="C4">
-        <v>13.219346271687204</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
+        <v>138.62335746256639</v>
       </c>
       <c r="D4">
-        <v>27.124316611010585</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>50.483047654857323</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
+        <v>74.114507306575973</v>
       </c>
       <c r="F4">
-        <v>23.805166541194872</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
+        <v>54.640553976703835</v>
       </c>
       <c r="G4">
-        <v>15.617162233644143</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
+        <v>123.71437100225076</v>
       </c>
       <c r="H4">
-        <v>47.682326193384846</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
+        <v>78.500246930822158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13.271274333435011</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
+        <v>49.835342164345207</v>
       </c>
       <c r="B5">
-        <v>14.577986282080861</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
+        <v>96.866340117899426</v>
       </c>
       <c r="C5">
-        <v>22.581067039497054</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
+        <v>136.19693005409749</v>
       </c>
       <c r="D5">
-        <v>46.378783318936037</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
+        <v>74.114507306575973</v>
       </c>
       <c r="E5">
-        <v>18.634811188084086</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>34.323486563774082</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
+        <v>48.488685909883365</v>
       </c>
       <c r="G5">
-        <v>49.903503110247215</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
+        <v>53.217731662034481</v>
       </c>
       <c r="H5">
-        <v>28.887479724172348</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
+        <v>49.835342164345207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25.417008254144928</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
+        <v>86.514578310385502</v>
       </c>
       <c r="B6">
-        <v>5.3423343606103337</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
+        <v>134.80095009850936</v>
       </c>
       <c r="C6">
-        <v>24.435921436557667</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
+        <v>167.98067806598809</v>
       </c>
       <c r="D6">
-        <v>35.883981007534437</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
+        <v>54.640553976703835</v>
       </c>
       <c r="E6">
-        <v>34.642596908956122</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
+        <v>48.488685909883365</v>
       </c>
       <c r="F6">
-        <v>2.9038323714764105</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>15.907359044178332</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
+        <v>100.20971903202198</v>
       </c>
       <c r="H6">
-        <v>29.966242544614669</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
+        <v>86.514578310385502</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28.150331690133374</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
+        <v>63.820738027106671</v>
       </c>
       <c r="B7">
-        <v>28.693522972328431</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
+        <v>55.065879755673841</v>
       </c>
       <c r="C7">
-        <v>38.483125806869481</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
+        <v>133.75663379735377</v>
       </c>
       <c r="D7">
-        <v>49.631884005506798</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
+        <v>123.71437100225076</v>
       </c>
       <c r="E7">
-        <v>25.50996386565501</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
+        <v>53.217731662034481</v>
       </c>
       <c r="F7">
-        <v>26.249282403825283</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
+        <v>100.20971903202198</v>
       </c>
       <c r="G7">
-        <v>45.74799614066233</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>24.233380171521624</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
+        <v>63.820738027106671</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36.204378838040419</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>27.000430143544712</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
+        <v>118.82445109931828</v>
       </c>
       <c r="C8">
-        <v>28.489452942230454</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
+        <v>86.363374214204427</v>
       </c>
       <c r="D8">
-        <v>4.2483276737498237</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
+        <v>78.500246930822158</v>
       </c>
       <c r="E8">
-        <v>8.2337048506934281</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
+        <v>49.835342164345207</v>
       </c>
       <c r="F8">
-        <v>28.233943371103557</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
+        <v>86.514578310385502</v>
       </c>
       <c r="G8">
-        <v>48.904113661834849</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
+        <v>63.820738027106671</v>
       </c>
       <c r="H8">
-        <v>1.8098347100774284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f ca="1">RAND()*50+1</f>
-        <v>17.263745696972297</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:H18" ca="1" si="0">RAND()*50+1</f>
-        <v>32.480374756732445</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1968790185611944</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>42.494246889136058</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>42.670859191331502</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.469835673205749</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.931888434144241</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>37.873376710785863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" ref="A12:A18" ca="1" si="1">RAND()*50+1</f>
-        <v>29.484123047581257</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.74344511921921</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.019774410784933</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.827592469942484</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.0982353194632317</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.979853983801767</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1732680513699751</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6013265048386636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.978657149646889</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.217213700123835</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.114435020486525</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8583910369957852</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.4119795985143</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.687740849653956</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.931943595139622</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.005025353576215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>44.434067662624791</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1934306491091045</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>40.235988780608693</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.943664778016029</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.876323221498087</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.958809906692665</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.054308024461879</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.537101995850946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.035174561746814</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6576213075216275</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.583720796833124</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>40.862546396847911</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.839453314440865</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7829218597846443</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>37.091383501059305</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.368474761386523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.713705325916855</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.389815533583789</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>42.471083173295995</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.342109504908109</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>33.013896628852315</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.377416547585412</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.85086531139163</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.219698374683993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.766022454295552</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.085909352644862</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>33.077778035035735</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.50255468546283</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.71755294712186</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.211960374792529</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>46.503801861034198</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.1392980159263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.796183288435493</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.46434001869013</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.695573335753195</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.461396559809636</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3396489163001641</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8126180272055259</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>46.02619166095041</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.773597603130717</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1311,556 +2337,284 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>Distances!A1/25</f>
-        <v>1.6241861870475847</v>
+        <f>Distances!A1/80</f>
+        <v>0</v>
       </c>
       <c r="B1">
-        <f>Distances!B1/25</f>
-        <v>1.5841871498543301</v>
+        <f ca="1">Distances!B1/80</f>
+        <v>1.4853056387414785</v>
       </c>
       <c r="C1">
-        <f>Distances!C1/25</f>
-        <v>1.9975571521295539</v>
+        <f ca="1">Distances!C1/80</f>
+        <v>1.0795421776775553</v>
       </c>
       <c r="D1">
-        <f>Distances!D1/25</f>
-        <v>0.46860454543381053</v>
+        <f ca="1">Distances!D1/80</f>
+        <v>0.98125308663527699</v>
       </c>
       <c r="E1">
-        <f>Distances!E1/25</f>
-        <v>1.783863629030036</v>
+        <f ca="1">Distances!E1/80</f>
+        <v>0.62294177705431508</v>
       </c>
       <c r="F1">
-        <f>Distances!F1/25</f>
-        <v>1.2958680059628216</v>
+        <f ca="1">Distances!F1/80</f>
+        <v>1.0814322288798188</v>
       </c>
       <c r="G1">
-        <f>Distances!G1/25</f>
-        <v>1.5430257571004093</v>
+        <f ca="1">Distances!G1/80</f>
+        <v>0.79775922533883337</v>
       </c>
       <c r="H1">
-        <f>Distances!H1/25</f>
-        <v>0.41569474822096808</v>
+        <f>Distances!H1/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Distances!A2/25</f>
-        <v>0.16024236061783245</v>
+        <f ca="1">Distances!A2/80</f>
+        <v>1.4853056387414785</v>
       </c>
       <c r="B2">
-        <f>Distances!B2/25</f>
-        <v>0.33361587384302793</v>
+        <f ca="1">Distances!B2/80</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>Distances!C2/25</f>
-        <v>1.6324660000681488</v>
+        <f ca="1">Distances!C2/80</f>
+        <v>2.3020297734200272</v>
       </c>
       <c r="D2">
-        <f>Distances!D2/25</f>
-        <v>0.46131751444084323</v>
+        <f ca="1">Distances!D2/80</f>
+        <v>2.1372186053775408</v>
       </c>
       <c r="E2">
-        <f>Distances!E2/25</f>
-        <v>1.8547584160589801</v>
+        <f ca="1">Distances!E2/80</f>
+        <v>1.2108292514737429</v>
       </c>
       <c r="F2">
-        <f>Distances!F2/25</f>
-        <v>1.5993755937227334</v>
+        <f ca="1">Distances!F2/80</f>
+        <v>1.6850118762313671</v>
       </c>
       <c r="G2">
-        <f>Distances!G2/25</f>
-        <v>0.98517544612301933</v>
+        <f ca="1">Distances!G2/80</f>
+        <v>0.68832349694592299</v>
       </c>
       <c r="H2">
-        <f>Distances!H2/25</f>
-        <v>1.8508079235775121</v>
+        <f ca="1">Distances!H2/80</f>
+        <v>1.4853056387414785</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Distances!A3/25</f>
-        <v>0.72759522860977155</v>
+        <f ca="1">Distances!A3/80</f>
+        <v>1.0795421776775553</v>
       </c>
       <c r="B3">
-        <f>Distances!B3/25</f>
-        <v>0.85579512053305307</v>
+        <f ca="1">Distances!B3/80</f>
+        <v>2.3020297734200272</v>
       </c>
       <c r="C3">
-        <f>Distances!C3/25</f>
-        <v>1.0151501187631009</v>
+        <f ca="1">Distances!C3/80</f>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>Distances!D3/25</f>
-        <v>1.5672977307501679</v>
+        <f ca="1">Distances!D3/80</f>
+        <v>1.7327919682820798</v>
       </c>
       <c r="E3">
-        <f>Distances!E3/25</f>
-        <v>0.71506286590453139</v>
+        <f ca="1">Distances!E3/80</f>
+        <v>1.7024616256762186</v>
       </c>
       <c r="F3">
-        <f>Distances!F3/25</f>
-        <v>0.30425023550356939</v>
+        <f ca="1">Distances!F3/80</f>
+        <v>2.0997584758248511</v>
       </c>
       <c r="G3">
-        <f>Distances!G3/25</f>
-        <v>2.031502335192239</v>
+        <f ca="1">Distances!G3/80</f>
+        <v>1.6719579224669221</v>
       </c>
       <c r="H3">
-        <f>Distances!H3/25</f>
-        <v>6.6718775780735665E-2</v>
+        <f ca="1">Distances!H3/80</f>
+        <v>1.0795421776775553</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Distances!A4/25</f>
-        <v>2.0006807136230087</v>
+        <f ca="1">Distances!A4/80</f>
+        <v>0.98125308663527699</v>
       </c>
       <c r="B4">
-        <f>Distances!B4/25</f>
-        <v>0.32333006192326375</v>
+        <f ca="1">Distances!B4/80</f>
+        <v>2.1372186053775408</v>
       </c>
       <c r="C4">
-        <f>Distances!C4/25</f>
-        <v>0.52877385086748818</v>
+        <f ca="1">Distances!C4/80</f>
+        <v>1.7327919682820798</v>
       </c>
       <c r="D4">
-        <f>Distances!D4/25</f>
-        <v>1.0849726644404234</v>
+        <f ca="1">Distances!D4/80</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f>Distances!E4/25</f>
-        <v>2.0193219061942931</v>
+        <f ca="1">Distances!E4/80</f>
+        <v>0.92643134133219962</v>
       </c>
       <c r="F4">
-        <f>Distances!F4/25</f>
-        <v>0.95220666164779488</v>
+        <f ca="1">Distances!F4/80</f>
+        <v>0.68300692470879798</v>
       </c>
       <c r="G4">
-        <f>Distances!G4/25</f>
-        <v>0.62468648934576576</v>
+        <f ca="1">Distances!G4/80</f>
+        <v>1.5464296375281346</v>
       </c>
       <c r="H4">
-        <f>Distances!H4/25</f>
-        <v>1.9072930477353938</v>
+        <f ca="1">Distances!H4/80</f>
+        <v>0.98125308663527699</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Distances!A5/25</f>
-        <v>0.5308509733374005</v>
+        <f ca="1">Distances!A5/80</f>
+        <v>0.62294177705431508</v>
       </c>
       <c r="B5">
-        <f>Distances!B5/25</f>
-        <v>0.58311945128323439</v>
+        <f ca="1">Distances!B5/80</f>
+        <v>1.2108292514737429</v>
       </c>
       <c r="C5">
-        <f>Distances!C5/25</f>
-        <v>0.90324268157988219</v>
+        <f ca="1">Distances!C5/80</f>
+        <v>1.7024616256762186</v>
       </c>
       <c r="D5">
-        <f>Distances!D5/25</f>
-        <v>1.8551513327574414</v>
+        <f ca="1">Distances!D5/80</f>
+        <v>0.92643134133219962</v>
       </c>
       <c r="E5">
-        <f>Distances!E5/25</f>
-        <v>0.74539244752336342</v>
+        <f ca="1">Distances!E5/80</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>Distances!F5/25</f>
-        <v>1.3729394625509632</v>
+        <f ca="1">Distances!F5/80</f>
+        <v>0.60610857387354211</v>
       </c>
       <c r="G5">
-        <f>Distances!G5/25</f>
-        <v>1.9961401244098886</v>
+        <f ca="1">Distances!G5/80</f>
+        <v>0.66522164577543097</v>
       </c>
       <c r="H5">
-        <f>Distances!H5/25</f>
-        <v>1.155499188966894</v>
+        <f ca="1">Distances!H5/80</f>
+        <v>0.62294177705431508</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Distances!A6/25</f>
-        <v>1.0166803301657972</v>
+        <f ca="1">Distances!A6/80</f>
+        <v>1.0814322288798188</v>
       </c>
       <c r="B6">
-        <f>Distances!B6/25</f>
-        <v>0.21369337442441336</v>
+        <f ca="1">Distances!B6/80</f>
+        <v>1.6850118762313671</v>
       </c>
       <c r="C6">
-        <f>Distances!C6/25</f>
-        <v>0.97743685746230669</v>
+        <f ca="1">Distances!C6/80</f>
+        <v>2.0997584758248511</v>
       </c>
       <c r="D6">
-        <f>Distances!D6/25</f>
-        <v>1.4353592403013775</v>
+        <f ca="1">Distances!D6/80</f>
+        <v>0.68300692470879798</v>
       </c>
       <c r="E6">
-        <f>Distances!E6/25</f>
-        <v>1.385703876358245</v>
+        <f ca="1">Distances!E6/80</f>
+        <v>0.60610857387354211</v>
       </c>
       <c r="F6">
-        <f>Distances!F6/25</f>
-        <v>0.11615329485905641</v>
+        <f ca="1">Distances!F6/80</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>Distances!G6/25</f>
-        <v>0.63629436176713328</v>
+        <f ca="1">Distances!G6/80</f>
+        <v>1.2526214879002748</v>
       </c>
       <c r="H6">
-        <f>Distances!H6/25</f>
-        <v>1.1986497017845867</v>
+        <f ca="1">Distances!H6/80</f>
+        <v>1.0814322288798188</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>Distances!A7/25</f>
-        <v>1.1260132676053349</v>
+        <f ca="1">Distances!A7/80</f>
+        <v>0.79775922533883337</v>
       </c>
       <c r="B7">
-        <f>Distances!B7/25</f>
-        <v>1.1477409188931373</v>
+        <f ca="1">Distances!B7/80</f>
+        <v>0.68832349694592299</v>
       </c>
       <c r="C7">
-        <f>Distances!C7/25</f>
-        <v>1.5393250322747791</v>
+        <f ca="1">Distances!C7/80</f>
+        <v>1.6719579224669221</v>
       </c>
       <c r="D7">
-        <f>Distances!D7/25</f>
-        <v>1.985275360220272</v>
+        <f ca="1">Distances!D7/80</f>
+        <v>1.5464296375281346</v>
       </c>
       <c r="E7">
-        <f>Distances!E7/25</f>
-        <v>1.0203985546262004</v>
+        <f ca="1">Distances!E7/80</f>
+        <v>0.66522164577543097</v>
       </c>
       <c r="F7">
-        <f>Distances!F7/25</f>
-        <v>1.0499712961530114</v>
+        <f ca="1">Distances!F7/80</f>
+        <v>1.2526214879002748</v>
       </c>
       <c r="G7">
-        <f>Distances!G7/25</f>
-        <v>1.8299198456264931</v>
+        <f ca="1">Distances!G7/80</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>Distances!H7/25</f>
-        <v>0.96933520686086494</v>
+        <f ca="1">Distances!H7/80</f>
+        <v>0.79775922533883337</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>Distances!A8/25</f>
-        <v>1.4481751535216167</v>
+        <f>Distances!A8/80</f>
+        <v>0</v>
       </c>
       <c r="B8">
-        <f>Distances!B8/25</f>
-        <v>1.0800172057417885</v>
+        <f ca="1">Distances!B8/80</f>
+        <v>1.4853056387414785</v>
       </c>
       <c r="C8">
-        <f>Distances!C8/25</f>
-        <v>1.1395781176892181</v>
+        <f ca="1">Distances!C8/80</f>
+        <v>1.0795421776775553</v>
       </c>
       <c r="D8">
-        <f>Distances!D8/25</f>
-        <v>0.16993310694999295</v>
+        <f ca="1">Distances!D8/80</f>
+        <v>0.98125308663527699</v>
       </c>
       <c r="E8">
-        <f>Distances!E8/25</f>
-        <v>0.32934819402773713</v>
+        <f ca="1">Distances!E8/80</f>
+        <v>0.62294177705431508</v>
       </c>
       <c r="F8">
-        <f>Distances!F8/25</f>
-        <v>1.1293577348441424</v>
+        <f ca="1">Distances!F8/80</f>
+        <v>1.0814322288798188</v>
       </c>
       <c r="G8">
-        <f>Distances!G8/25</f>
-        <v>1.9561645464733939</v>
+        <f ca="1">Distances!G8/80</f>
+        <v>0.79775922533883337</v>
       </c>
       <c r="H8">
-        <f>Distances!H8/25</f>
-        <v>7.2393388403097128E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f ca="1">RAND()*2</f>
-        <v>1.9308510650278528</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:H19" ca="1" si="0">RAND()*2</f>
-        <v>1.8682671179560975</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0125877032197315</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8339992770819711</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2352747816213072</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4622947697315631</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5563470976586227</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8288179168664802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" ref="A13:A19" ca="1" si="1">RAND()*2</f>
-        <v>0.20387811125178179</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50957857832231634</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.61809026623853591</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8174409875628617</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2913231787464301</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58616869806448557</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9123201463494999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20383420622601234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9917113160216542</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1754118450401505</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95319456156999682</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3315787878743499</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7070184975314036</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3056410615318779</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3703767049946056</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96830934507657251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0344706744964889</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9481143346901024</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52482316292874587</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57447005866298051</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38537566250577604</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60971424112111938</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7098809499541709</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2621475658777976E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75946481545881439</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7128448214857084E-2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5285747173713036</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73005089317983085</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.986778649995971</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76825979618368145</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9388389162983599</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7882365317438242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63599706241707943</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24877427040561662</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55038121826485997</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5106577066897913E-3</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7075759248068325</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4060535603213631</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.971376807520741</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0048006389851691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1103887766017657</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4824648543586569E-4</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1250006240909776</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65080233368900409</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74751743790550274</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51646296267517711</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6812083316134026</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9767633777350948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5983666420532312</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.48714274959139</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1952736090452487</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88559426592492385</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5180058204381248</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21191495665661075</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89070030077762463</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6589818469496336</v>
+        <f>Distances!H8/80</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1876,94 +2630,119 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="C1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>0</v>
       </c>
       <c r="D1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="C5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1979,108 +2758,138 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="E1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="F4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="C5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2097,108 +2906,138 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="F1">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F2">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="B3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F3">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="B5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="C5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
+        <v>1</v>
       </c>
       <c r="F5">
+        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
         <v>1</v>
       </c>
     </row>

--- a/ExactModelData.xlsx
+++ b/ExactModelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\15 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC78AB3-3891-4410-9F2F-547FD65D8282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AF7F7-5ED8-4470-9C3E-A14F10EE1174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -18,21 +18,21 @@
     <sheet name="Times" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AverageUnload">'1D'!$L$2:$L$18</definedName>
-    <definedName name="CoordinatesX">'1D'!$G$3:$G$17</definedName>
-    <definedName name="CoordinatesY">'1D'!$H$3:$H$17</definedName>
-    <definedName name="Demand">'1D'!$I$2:$I$18</definedName>
-    <definedName name="DistanceCost">'1D'!$C$2:$C$6</definedName>
-    <definedName name="Distances">Distances!$A$1:$Q$17</definedName>
-    <definedName name="Locations">'1D'!$F$2:$F$18</definedName>
-    <definedName name="PalletCapacity">'1D'!$E$2:$E$6</definedName>
-    <definedName name="Stores">'1D'!$F$3:$F$17</definedName>
-    <definedName name="TimeCost">'1D'!$D$2:$D$6</definedName>
-    <definedName name="Times">Times!$A$1:$Q$17</definedName>
-    <definedName name="Vehicles">'1D'!$A$2:$A$6</definedName>
-    <definedName name="VehicleTypes">'1D'!$B$2:$B$6</definedName>
-    <definedName name="WindowEnd">'1D'!$K$2:$K$18</definedName>
-    <definedName name="WindowStart">'1D'!$J$2:$J$18</definedName>
+    <definedName name="AverageUnload">'1D'!$L$2:$L$12</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$11</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$11</definedName>
+    <definedName name="Demand">'1D'!$I$2:$I$12</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$4</definedName>
+    <definedName name="Distances">Distances!$A$1:$K$11</definedName>
+    <definedName name="Locations">'1D'!$F$2:$F$12</definedName>
+    <definedName name="PalletCapacity">'1D'!$E$2:$E$4</definedName>
+    <definedName name="Stores">'1D'!$F$3:$F$11</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$4</definedName>
+    <definedName name="Times">Times!$A$1:$K$11</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$4</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$4</definedName>
+    <definedName name="WindowEnd">'1D'!$K$2:$K$12</definedName>
+    <definedName name="WindowStart">'1D'!$J$2:$J$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Pallets</t>
   </si>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <t>SP3</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>SP5</t>
   </si>
 </sst>
 </file>
@@ -304,62 +298,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Plot of Locations on Cartesian Plane</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -401,61 +340,593 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F17E6926-BB02-40A7-8199-221446AFC765}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{31BD0343-34DB-40F3-B2DF-4844B4A9C720}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FAC75548-2767-488A-B6D9-34817EDD8F87}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F7A620F4-132F-4D68-A4F0-312F2BA70280}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{19B5F28F-7915-47D6-A78C-95ECB94B6280}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7395B56B-FEEB-446A-801A-0729D3E1D75C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9F835119-380C-4958-A60B-771182C6E8D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF203660-2615-486B-865C-58F4C4CFEC4F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9512B093-07E3-4661-978B-7E4C0D6A983A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0EC9FA38-C846-4153-9824-1A347BE93213}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-BF8A-4BDE-853D-4D797AD146A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'1D'!$G$2:$G$18</c:f>
+              <c:f>'1D'!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-83.503707554822554</c:v>
+                  <c:v>52.242025697000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.838973211028375</c:v>
+                  <c:v>80.086666249999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.368713616605817</c:v>
+                  <c:v>-76.004541665000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-91.039523338186044</c:v>
+                  <c:v>-38.970221631999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.019863248821977</c:v>
+                  <c:v>-12.545645200999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.7689645484817191</c:v>
+                  <c:v>-77.815274565999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-72.609760336112004</c:v>
+                  <c:v>-63.286724196000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.347216383381237</c:v>
+                  <c:v>-77.959312108000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.104851436961638</c:v>
+                  <c:v>-33.625187943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-21.188712341677814</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.425110449126052</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-76.029417833333497</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.915780645085945</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38.442823926569332</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-31.596878782399244</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -463,59 +934,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1D'!$H$2:$H$18</c:f>
+              <c:f>'1D'!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-91.882044162040643</c:v>
+                  <c:v>-37.558585418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-42.899376810465185</c:v>
+                  <c:v>89.799082729999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-89.797262992063096</c:v>
+                  <c:v>56.254022022999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5299828786307756</c:v>
+                  <c:v>47.864183666999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-23.886618860526042</c:v>
+                  <c:v>95.706405587999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19.176063669361227</c:v>
+                  <c:v>-60.686567365000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1008963912182708</c:v>
+                  <c:v>43.146205520000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.074467280331476</c:v>
+                  <c:v>88.184070164000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.571629006632904</c:v>
+                  <c:v>9.9060373790000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-36.536199534554356</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0434138044774244</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-22.146944308185837</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-95.376069467604395</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-60.610229808791928</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71.533311313234975</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -523,6 +976,44 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'1D'!$F$2:$F$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>Depot</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AE0B-48B0-AD98-AFCF432CC92C}"/>
             </c:ext>
@@ -543,6 +1034,8 @@
         <c:axId val="506125392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -600,6 +1093,7 @@
         <c:crossAx val="506128344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="506128344"/>
@@ -664,6 +1158,7 @@
         <c:crossAx val="506125392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1580,10 +2075,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,21 +2163,20 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="str">
-        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.82671605899585621</v>
+        <v>1.2174041529999999</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>12.605782265</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1697,31 +2191,28 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2:L17" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>6.3638688664723386E-2</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" cm="1">
-        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.2935285967234582</v>
-      </c>
-      <c r="T2" cm="1">
-        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>13.601574815529718</v>
+      <c r="S2">
+        <v>1.2174041529999999</v>
+      </c>
+      <c r="T2">
+        <v>12.605782265</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1731,48 +2222,41 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="str">
-        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.82671605899585621</v>
+        <v>1.2174041529999999</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>12.605782265</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" aca="1" ref="G3:H17" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-83.503707554822554</v>
+      <c r="G3">
+        <v>52.242025697000003</v>
       </c>
       <c r="H3">
-        <f ca="1"/>
-        <v>-91.882044162040643</v>
-      </c>
-      <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3:I17" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>6</v>
+        <v>-37.558585418</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
       </c>
       <c r="J3">
-        <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3">
-        <f ca="1"/>
-        <v>3.9615300530882774E-2</v>
+        <v>6.0925027999999999E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1784,12 +2268,10 @@
         <v>30</v>
       </c>
       <c r="S3">
-        <f ca="1"/>
-        <v>1.4273913079378417</v>
+        <v>1.2174041529999999</v>
       </c>
       <c r="T3">
-        <f ca="1"/>
-        <v>8.4113605481441898</v>
+        <v>12.605782265</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1799,48 +2281,41 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="str">
-        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4273913079378417</v>
+        <v>1.2174041529999999</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>8.4113605481441898</v>
+        <v>12.605782265</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f ca="1"/>
-        <v>32.838973211028375</v>
+        <v>80.086666249999993</v>
       </c>
       <c r="H4">
-        <f ca="1"/>
-        <v>-42.899376810465185</v>
+        <v>89.799082729999995</v>
       </c>
       <c r="I4">
-        <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J17" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
         <v>24</v>
       </c>
       <c r="L4">
-        <f ca="1"/>
-        <v>9.3921951846831692E-2</v>
+        <v>6.0846624000000002E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1852,119 +2327,67 @@
         <v>31</v>
       </c>
       <c r="S4">
-        <f ca="1"/>
-        <v>0.82671605899585621</v>
+        <v>1.2174041529999999</v>
       </c>
       <c r="T4">
-        <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>12.605782265</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="str">
-        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.82671605899585621</v>
-      </c>
-      <c r="D5" s="8">
-        <f ca="1"/>
-        <v>13.678900963907052</v>
-      </c>
-      <c r="E5" s="2">
-        <f ca="1"/>
-        <v>30</v>
-      </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <f ca="1"/>
-        <v>44.368713616605817</v>
+        <v>-76.004541665000005</v>
       </c>
       <c r="H5">
-        <f ca="1"/>
-        <v>-89.797262992063096</v>
+        <v>56.254022022999997</v>
       </c>
       <c r="I5">
-        <f ca="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="L5">
-        <f ca="1"/>
-        <v>4.5284104574492834E-2</v>
+        <v>0.13388272500000001</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="5">
-        <f ca="1">COUNT(E:E)/(P2*2)</f>
+        <f ca="1">COUNT(E:E)/P2/2</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="str">
-        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2935285967234582</v>
-      </c>
-      <c r="D6" s="8">
-        <f ca="1"/>
-        <v>13.601574815529718</v>
-      </c>
-      <c r="E6" s="2">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <f ca="1"/>
-        <v>-91.039523338186044</v>
+        <v>-38.970221631999998</v>
       </c>
       <c r="H6">
-        <f ca="1"/>
-        <v>-1.5299828786307756</v>
+        <v>47.864183666999999</v>
       </c>
       <c r="I6">
-        <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="L6">
-        <f ca="1"/>
-        <v>1.9651337607100389E-2</v>
+        <v>0.136567037</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1980,28 +2403,22 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <f ca="1"/>
-        <v>69.019863248821977</v>
+        <v>-12.545645200999999</v>
       </c>
       <c r="H7">
-        <f ca="1"/>
-        <v>-23.886618860526042</v>
+        <v>95.706405587999996</v>
       </c>
       <c r="I7">
-        <f ca="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
         <v>24</v>
       </c>
       <c r="L7">
-        <f ca="1"/>
-        <v>0.14550663275009612</v>
+        <v>3.3671476999999998E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -2016,28 +2433,22 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <f ca="1"/>
-        <v>-7.7689645484817191</v>
+        <v>-77.815274565999999</v>
       </c>
       <c r="H8">
-        <f ca="1"/>
-        <v>-19.176063669361227</v>
+        <v>-60.686567365000002</v>
       </c>
       <c r="I8">
-        <f ca="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K17" ca="1" si="3">IF(J8=0,24,J8+1)</f>
         <v>24</v>
       </c>
       <c r="L8">
-        <f ca="1"/>
-        <v>7.9190930605902515E-2</v>
+        <v>5.6171013999999998E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2051,28 +2462,22 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <f ca="1"/>
-        <v>-72.609760336112004</v>
+        <v>-63.286724196000002</v>
       </c>
       <c r="H9">
-        <f ca="1"/>
-        <v>7.1008963912182708</v>
+        <v>43.146205520000002</v>
       </c>
       <c r="I9">
-        <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L9">
-        <f ca="1"/>
-        <v>8.2560659441961365E-2</v>
+        <v>5.0397431999999999E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2086,28 +2491,22 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <f ca="1"/>
-        <v>-21.347216383381237</v>
+        <v>-77.959312108000006</v>
       </c>
       <c r="H10">
-        <f ca="1"/>
-        <v>81.074467280331476</v>
+        <v>88.184070164000005</v>
       </c>
       <c r="I10">
-        <f ca="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L10">
-        <f ca="1"/>
-        <v>8.6666163950968822E-2</v>
+        <v>5.1806891000000001E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2121,28 +2520,22 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <f ca="1"/>
-        <v>87.104851436961638</v>
+        <v>-33.625187943</v>
       </c>
       <c r="H11">
-        <f ca="1"/>
-        <v>63.571629006632904</v>
+        <v>9.9060373790000007</v>
       </c>
       <c r="I11">
-        <f ca="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L11">
-        <f ca="1"/>
-        <v>5.4540566948042213E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2152,32 +2545,26 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <v>10</v>
+      <c r="F12" t="s">
+        <v>11</v>
       </c>
       <c r="G12">
-        <f ca="1"/>
-        <v>-21.188712341677814</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f ca="1"/>
-        <v>-36.536199534554356</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f ca="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L12">
-        <f ca="1"/>
-        <v>6.1941676769612153E-2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2186,190 +2573,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <f ca="1"/>
-        <v>6.425110449126052</v>
-      </c>
-      <c r="H13">
-        <f ca="1"/>
-        <v>8.0434138044774244</v>
-      </c>
-      <c r="I13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <f ca="1"/>
-        <v>0.13982306834223285</v>
-      </c>
-    </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <f ca="1"/>
-        <v>-76.029417833333497</v>
-      </c>
-      <c r="H14">
-        <f ca="1"/>
-        <v>-22.146944308185837</v>
-      </c>
-      <c r="I14">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <f ca="1"/>
-        <v>0.10993037338872977</v>
-      </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <f ca="1"/>
-        <v>56.915780645085945</v>
-      </c>
-      <c r="H15">
-        <f ca="1"/>
-        <v>-95.376069467604395</v>
-      </c>
-      <c r="I15">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L15">
-        <f ca="1"/>
-        <v>6.1290953739418286E-2</v>
-      </c>
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
-        <f ca="1">SUM(I:I)</f>
-        <v>82</v>
+        <f>SUM(I:I)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <f ca="1"/>
-        <v>38.442823926569332</v>
-      </c>
-      <c r="H16">
-        <f ca="1"/>
-        <v>-60.610229808791928</v>
-      </c>
-      <c r="I16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L16">
-        <f ca="1"/>
-        <v>4.285161484019423E-2</v>
-      </c>
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.640625</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>-63.286724196000002</v>
+      </c>
+      <c r="P24">
+        <v>43.146205520000002</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>24</v>
+      </c>
+      <c r="T24">
+        <v>5.0397431999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>-33.625187943</v>
+      </c>
+      <c r="P25">
+        <v>9.9060373790000007</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>14</v>
+      </c>
+      <c r="S25">
         <v>15</v>
       </c>
-      <c r="G17">
-        <f ca="1"/>
-        <v>-31.596878782399244</v>
-      </c>
-      <c r="H17">
-        <f ca="1"/>
-        <v>71.533311313234975</v>
-      </c>
-      <c r="I17">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L17">
-        <f ca="1"/>
-        <v>0.15682521012445039</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>32</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+      <c r="T25">
+        <v>0.12837673699999999</v>
       </c>
     </row>
   </sheetData>
@@ -2385,1201 +2656,517 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K11" sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
       <c r="B1">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>124.15788019612978</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
+        <v>64.341872738732206</v>
       </c>
       <c r="C1">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>54.025500388991468</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
+        <v>120.32351960522212</v>
       </c>
       <c r="D1">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>100.16052709954221</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
+        <v>94.557947034984267</v>
       </c>
       <c r="E1">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>91.052378646870196</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
+        <v>61.722429085021517</v>
       </c>
       <c r="F1">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>73.036375070742153</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
+        <v>96.525174354072689</v>
       </c>
       <c r="G1">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>20.690051425913889</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
+        <v>98.681692396962106</v>
       </c>
       <c r="H1">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>72.956151389902971</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
+        <v>76.59506844591661</v>
       </c>
       <c r="I1">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>83.837777237403188</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
+        <v>117.70337537658736</v>
       </c>
       <c r="J1">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>107.83601976339875</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
+        <v>35.05399892674469</v>
       </c>
       <c r="K1">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>42.235712461460146</v>
-      </c>
-      <c r="L1">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>10.294588379994936</v>
-      </c>
-      <c r="M1">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>79.189390187483411</v>
-      </c>
-      <c r="N1">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
-        <v>111.0675502274577</v>
-      </c>
-      <c r="O1">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G2)^2+('1D'!$H$16-'1D'!$H2)^2)</f>
-        <v>71.773607049693283</v>
-      </c>
-      <c r="P1">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G2)^2+('1D'!$H$17-'1D'!$H2)^2)</f>
-        <v>78.200878359682264</v>
-      </c>
-      <c r="Q1">
-        <f>SQRT(('1D'!$G$18-'1D'!$G2)^2+('1D'!$H$18-'1D'!$H2)^2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>124.15788019612978</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
+        <v>64.341872738732206</v>
       </c>
       <c r="B2">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
+        <f>SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>126.23359722617349</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
+        <v>130.36602181405192</v>
       </c>
       <c r="D2">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>127.88941476435747</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
+        <v>158.89615273824339</v>
       </c>
       <c r="E2">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>90.665779088263747</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
+        <v>124.96688977867657</v>
       </c>
       <c r="F2">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>166.99346547882709</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
+        <v>148.17894630552891</v>
       </c>
       <c r="G2">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>104.98528895820772</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
+        <v>132.09770967220021</v>
       </c>
       <c r="H2">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>99.58062365025657</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
+        <v>140.92606335304208</v>
       </c>
       <c r="I2">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>183.7862460715188</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
+        <v>181.00719267207367</v>
       </c>
       <c r="J2">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>230.80971578962158</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
+        <v>98.112531287083272</v>
       </c>
       <c r="K2">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>83.344592781680234</v>
-      </c>
-      <c r="L2">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>134.43321560315994</v>
-      </c>
-      <c r="M2">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>70.134507615494513</v>
-      </c>
-      <c r="N2">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>140.46295198079872</v>
-      </c>
-      <c r="O2">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G3)^2+('1D'!$H$16-'1D'!$H3)^2)</f>
-        <v>125.89234652386996</v>
-      </c>
-      <c r="P2">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G3)^2+('1D'!$H$17-'1D'!$H3)^2)</f>
-        <v>171.46106636295121</v>
-      </c>
-      <c r="Q2">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G3)^2+('1D'!$H$18-'1D'!$H3)^2)</f>
-        <v>124.15788019612978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
+        <v>64.341872738732206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>54.025500388991468</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
+        <v>120.32351960522212</v>
       </c>
       <c r="B3">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>126.23359722617349</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
+        <v>130.36602181405192</v>
       </c>
       <c r="C3">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
+        <f>SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>48.294374849687387</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
+        <v>159.65505405780323</v>
       </c>
       <c r="E3">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>130.60363188510885</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
+        <v>126.22629801895924</v>
       </c>
       <c r="F3">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>40.87226160600715</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
+        <v>92.820480434566335</v>
       </c>
       <c r="G3">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>47.029779879041769</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
+        <v>218.12600440565157</v>
       </c>
       <c r="H3">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>116.70245381712758</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
+        <v>150.77274302722128</v>
       </c>
       <c r="I3">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>135.29840043921607</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
+        <v>158.0542297463935</v>
       </c>
       <c r="J3">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>119.50255486530969</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
+        <v>138.97224355772281</v>
       </c>
       <c r="K3">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>54.40111056979228</v>
-      </c>
-      <c r="L3">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>57.383447627713124</v>
-      </c>
-      <c r="M3">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>110.82865163553039</v>
-      </c>
-      <c r="N3">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>57.736435016794537</v>
-      </c>
-      <c r="O3">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G4)^2+('1D'!$H$16-'1D'!$H4)^2)</f>
-        <v>18.576260570158038</v>
-      </c>
-      <c r="P3">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G4)^2+('1D'!$H$17-'1D'!$H4)^2)</f>
-        <v>131.32714545490944</v>
-      </c>
-      <c r="Q3">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G4)^2+('1D'!$H$18-'1D'!$H4)^2)</f>
-        <v>54.025500388991468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
+        <v>120.32351960522212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>100.16052709954221</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
+        <v>94.557947034984267</v>
       </c>
       <c r="B4">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>127.88941476435747</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
+        <v>158.89615273824339</v>
       </c>
       <c r="C4">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>48.294374849687387</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
+        <v>159.65505405780323</v>
       </c>
       <c r="D4">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
+        <f>SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>161.63694928396842</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
+        <v>37.972756654560577</v>
       </c>
       <c r="F4">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>70.369682307255246</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
+        <v>74.722969088417216</v>
       </c>
       <c r="G4">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>87.782066951189023</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
+        <v>116.95460743404504</v>
       </c>
       <c r="H4">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>151.89870526167917</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
+        <v>18.263563032746941</v>
       </c>
       <c r="I4">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>183.07302275880292</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
+        <v>31.989828098497252</v>
       </c>
       <c r="J4">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>159.21179136203489</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
+        <v>62.802430704988282</v>
       </c>
       <c r="K4">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>84.466069986122903</v>
-      </c>
-      <c r="L4">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>104.94053105133537</v>
-      </c>
-      <c r="M4">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>138.10241009724277</v>
-      </c>
-      <c r="N4">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>13.731422821714968</v>
-      </c>
-      <c r="O4">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G5)^2+('1D'!$H$16-'1D'!$H5)^2)</f>
-        <v>29.782529688726125</v>
-      </c>
-      <c r="P4">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G5)^2+('1D'!$H$17-'1D'!$H5)^2)</f>
-        <v>178.32084969012757</v>
-      </c>
-      <c r="Q4">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G5)^2+('1D'!$H$18-'1D'!$H5)^2)</f>
-        <v>100.16052709954221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
+        <v>94.557947034984267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>91.052378646870196</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
+        <v>61.722429085021517</v>
       </c>
       <c r="B5">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>90.665779088263747</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
+        <v>124.96688977867657</v>
       </c>
       <c r="C5">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>130.60363188510885</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
+        <v>126.22629801895924</v>
       </c>
       <c r="D5">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>161.63694928396842</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
+        <v>37.972756654560577</v>
       </c>
       <c r="E5">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
+        <f>SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>161.61319997771301</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
+        <v>54.654701882783819</v>
       </c>
       <c r="G5">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>85.119739945694093</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
+        <v>115.29181968837386</v>
       </c>
       <c r="H5">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>20.350632454135845</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
+        <v>24.769974056114556</v>
       </c>
       <c r="I5">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>108.07642127100254</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
+        <v>56.087809934750332</v>
       </c>
       <c r="J5">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>189.66717727136603</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
+        <v>38.332626504816396</v>
       </c>
       <c r="K5">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>78.131754117204977</v>
-      </c>
-      <c r="L5">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>97.933675328494672</v>
-      </c>
-      <c r="M5">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>25.502203156875797</v>
-      </c>
-      <c r="N5">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>175.20804760297844</v>
-      </c>
-      <c r="O5">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G6)^2+('1D'!$H$16-'1D'!$H6)^2)</f>
-        <v>142.32411542152485</v>
-      </c>
-      <c r="P5">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G6)^2+('1D'!$H$17-'1D'!$H6)^2)</f>
-        <v>94.189558603662292</v>
-      </c>
-      <c r="Q5">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G6)^2+('1D'!$H$18-'1D'!$H6)^2)</f>
-        <v>91.052378646870196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
+        <v>61.722429085021517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>73.036375070742153</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
+        <v>96.525174354072689</v>
       </c>
       <c r="B6">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>166.99346547882709</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
+        <v>148.17894630552891</v>
       </c>
       <c r="C6">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>40.87226160600715</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
+        <v>92.820480434566335</v>
       </c>
       <c r="D6">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>70.369682307255246</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
+        <v>74.722969088417216</v>
       </c>
       <c r="E6">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>161.61319997771301</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
+        <v>54.654701882783819</v>
       </c>
       <c r="F6">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
+        <f>SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>76.933174929239541</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
+        <v>169.46647605506601</v>
       </c>
       <c r="H6">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>144.97991715505694</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
+        <v>73.056359947406477</v>
       </c>
       <c r="I6">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>138.50284720943995</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
+        <v>65.844767054422121</v>
       </c>
       <c r="J6">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>89.308520969494069</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
+        <v>88.351855141880208</v>
       </c>
       <c r="K6">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>91.091157646039747</v>
-      </c>
-      <c r="L6">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>70.268272100879415</v>
-      </c>
-      <c r="M6">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>145.05971325629389</v>
-      </c>
-      <c r="N6">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>72.506898732327258</v>
-      </c>
-      <c r="O6">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G7)^2+('1D'!$H$16-'1D'!$H7)^2)</f>
-        <v>47.786807120733421</v>
-      </c>
-      <c r="P6">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G7)^2+('1D'!$H$17-'1D'!$H7)^2)</f>
-        <v>138.66755875597849</v>
-      </c>
-      <c r="Q6">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G7)^2+('1D'!$H$18-'1D'!$H7)^2)</f>
-        <v>73.036375070742153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
+        <v>96.525174354072689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>20.690051425913889</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
+        <v>98.681692396962106</v>
       </c>
       <c r="B7">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>104.98528895820772</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
+        <v>132.09770967220021</v>
       </c>
       <c r="C7">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>47.029779879041769</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
+        <v>218.12600440565157</v>
       </c>
       <c r="D7">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>87.782066951189023</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
+        <v>116.95460743404504</v>
       </c>
       <c r="E7">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>85.119739945694093</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
+        <v>115.29181968837386</v>
       </c>
       <c r="F7">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>76.933174929239541</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
+        <v>169.46647605506601</v>
       </c>
       <c r="G7">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
+        <f>SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>69.962900371543085</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
+        <v>104.84428215616538</v>
       </c>
       <c r="I7">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>101.16589286210667</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
+        <v>148.87070720966034</v>
       </c>
       <c r="J7">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>125.88972000461571</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
+        <v>83.283129145649028</v>
       </c>
       <c r="K7">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>21.94228675619194</v>
-      </c>
-      <c r="L7">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>30.69807353868519</v>
-      </c>
-      <c r="M7">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>68.325073102219037</v>
-      </c>
-      <c r="N7">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>99.952774570839537</v>
-      </c>
-      <c r="O7">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G8)^2+('1D'!$H$16-'1D'!$H8)^2)</f>
-        <v>62.067056622114819</v>
-      </c>
-      <c r="P7">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G8)^2+('1D'!$H$17-'1D'!$H8)^2)</f>
-        <v>93.786780552869914</v>
-      </c>
-      <c r="Q7">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G8)^2+('1D'!$H$18-'1D'!$H8)^2)</f>
-        <v>20.690051425913889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
+        <v>98.681692396962106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>72.956151389902971</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
+        <v>76.59506844591661</v>
       </c>
       <c r="B8">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>99.58062365025657</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
+        <v>140.92606335304208</v>
       </c>
       <c r="C8">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>116.70245381712758</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
+        <v>150.77274302722128</v>
       </c>
       <c r="D8">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>151.89870526167917</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
+        <v>18.263563032746941</v>
       </c>
       <c r="E8">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>20.350632454135845</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
+        <v>24.769974056114556</v>
       </c>
       <c r="F8">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>144.97991715505694</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
+        <v>73.056359947406477</v>
       </c>
       <c r="G8">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>69.962900371543085</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
+        <v>104.84428215616538</v>
       </c>
       <c r="H8">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
+        <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>89.999653347067451</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
+        <v>47.367648112679547</v>
       </c>
       <c r="J8">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>169.40395761594618</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
+        <v>44.550146025910898</v>
       </c>
       <c r="K8">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>67.441236033164358</v>
-      </c>
-      <c r="L8">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>79.040490504004168</v>
-      </c>
-      <c r="M8">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>29.447075287301836</v>
-      </c>
-      <c r="N8">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>165.16172164912271</v>
-      </c>
-      <c r="O8">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G9)^2+('1D'!$H$16-'1D'!$H9)^2)</f>
-        <v>130.06718680241241</v>
-      </c>
-      <c r="P8">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G9)^2+('1D'!$H$17-'1D'!$H9)^2)</f>
-        <v>76.377958509126131</v>
-      </c>
-      <c r="Q8">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G9)^2+('1D'!$H$18-'1D'!$H9)^2)</f>
-        <v>72.956151389902971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
+        <v>76.59506844591661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>83.837777237403188</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
+        <v>117.70337537658736</v>
       </c>
       <c r="B9">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>183.7862460715188</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
+        <v>181.00719267207367</v>
       </c>
       <c r="C9">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>135.29840043921607</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
+        <v>158.0542297463935</v>
       </c>
       <c r="D9">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>183.07302275880292</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
+        <v>31.989828098497252</v>
       </c>
       <c r="E9">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>108.07642127100254</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
+        <v>56.087809934750332</v>
       </c>
       <c r="F9">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>138.50284720943995</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
+        <v>65.844767054422121</v>
       </c>
       <c r="G9">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>101.16589286210667</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
+        <v>148.87070720966034</v>
       </c>
       <c r="H9">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>89.999653347067451</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
+        <v>47.367648112679547</v>
       </c>
       <c r="I9">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
+        <f>SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>109.85536109878069</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
+        <v>89.960908077715473</v>
       </c>
       <c r="K9">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>117.61077362288425</v>
-      </c>
-      <c r="L9">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>78.133455763102262</v>
-      </c>
-      <c r="M9">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>116.81097108465137</v>
-      </c>
-      <c r="N9">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>193.02820680541103</v>
-      </c>
-      <c r="O9">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G10)^2+('1D'!$H$16-'1D'!$H10)^2)</f>
-        <v>153.78362172059212</v>
-      </c>
-      <c r="P9">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G10)^2+('1D'!$H$17-'1D'!$H10)^2)</f>
-        <v>14.003186654554909</v>
-      </c>
-      <c r="Q9">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G10)^2+('1D'!$H$18-'1D'!$H10)^2)</f>
-        <v>83.837777237403188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
+        <v>117.70337537658736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>107.83601976339875</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
+        <v>35.05399892674469</v>
       </c>
       <c r="B10">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>230.80971578962158</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
+        <v>98.112531287083272</v>
       </c>
       <c r="C10">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>119.50255486530969</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
+        <v>138.97224355772281</v>
       </c>
       <c r="D10">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>159.21179136203489</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
+        <v>62.802430704988282</v>
       </c>
       <c r="E10">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>189.66717727136603</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
+        <v>38.332626504816396</v>
       </c>
       <c r="F10">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>89.308520969494069</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
+        <v>88.351855141880208</v>
       </c>
       <c r="G10">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>125.88972000461571</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
+        <v>83.283129145649028</v>
       </c>
       <c r="H10">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>169.40395761594618</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
+        <v>44.550146025910898</v>
       </c>
       <c r="I10">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>109.85536109878069</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
+        <v>89.960908077715473</v>
       </c>
       <c r="J10">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
+        <f>SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>147.47567016667529</v>
-      </c>
-      <c r="L10">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>97.941836257041501</v>
-      </c>
-      <c r="M10">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>184.28364990275486</v>
-      </c>
-      <c r="N10">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>161.78921733395569</v>
-      </c>
-      <c r="O10">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G11)^2+('1D'!$H$16-'1D'!$H11)^2)</f>
-        <v>133.3758860524506</v>
-      </c>
-      <c r="P10">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G11)^2+('1D'!$H$17-'1D'!$H11)^2)</f>
-        <v>118.96843758838389</v>
-      </c>
-      <c r="Q10">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G11)^2+('1D'!$H$18-'1D'!$H11)^2)</f>
-        <v>107.83601976339875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
+        <v>35.05399892674469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>42.235712461460146</v>
+        <f>SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
+        <v>0</v>
       </c>
       <c r="B11">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>83.344592781680234</v>
+        <f>SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
+        <v>64.341872738732206</v>
       </c>
       <c r="C11">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>54.40111056979228</v>
+        <f>SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
+        <v>120.32351960522212</v>
       </c>
       <c r="D11">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>84.466069986122903</v>
+        <f>SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
+        <v>94.557947034984267</v>
       </c>
       <c r="E11">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>78.131754117204977</v>
+        <f>SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
+        <v>61.722429085021517</v>
       </c>
       <c r="F11">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>91.091157646039747</v>
+        <f>SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
+        <v>96.525174354072689</v>
       </c>
       <c r="G11">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>21.94228675619194</v>
+        <f>SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
+        <v>98.681692396962106</v>
       </c>
       <c r="H11">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>67.441236033164358</v>
+        <f>SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
+        <v>76.59506844591661</v>
       </c>
       <c r="I11">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>117.61077362288425</v>
+        <f>SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
+        <v>117.70337537658736</v>
       </c>
       <c r="J11">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>147.47567016667529</v>
+        <f>SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
+        <v>35.05399892674469</v>
       </c>
       <c r="K11">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>52.439156501411226</v>
-      </c>
-      <c r="M11">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>56.697033827106758</v>
-      </c>
-      <c r="N11">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>97.787740123482124</v>
-      </c>
-      <c r="O11">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G12)^2+('1D'!$H$16-'1D'!$H12)^2)</f>
-        <v>64.307690452668112</v>
-      </c>
-      <c r="P11">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G12)^2+('1D'!$H$17-'1D'!$H12)^2)</f>
-        <v>108.56955882538261</v>
-      </c>
-      <c r="Q11">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G12)^2+('1D'!$H$18-'1D'!$H12)^2)</f>
-        <v>42.235712461460146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>10.294588379994936</v>
-      </c>
-      <c r="B12">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>134.43321560315994</v>
-      </c>
-      <c r="C12">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>57.383447627713124</v>
-      </c>
-      <c r="D12">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>104.94053105133537</v>
-      </c>
-      <c r="E12">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>97.933675328494672</v>
-      </c>
-      <c r="F12">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>70.268272100879415</v>
-      </c>
-      <c r="G12">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>30.69807353868519</v>
-      </c>
-      <c r="H12">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>79.040490504004168</v>
-      </c>
-      <c r="I12">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>78.133455763102262</v>
-      </c>
-      <c r="J12">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>97.941836257041501</v>
-      </c>
-      <c r="K12">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>52.439156501411226</v>
-      </c>
-      <c r="L12">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>87.807784149548922</v>
-      </c>
-      <c r="N12">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>115.0864774728187</v>
-      </c>
-      <c r="O12">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G13)^2+('1D'!$H$16-'1D'!$H13)^2)</f>
-        <v>75.752602316365682</v>
-      </c>
-      <c r="P12">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G13)^2+('1D'!$H$17-'1D'!$H13)^2)</f>
-        <v>74.004315757898638</v>
-      </c>
-      <c r="Q12">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G13)^2+('1D'!$H$18-'1D'!$H13)^2)</f>
-        <v>10.294588379994936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>79.189390187483411</v>
-      </c>
-      <c r="B13">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>70.134507615494513</v>
-      </c>
-      <c r="C13">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>110.82865163553039</v>
-      </c>
-      <c r="D13">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>138.10241009724277</v>
-      </c>
-      <c r="E13">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>25.502203156875797</v>
-      </c>
-      <c r="F13">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>145.05971325629389</v>
-      </c>
-      <c r="G13">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>68.325073102219037</v>
-      </c>
-      <c r="H13">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>29.447075287301836</v>
-      </c>
-      <c r="I13">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>116.81097108465137</v>
-      </c>
-      <c r="J13">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>184.28364990275486</v>
-      </c>
-      <c r="K13">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>56.697033827106758</v>
-      </c>
-      <c r="L13">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>87.807784149548922</v>
-      </c>
-      <c r="M13">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>151.77921652874656</v>
-      </c>
-      <c r="O13">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G14)^2+('1D'!$H$16-'1D'!$H14)^2)</f>
-        <v>120.7614113243083</v>
-      </c>
-      <c r="P13">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G14)^2+('1D'!$H$17-'1D'!$H14)^2)</f>
-        <v>103.6833680963709</v>
-      </c>
-      <c r="Q13">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G14)^2+('1D'!$H$18-'1D'!$H14)^2)</f>
-        <v>79.189390187483411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G15)^2+('1D'!$H$2-'1D'!$H15)^2)</f>
-        <v>111.0675502274577</v>
-      </c>
-      <c r="B14">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>140.46295198079872</v>
-      </c>
-      <c r="C14">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>57.736435016794537</v>
-      </c>
-      <c r="D14">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>13.731422821714968</v>
-      </c>
-      <c r="E14">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>175.20804760297844</v>
-      </c>
-      <c r="F14">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>72.506898732327258</v>
-      </c>
-      <c r="G14">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>99.952774570839537</v>
-      </c>
-      <c r="H14">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>165.16172164912271</v>
-      </c>
-      <c r="I14">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>193.02820680541103</v>
-      </c>
-      <c r="J14">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>161.78921733395569</v>
-      </c>
-      <c r="K14">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>97.787740123482124</v>
-      </c>
-      <c r="L14">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>115.0864774728187</v>
-      </c>
-      <c r="M14">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>151.77921652874656</v>
-      </c>
-      <c r="N14">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G15)^2+('1D'!$H$16-'1D'!$H15)^2)</f>
-        <v>39.368943814972297</v>
-      </c>
-      <c r="P14">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G15)^2+('1D'!$H$17-'1D'!$H15)^2)</f>
-        <v>188.92652611946585</v>
-      </c>
-      <c r="Q14">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G15)^2+('1D'!$H$18-'1D'!$H15)^2)</f>
-        <v>111.0675502274577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G16)^2+('1D'!$H$2-'1D'!$H16)^2)</f>
-        <v>71.773607049693283</v>
-      </c>
-      <c r="B15">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G16)^2+('1D'!$H$3-'1D'!$H16)^2)</f>
-        <v>125.89234652386996</v>
-      </c>
-      <c r="C15">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G16)^2+('1D'!$H$4-'1D'!$H16)^2)</f>
-        <v>18.576260570158038</v>
-      </c>
-      <c r="D15">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G16)^2+('1D'!$H$5-'1D'!$H16)^2)</f>
-        <v>29.782529688726125</v>
-      </c>
-      <c r="E15">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G16)^2+('1D'!$H$6-'1D'!$H16)^2)</f>
-        <v>142.32411542152485</v>
-      </c>
-      <c r="F15">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G16)^2+('1D'!$H$7-'1D'!$H16)^2)</f>
-        <v>47.786807120733421</v>
-      </c>
-      <c r="G15">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G16)^2+('1D'!$H$8-'1D'!$H16)^2)</f>
-        <v>62.067056622114819</v>
-      </c>
-      <c r="H15">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G16)^2+('1D'!$H$9-'1D'!$H16)^2)</f>
-        <v>130.06718680241241</v>
-      </c>
-      <c r="I15">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G16)^2+('1D'!$H$10-'1D'!$H16)^2)</f>
-        <v>153.78362172059212</v>
-      </c>
-      <c r="J15">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G16)^2+('1D'!$H$11-'1D'!$H16)^2)</f>
-        <v>133.3758860524506</v>
-      </c>
-      <c r="K15">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G16)^2+('1D'!$H$12-'1D'!$H16)^2)</f>
-        <v>64.307690452668112</v>
-      </c>
-      <c r="L15">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G16)^2+('1D'!$H$13-'1D'!$H16)^2)</f>
-        <v>75.752602316365682</v>
-      </c>
-      <c r="M15">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G16)^2+('1D'!$H$14-'1D'!$H16)^2)</f>
-        <v>120.7614113243083</v>
-      </c>
-      <c r="N15">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G16)^2+('1D'!$H$15-'1D'!$H16)^2)</f>
-        <v>39.368943814972297</v>
-      </c>
-      <c r="O15">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G16)^2+('1D'!$H$16-'1D'!$H16)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G16)^2+('1D'!$H$17-'1D'!$H16)^2)</f>
-        <v>149.55759899058796</v>
-      </c>
-      <c r="Q15">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G16)^2+('1D'!$H$18-'1D'!$H16)^2)</f>
-        <v>71.773607049693283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G17)^2+('1D'!$H$2-'1D'!$H17)^2)</f>
-        <v>78.200878359682264</v>
-      </c>
-      <c r="B16">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G17)^2+('1D'!$H$3-'1D'!$H17)^2)</f>
-        <v>171.46106636295121</v>
-      </c>
-      <c r="C16">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G17)^2+('1D'!$H$4-'1D'!$H17)^2)</f>
-        <v>131.32714545490944</v>
-      </c>
-      <c r="D16">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G17)^2+('1D'!$H$5-'1D'!$H17)^2)</f>
-        <v>178.32084969012757</v>
-      </c>
-      <c r="E16">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G17)^2+('1D'!$H$6-'1D'!$H17)^2)</f>
-        <v>94.189558603662292</v>
-      </c>
-      <c r="F16">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G17)^2+('1D'!$H$7-'1D'!$H17)^2)</f>
-        <v>138.66755875597849</v>
-      </c>
-      <c r="G16">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G17)^2+('1D'!$H$8-'1D'!$H17)^2)</f>
-        <v>93.786780552869914</v>
-      </c>
-      <c r="H16">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G17)^2+('1D'!$H$9-'1D'!$H17)^2)</f>
-        <v>76.377958509126131</v>
-      </c>
-      <c r="I16">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G17)^2+('1D'!$H$10-'1D'!$H17)^2)</f>
-        <v>14.003186654554909</v>
-      </c>
-      <c r="J16">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G17)^2+('1D'!$H$11-'1D'!$H17)^2)</f>
-        <v>118.96843758838389</v>
-      </c>
-      <c r="K16">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G17)^2+('1D'!$H$12-'1D'!$H17)^2)</f>
-        <v>108.56955882538261</v>
-      </c>
-      <c r="L16">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G17)^2+('1D'!$H$13-'1D'!$H17)^2)</f>
-        <v>74.004315757898638</v>
-      </c>
-      <c r="M16">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G17)^2+('1D'!$H$14-'1D'!$H17)^2)</f>
-        <v>103.6833680963709</v>
-      </c>
-      <c r="N16">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G17)^2+('1D'!$H$15-'1D'!$H17)^2)</f>
-        <v>188.92652611946585</v>
-      </c>
-      <c r="O16">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G17)^2+('1D'!$H$16-'1D'!$H17)^2)</f>
-        <v>149.55759899058796</v>
-      </c>
-      <c r="P16">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G17)^2+('1D'!$H$17-'1D'!$H17)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f ca="1">SQRT(('1D'!$G$18-'1D'!$G17)^2+('1D'!$H$18-'1D'!$H17)^2)</f>
-        <v>78.200878359682264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>SQRT(('1D'!$G$2-'1D'!$G18)^2+('1D'!$H$2-'1D'!$H18)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G18)^2+('1D'!$H$3-'1D'!$H18)^2)</f>
-        <v>124.15788019612978</v>
-      </c>
-      <c r="C17">
-        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G18)^2+('1D'!$H$4-'1D'!$H18)^2)</f>
-        <v>54.025500388991468</v>
-      </c>
-      <c r="D17">
-        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G18)^2+('1D'!$H$5-'1D'!$H18)^2)</f>
-        <v>100.16052709954221</v>
-      </c>
-      <c r="E17">
-        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G18)^2+('1D'!$H$6-'1D'!$H18)^2)</f>
-        <v>91.052378646870196</v>
-      </c>
-      <c r="F17">
-        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G18)^2+('1D'!$H$7-'1D'!$H18)^2)</f>
-        <v>73.036375070742153</v>
-      </c>
-      <c r="G17">
-        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G18)^2+('1D'!$H$8-'1D'!$H18)^2)</f>
-        <v>20.690051425913889</v>
-      </c>
-      <c r="H17">
-        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G18)^2+('1D'!$H$9-'1D'!$H18)^2)</f>
-        <v>72.956151389902971</v>
-      </c>
-      <c r="I17">
-        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G18)^2+('1D'!$H$10-'1D'!$H18)^2)</f>
-        <v>83.837777237403188</v>
-      </c>
-      <c r="J17">
-        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G18)^2+('1D'!$H$11-'1D'!$H18)^2)</f>
-        <v>107.83601976339875</v>
-      </c>
-      <c r="K17">
-        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G18)^2+('1D'!$H$12-'1D'!$H18)^2)</f>
-        <v>42.235712461460146</v>
-      </c>
-      <c r="L17">
-        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G18)^2+('1D'!$H$13-'1D'!$H18)^2)</f>
-        <v>10.294588379994936</v>
-      </c>
-      <c r="M17">
-        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G18)^2+('1D'!$H$14-'1D'!$H18)^2)</f>
-        <v>79.189390187483411</v>
-      </c>
-      <c r="N17">
-        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G18)^2+('1D'!$H$15-'1D'!$H18)^2)</f>
-        <v>111.0675502274577</v>
-      </c>
-      <c r="O17">
-        <f ca="1">SQRT(('1D'!$G$16-'1D'!$G18)^2+('1D'!$H$16-'1D'!$H18)^2)</f>
-        <v>71.773607049693283</v>
-      </c>
-      <c r="P17">
-        <f ca="1">SQRT(('1D'!$G$17-'1D'!$G18)^2+('1D'!$H$17-'1D'!$H18)^2)</f>
-        <v>78.200878359682264</v>
-      </c>
-      <c r="Q17">
-        <f>SQRT(('1D'!$G$18-'1D'!$G18)^2+('1D'!$H$18-'1D'!$H18)^2)</f>
+        <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3596,7 +3183,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,64 +3194,64 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f ca="1">Distances!B1/80</f>
-        <v>1.5519735024516224</v>
+        <f>Distances!B1/80</f>
+        <v>0.80427340923415258</v>
       </c>
       <c r="C1">
-        <f ca="1">Distances!C1/80</f>
-        <v>0.67531875486239334</v>
+        <f>Distances!C1/80</f>
+        <v>1.5040439950652764</v>
       </c>
       <c r="D1">
-        <f ca="1">Distances!D1/80</f>
-        <v>1.2520065887442775</v>
+        <f>Distances!D1/80</f>
+        <v>1.1819743379373033</v>
       </c>
       <c r="E1">
-        <f ca="1">Distances!F1/80</f>
-        <v>0.91295468838427696</v>
+        <f>Distances!F1/80</f>
+        <v>1.2065646794259086</v>
       </c>
       <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>0.25862564282392364</v>
+        <f>Distances!G1/80</f>
+        <v>1.2335211549620264</v>
       </c>
       <c r="G1">
-        <f ca="1">Distances!G1/80</f>
-        <v>0.25862564282392364</v>
+        <f>Distances!G1/80</f>
+        <v>1.2335211549620264</v>
       </c>
       <c r="H1">
-        <f ca="1">Distances!H1/80</f>
-        <v>0.91195189237378715</v>
+        <f>Distances!H1/80</f>
+        <v>0.95743835557395762</v>
       </c>
       <c r="I1">
-        <f ca="1">Distances!I1/80</f>
-        <v>1.0479722154675399</v>
+        <f>Distances!I1/80</f>
+        <v>1.4712921922073421</v>
       </c>
       <c r="J1">
-        <f ca="1">Distances!J1/80</f>
-        <v>1.3479502470424845</v>
+        <f>Distances!J1/80</f>
+        <v>0.43817498658430865</v>
       </c>
       <c r="K1">
-        <f ca="1">Distances!K1/80</f>
-        <v>0.5279464057682518</v>
+        <f>Distances!K1/80</f>
+        <v>0</v>
       </c>
       <c r="L1">
-        <f ca="1">Distances!L1/80</f>
-        <v>0.12868235474993669</v>
+        <f>Distances!L1/80</f>
+        <v>0</v>
       </c>
       <c r="M1">
-        <f ca="1">Distances!M1/80</f>
-        <v>0.98986737734354269</v>
+        <f>Distances!M1/80</f>
+        <v>0</v>
       </c>
       <c r="N1">
-        <f ca="1">Distances!N1/80</f>
-        <v>1.3883443778432212</v>
+        <f>Distances!N1/80</f>
+        <v>0</v>
       </c>
       <c r="O1">
-        <f ca="1">Distances!O1/80</f>
-        <v>0.89717008812116605</v>
+        <f>Distances!O1/80</f>
+        <v>0</v>
       </c>
       <c r="P1">
-        <f ca="1">Distances!P1/80</f>
-        <v>0.97751097949602828</v>
+        <f>Distances!P1/80</f>
+        <v>0</v>
       </c>
       <c r="Q1">
         <f>Distances!Q1/80</f>
@@ -3673,1052 +3260,1052 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f ca="1">Distances!A2/80</f>
-        <v>1.5519735024516224</v>
+        <f>Distances!A2/80</f>
+        <v>0.80427340923415258</v>
       </c>
       <c r="B2">
-        <f ca="1">Distances!B2/80</f>
+        <f>Distances!B2/80</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f ca="1">Distances!C2/80</f>
-        <v>1.5779199653271685</v>
+        <f>Distances!C2/80</f>
+        <v>1.6295752726756489</v>
       </c>
       <c r="D2">
-        <f ca="1">Distances!D2/80</f>
-        <v>1.5986176845544684</v>
+        <f>Distances!D2/80</f>
+        <v>1.9862019092280423</v>
       </c>
       <c r="E2">
-        <f ca="1">Distances!E2/80</f>
-        <v>1.1333222386032968</v>
+        <f>Distances!E2/80</f>
+        <v>1.5620861222334572</v>
       </c>
       <c r="F2">
-        <f ca="1">Distances!F2/80</f>
-        <v>2.0874183184853385</v>
+        <f>Distances!F2/80</f>
+        <v>1.8522368288191113</v>
       </c>
       <c r="G2">
-        <f ca="1">Distances!G2/80</f>
-        <v>1.3123161119775966</v>
+        <f>Distances!G2/80</f>
+        <v>1.6512213709025025</v>
       </c>
       <c r="H2">
-        <f ca="1">Distances!H2/80</f>
-        <v>1.2447577956282072</v>
+        <f>Distances!H2/80</f>
+        <v>1.7615757919130259</v>
       </c>
       <c r="I2">
-        <f ca="1">Distances!I2/80</f>
-        <v>2.2973280758939851</v>
+        <f>Distances!I2/80</f>
+        <v>2.2625899084009209</v>
       </c>
       <c r="J2">
-        <f ca="1">Distances!J2/80</f>
-        <v>2.8851214473702695</v>
+        <f>Distances!J2/80</f>
+        <v>1.2264066410885408</v>
       </c>
       <c r="K2">
-        <f ca="1">Distances!K2/80</f>
-        <v>1.0418074097710028</v>
+        <f>Distances!K2/80</f>
+        <v>0.80427340923415258</v>
       </c>
       <c r="L2">
-        <f ca="1">Distances!L2/80</f>
-        <v>1.6804151950394992</v>
+        <f>Distances!L2/80</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f ca="1">Distances!M2/80</f>
-        <v>0.87668134519368146</v>
+        <f>Distances!M2/80</f>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f ca="1">Distances!N2/80</f>
-        <v>1.7557868997599839</v>
+        <f>Distances!N2/80</f>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f ca="1">Distances!O2/80</f>
-        <v>1.5736543315483744</v>
+        <f>Distances!O2/80</f>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f ca="1">Distances!P2/80</f>
-        <v>2.1432633295368904</v>
+        <f>Distances!P2/80</f>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f ca="1">Distances!Q2/80</f>
-        <v>1.5519735024516224</v>
+        <f>Distances!Q2/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f ca="1">Distances!A3/80</f>
-        <v>0.67531875486239334</v>
+        <f>Distances!A3/80</f>
+        <v>1.5040439950652764</v>
       </c>
       <c r="B3">
-        <f ca="1">Distances!B3/80</f>
-        <v>1.5779199653271685</v>
+        <f>Distances!B3/80</f>
+        <v>1.6295752726756489</v>
       </c>
       <c r="C3">
-        <f ca="1">Distances!C3/80</f>
+        <f>Distances!C3/80</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f ca="1">Distances!D3/80</f>
-        <v>0.60367968562109231</v>
+        <f>Distances!D3/80</f>
+        <v>1.9956881757225404</v>
       </c>
       <c r="E3">
-        <f ca="1">Distances!E3/80</f>
-        <v>1.6325453985638607</v>
+        <f>Distances!E3/80</f>
+        <v>1.5778287252369905</v>
       </c>
       <c r="F3">
-        <f ca="1">Distances!F3/80</f>
-        <v>0.5109032700750894</v>
+        <f>Distances!F3/80</f>
+        <v>1.1602560054320792</v>
       </c>
       <c r="G3">
-        <f ca="1">Distances!G3/80</f>
-        <v>0.58787224848802211</v>
+        <f>Distances!G3/80</f>
+        <v>2.7265750550706445</v>
       </c>
       <c r="H3">
-        <f ca="1">Distances!H3/80</f>
-        <v>1.4587806727140946</v>
+        <f>Distances!H3/80</f>
+        <v>1.8846592878402659</v>
       </c>
       <c r="I3">
-        <f ca="1">Distances!I3/80</f>
-        <v>1.6912300054902007</v>
+        <f>Distances!I3/80</f>
+        <v>1.9756778718299188</v>
       </c>
       <c r="J3">
-        <f ca="1">Distances!J3/80</f>
-        <v>1.4937819358163711</v>
+        <f>Distances!J3/80</f>
+        <v>1.7371530444715351</v>
       </c>
       <c r="K3">
-        <f ca="1">Distances!K3/80</f>
-        <v>0.68001388212240355</v>
+        <f>Distances!K3/80</f>
+        <v>1.5040439950652764</v>
       </c>
       <c r="L3">
-        <f ca="1">Distances!L3/80</f>
-        <v>0.71729309534641406</v>
+        <f>Distances!L3/80</f>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f ca="1">Distances!M3/80</f>
-        <v>1.3853581454441299</v>
+        <f>Distances!M3/80</f>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f ca="1">Distances!N3/80</f>
-        <v>0.72170543770993167</v>
+        <f>Distances!N3/80</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f ca="1">Distances!O3/80</f>
-        <v>0.23220325712697548</v>
+        <f>Distances!O3/80</f>
+        <v>0</v>
       </c>
       <c r="P3">
-        <f ca="1">Distances!P3/80</f>
-        <v>1.6415893181863681</v>
+        <f>Distances!P3/80</f>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f ca="1">Distances!Q3/80</f>
-        <v>0.67531875486239334</v>
+        <f>Distances!Q3/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f ca="1">Distances!A4/80</f>
-        <v>1.2520065887442775</v>
+        <f>Distances!A4/80</f>
+        <v>1.1819743379373033</v>
       </c>
       <c r="B4">
-        <f ca="1">Distances!B4/80</f>
-        <v>1.5986176845544684</v>
+        <f>Distances!B4/80</f>
+        <v>1.9862019092280423</v>
       </c>
       <c r="C4">
-        <f ca="1">Distances!C4/80</f>
-        <v>0.60367968562109231</v>
+        <f>Distances!C4/80</f>
+        <v>1.9956881757225404</v>
       </c>
       <c r="D4">
-        <f ca="1">Distances!D4/80</f>
+        <f>Distances!D4/80</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f ca="1">Distances!E4/80</f>
-        <v>2.0204618660496054</v>
+        <f>Distances!E4/80</f>
+        <v>0.47465945818200722</v>
       </c>
       <c r="F4">
-        <f ca="1">Distances!F4/80</f>
-        <v>0.8796210288406906</v>
+        <f>Distances!F4/80</f>
+        <v>0.93403711360521524</v>
       </c>
       <c r="G4">
-        <f ca="1">Distances!G4/80</f>
-        <v>1.0972758368898627</v>
+        <f>Distances!G4/80</f>
+        <v>1.4619325929255631</v>
       </c>
       <c r="H4">
-        <f ca="1">Distances!H4/80</f>
-        <v>1.8987338157709897</v>
+        <f>Distances!H4/80</f>
+        <v>0.22829453790933676</v>
       </c>
       <c r="I4">
-        <f ca="1">Distances!I4/80</f>
-        <v>2.2884127844850366</v>
+        <f>Distances!I4/80</f>
+        <v>0.39987285123121563</v>
       </c>
       <c r="J4">
-        <f ca="1">Distances!J4/80</f>
-        <v>1.990147392025436</v>
+        <f>Distances!J4/80</f>
+        <v>0.78503038381235357</v>
       </c>
       <c r="K4">
-        <f ca="1">Distances!K4/80</f>
-        <v>1.0558258748265363</v>
+        <f>Distances!K4/80</f>
+        <v>1.1819743379373033</v>
       </c>
       <c r="L4">
-        <f ca="1">Distances!L4/80</f>
-        <v>1.3117566381416921</v>
+        <f>Distances!L4/80</f>
+        <v>0</v>
       </c>
       <c r="M4">
-        <f ca="1">Distances!M4/80</f>
-        <v>1.7262801262155345</v>
+        <f>Distances!M4/80</f>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f ca="1">Distances!N4/80</f>
-        <v>0.17164278527143711</v>
+        <f>Distances!N4/80</f>
+        <v>0</v>
       </c>
       <c r="O4">
-        <f ca="1">Distances!O4/80</f>
-        <v>0.37228162110907659</v>
+        <f>Distances!O4/80</f>
+        <v>0</v>
       </c>
       <c r="P4">
-        <f ca="1">Distances!P4/80</f>
-        <v>2.2290106211265948</v>
+        <f>Distances!P4/80</f>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f ca="1">Distances!Q4/80</f>
-        <v>1.2520065887442775</v>
+        <f>Distances!Q4/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f ca="1">Distances!A5/80</f>
-        <v>1.1381547330858774</v>
+        <f>Distances!A5/80</f>
+        <v>0.77153036356276894</v>
       </c>
       <c r="B5">
-        <f ca="1">Distances!B5/80</f>
-        <v>1.1333222386032968</v>
+        <f>Distances!B5/80</f>
+        <v>1.5620861222334572</v>
       </c>
       <c r="C5">
-        <f ca="1">Distances!C5/80</f>
-        <v>1.6325453985638607</v>
+        <f>Distances!C5/80</f>
+        <v>1.5778287252369905</v>
       </c>
       <c r="D5">
-        <f ca="1">Distances!D5/80</f>
-        <v>2.0204618660496054</v>
+        <f>Distances!D5/80</f>
+        <v>0.47465945818200722</v>
       </c>
       <c r="E5">
-        <f ca="1">Distances!E5/80</f>
+        <f>Distances!E5/80</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f ca="1">Distances!F5/80</f>
-        <v>2.0201649997214126</v>
+        <f>Distances!F5/80</f>
+        <v>0.68318377353479776</v>
       </c>
       <c r="G5">
-        <f ca="1">Distances!G5/80</f>
-        <v>1.0639967493211762</v>
+        <f>Distances!G5/80</f>
+        <v>1.4411477461046733</v>
       </c>
       <c r="H5">
-        <f ca="1">Distances!H5/80</f>
-        <v>0.25438290567669808</v>
+        <f>Distances!H5/80</f>
+        <v>0.30962467570143193</v>
       </c>
       <c r="I5">
-        <f ca="1">Distances!I5/80</f>
-        <v>1.3509552658875319</v>
+        <f>Distances!I5/80</f>
+        <v>0.70109762418437915</v>
       </c>
       <c r="J5">
-        <f ca="1">Distances!J5/80</f>
-        <v>2.3708397158920755</v>
+        <f>Distances!J5/80</f>
+        <v>0.47915783131020495</v>
       </c>
       <c r="K5">
-        <f ca="1">Distances!K5/80</f>
-        <v>0.97664692646506224</v>
+        <f>Distances!K5/80</f>
+        <v>0.77153036356276894</v>
       </c>
       <c r="L5">
-        <f ca="1">Distances!L5/80</f>
-        <v>1.2241709416061834</v>
+        <f>Distances!L5/80</f>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f ca="1">Distances!M5/80</f>
-        <v>0.31877753946094745</v>
+        <f>Distances!M5/80</f>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f ca="1">Distances!N5/80</f>
-        <v>2.1901005950372303</v>
+        <f>Distances!N5/80</f>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f ca="1">Distances!O5/80</f>
-        <v>1.7790514427690607</v>
+        <f>Distances!O5/80</f>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f ca="1">Distances!P5/80</f>
-        <v>1.1773694825457786</v>
+        <f>Distances!P5/80</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f ca="1">Distances!Q5/80</f>
-        <v>1.1381547330858774</v>
+        <f>Distances!Q5/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f ca="1">Distances!A6/80</f>
-        <v>0.91295468838427696</v>
+        <f>Distances!A6/80</f>
+        <v>1.2065646794259086</v>
       </c>
       <c r="B6">
-        <f ca="1">Distances!B6/80</f>
-        <v>2.0874183184853385</v>
+        <f>Distances!B6/80</f>
+        <v>1.8522368288191113</v>
       </c>
       <c r="C6">
-        <f ca="1">Distances!C6/80</f>
-        <v>0.5109032700750894</v>
+        <f>Distances!C6/80</f>
+        <v>1.1602560054320792</v>
       </c>
       <c r="D6">
-        <f ca="1">Distances!D6/80</f>
-        <v>0.8796210288406906</v>
+        <f>Distances!D6/80</f>
+        <v>0.93403711360521524</v>
       </c>
       <c r="E6">
-        <f ca="1">Distances!E6/80</f>
-        <v>2.0201649997214126</v>
+        <f>Distances!E6/80</f>
+        <v>0.68318377353479776</v>
       </c>
       <c r="F6">
-        <f ca="1">Distances!F6/80</f>
+        <f>Distances!F6/80</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f ca="1">Distances!G6/80</f>
-        <v>0.96166468661549431</v>
+        <f>Distances!G6/80</f>
+        <v>2.1183309506883252</v>
       </c>
       <c r="H6">
-        <f ca="1">Distances!H6/80</f>
-        <v>1.8122489644382118</v>
+        <f>Distances!H6/80</f>
+        <v>0.91320449934258097</v>
       </c>
       <c r="I6">
-        <f ca="1">Distances!I6/80</f>
-        <v>1.7312855901179993</v>
+        <f>Distances!I6/80</f>
+        <v>0.82305958818027647</v>
       </c>
       <c r="J6">
-        <f ca="1">Distances!J6/80</f>
-        <v>1.1163565121186758</v>
+        <f>Distances!J6/80</f>
+        <v>1.1043981892735026</v>
       </c>
       <c r="K6">
-        <f ca="1">Distances!K6/80</f>
-        <v>1.1386394705754967</v>
+        <f>Distances!K6/80</f>
+        <v>1.2065646794259086</v>
       </c>
       <c r="L6">
-        <f ca="1">Distances!L6/80</f>
-        <v>0.87835340126099271</v>
+        <f>Distances!L6/80</f>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f ca="1">Distances!M6/80</f>
-        <v>1.8132464157036736</v>
+        <f>Distances!M6/80</f>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f ca="1">Distances!N6/80</f>
-        <v>0.9063362341540907</v>
+        <f>Distances!N6/80</f>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f ca="1">Distances!O6/80</f>
-        <v>0.59733508900916776</v>
+        <f>Distances!O6/80</f>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f ca="1">Distances!P6/80</f>
-        <v>1.7333444844497312</v>
+        <f>Distances!P6/80</f>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f ca="1">Distances!Q6/80</f>
-        <v>0.91295468838427696</v>
+        <f>Distances!Q6/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f ca="1">Distances!A7/80</f>
-        <v>0.25862564282392364</v>
+        <f>Distances!A7/80</f>
+        <v>1.2335211549620264</v>
       </c>
       <c r="B7">
-        <f ca="1">Distances!B7/80</f>
-        <v>1.3123161119775966</v>
+        <f>Distances!B7/80</f>
+        <v>1.6512213709025025</v>
       </c>
       <c r="C7">
-        <f ca="1">Distances!C7/80</f>
-        <v>0.58787224848802211</v>
+        <f>Distances!C7/80</f>
+        <v>2.7265750550706445</v>
       </c>
       <c r="D7">
-        <f ca="1">Distances!D7/80</f>
-        <v>1.0972758368898627</v>
+        <f>Distances!D7/80</f>
+        <v>1.4619325929255631</v>
       </c>
       <c r="E7">
-        <f ca="1">Distances!E7/80</f>
-        <v>1.0639967493211762</v>
+        <f>Distances!E7/80</f>
+        <v>1.4411477461046733</v>
       </c>
       <c r="F7">
-        <f ca="1">Distances!F7/80</f>
-        <v>0.96166468661549431</v>
+        <f>Distances!F7/80</f>
+        <v>2.1183309506883252</v>
       </c>
       <c r="G7">
-        <f ca="1">Distances!G7/80</f>
+        <f>Distances!G7/80</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f ca="1">Distances!H7/80</f>
-        <v>0.87453625464428852</v>
+        <f>Distances!H7/80</f>
+        <v>1.3105535269520672</v>
       </c>
       <c r="I7">
-        <f ca="1">Distances!I7/80</f>
-        <v>1.2645736607763334</v>
+        <f>Distances!I7/80</f>
+        <v>1.8608838401207541</v>
       </c>
       <c r="J7">
-        <f ca="1">Distances!J7/80</f>
-        <v>1.5736215000576963</v>
+        <f>Distances!J7/80</f>
+        <v>1.0410391143206128</v>
       </c>
       <c r="K7">
-        <f ca="1">Distances!K7/80</f>
-        <v>0.27427858445239928</v>
+        <f>Distances!K7/80</f>
+        <v>1.2335211549620264</v>
       </c>
       <c r="L7">
-        <f ca="1">Distances!L7/80</f>
-        <v>0.38372591923356486</v>
+        <f>Distances!L7/80</f>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f ca="1">Distances!M7/80</f>
-        <v>0.85406341377773798</v>
+        <f>Distances!M7/80</f>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f ca="1">Distances!N7/80</f>
-        <v>1.2494096821354943</v>
+        <f>Distances!N7/80</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f ca="1">Distances!O7/80</f>
-        <v>0.7758382077764352</v>
+        <f>Distances!O7/80</f>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f ca="1">Distances!P7/80</f>
-        <v>1.172334756910874</v>
+        <f>Distances!P7/80</f>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f ca="1">Distances!Q7/80</f>
-        <v>0.25862564282392364</v>
+        <f>Distances!Q7/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f ca="1">Distances!A8/80</f>
-        <v>0.91195189237378715</v>
+        <f>Distances!A8/80</f>
+        <v>0.95743835557395762</v>
       </c>
       <c r="B8">
-        <f ca="1">Distances!B8/80</f>
-        <v>1.2447577956282072</v>
+        <f>Distances!B8/80</f>
+        <v>1.7615757919130259</v>
       </c>
       <c r="C8">
-        <f ca="1">Distances!C8/80</f>
-        <v>1.4587806727140946</v>
+        <f>Distances!C8/80</f>
+        <v>1.8846592878402659</v>
       </c>
       <c r="D8">
-        <f ca="1">Distances!D8/80</f>
-        <v>1.8987338157709897</v>
+        <f>Distances!D8/80</f>
+        <v>0.22829453790933676</v>
       </c>
       <c r="E8">
-        <f ca="1">Distances!E8/80</f>
-        <v>0.25438290567669808</v>
+        <f>Distances!E8/80</f>
+        <v>0.30962467570143193</v>
       </c>
       <c r="F8">
-        <f ca="1">Distances!F8/80</f>
-        <v>1.8122489644382118</v>
+        <f>Distances!F8/80</f>
+        <v>0.91320449934258097</v>
       </c>
       <c r="G8">
-        <f ca="1">Distances!G8/80</f>
-        <v>0.87453625464428852</v>
+        <f>Distances!G8/80</f>
+        <v>1.3105535269520672</v>
       </c>
       <c r="H8">
-        <f ca="1">Distances!H8/80</f>
+        <f>Distances!H8/80</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f ca="1">Distances!I8/80</f>
-        <v>1.1249956668383432</v>
+        <f>Distances!I8/80</f>
+        <v>0.59209560140849438</v>
       </c>
       <c r="J8">
-        <f ca="1">Distances!J8/80</f>
-        <v>2.1175494701993274</v>
+        <f>Distances!J8/80</f>
+        <v>0.55687682532388627</v>
       </c>
       <c r="K8">
-        <f ca="1">Distances!K8/80</f>
-        <v>0.8430154504145545</v>
+        <f>Distances!K8/80</f>
+        <v>0.95743835557395762</v>
       </c>
       <c r="L8">
-        <f ca="1">Distances!L8/80</f>
-        <v>0.9880061313000521</v>
+        <f>Distances!L8/80</f>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f ca="1">Distances!M8/80</f>
-        <v>0.36808844109127292</v>
+        <f>Distances!M8/80</f>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f ca="1">Distances!N8/80</f>
-        <v>2.0645215206140337</v>
+        <f>Distances!N8/80</f>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f ca="1">Distances!O8/80</f>
-        <v>1.6258398350301551</v>
+        <f>Distances!O8/80</f>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f ca="1">Distances!P8/80</f>
-        <v>0.95472448136407662</v>
+        <f>Distances!P8/80</f>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f ca="1">Distances!Q8/80</f>
-        <v>0.91195189237378715</v>
+        <f>Distances!Q8/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f ca="1">Distances!A9/80</f>
-        <v>1.0479722154675399</v>
+        <f>Distances!A9/80</f>
+        <v>1.4712921922073421</v>
       </c>
       <c r="B9">
-        <f ca="1">Distances!B9/80</f>
-        <v>2.2973280758939851</v>
+        <f>Distances!B9/80</f>
+        <v>2.2625899084009209</v>
       </c>
       <c r="C9">
-        <f ca="1">Distances!C9/80</f>
-        <v>1.6912300054902007</v>
+        <f>Distances!C9/80</f>
+        <v>1.9756778718299188</v>
       </c>
       <c r="D9">
-        <f ca="1">Distances!D9/80</f>
-        <v>2.2884127844850366</v>
+        <f>Distances!D9/80</f>
+        <v>0.39987285123121563</v>
       </c>
       <c r="E9">
-        <f ca="1">Distances!E9/80</f>
-        <v>1.3509552658875319</v>
+        <f>Distances!E9/80</f>
+        <v>0.70109762418437915</v>
       </c>
       <c r="F9">
-        <f ca="1">Distances!F9/80</f>
-        <v>1.7312855901179993</v>
+        <f>Distances!F9/80</f>
+        <v>0.82305958818027647</v>
       </c>
       <c r="G9">
-        <f ca="1">Distances!G9/80</f>
-        <v>1.2645736607763334</v>
+        <f>Distances!G9/80</f>
+        <v>1.8608838401207541</v>
       </c>
       <c r="H9">
-        <f ca="1">Distances!H9/80</f>
-        <v>1.1249956668383432</v>
+        <f>Distances!H9/80</f>
+        <v>0.59209560140849438</v>
       </c>
       <c r="I9">
-        <f ca="1">Distances!I9/80</f>
+        <f>Distances!I9/80</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f ca="1">Distances!J9/80</f>
-        <v>1.3731920137347586</v>
+        <f>Distances!J9/80</f>
+        <v>1.1245113509714435</v>
       </c>
       <c r="K9">
-        <f ca="1">Distances!K9/80</f>
-        <v>1.4701346702860532</v>
+        <f>Distances!K9/80</f>
+        <v>1.4712921922073421</v>
       </c>
       <c r="L9">
-        <f ca="1">Distances!L9/80</f>
-        <v>0.97666819703877827</v>
+        <f>Distances!L9/80</f>
+        <v>0</v>
       </c>
       <c r="M9">
-        <f ca="1">Distances!M9/80</f>
-        <v>1.4601371385581421</v>
+        <f>Distances!M9/80</f>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f ca="1">Distances!N9/80</f>
-        <v>2.4128525850676379</v>
+        <f>Distances!N9/80</f>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f ca="1">Distances!O9/80</f>
-        <v>1.9222952715074015</v>
+        <f>Distances!O9/80</f>
+        <v>0</v>
       </c>
       <c r="P9">
-        <f ca="1">Distances!P9/80</f>
-        <v>0.17503983318193636</v>
+        <f>Distances!P9/80</f>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f ca="1">Distances!Q9/80</f>
-        <v>1.0479722154675399</v>
+        <f>Distances!Q9/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f ca="1">Distances!A10/80</f>
-        <v>1.3479502470424845</v>
+        <f>Distances!A10/80</f>
+        <v>0.43817498658430865</v>
       </c>
       <c r="B10">
-        <f ca="1">Distances!B10/80</f>
-        <v>2.8851214473702695</v>
+        <f>Distances!B10/80</f>
+        <v>1.2264066410885408</v>
       </c>
       <c r="C10">
-        <f ca="1">Distances!C10/80</f>
-        <v>1.4937819358163711</v>
+        <f>Distances!C10/80</f>
+        <v>1.7371530444715351</v>
       </c>
       <c r="D10">
-        <f ca="1">Distances!D10/80</f>
-        <v>1.990147392025436</v>
+        <f>Distances!D10/80</f>
+        <v>0.78503038381235357</v>
       </c>
       <c r="E10">
-        <f ca="1">Distances!E10/80</f>
-        <v>2.3708397158920755</v>
+        <f>Distances!E10/80</f>
+        <v>0.47915783131020495</v>
       </c>
       <c r="F10">
-        <f ca="1">Distances!F10/80</f>
-        <v>1.1163565121186758</v>
+        <f>Distances!F10/80</f>
+        <v>1.1043981892735026</v>
       </c>
       <c r="G10">
-        <f ca="1">Distances!G10/80</f>
-        <v>1.5736215000576963</v>
+        <f>Distances!G10/80</f>
+        <v>1.0410391143206128</v>
       </c>
       <c r="H10">
-        <f ca="1">Distances!H10/80</f>
-        <v>2.1175494701993274</v>
+        <f>Distances!H10/80</f>
+        <v>0.55687682532388627</v>
       </c>
       <c r="I10">
-        <f ca="1">Distances!I10/80</f>
-        <v>1.3731920137347586</v>
+        <f>Distances!I10/80</f>
+        <v>1.1245113509714435</v>
       </c>
       <c r="J10">
-        <f ca="1">Distances!J10/80</f>
+        <f>Distances!J10/80</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f ca="1">Distances!K10/80</f>
-        <v>1.843445877083441</v>
+        <f>Distances!K10/80</f>
+        <v>0.43817498658430865</v>
       </c>
       <c r="L10">
-        <f ca="1">Distances!L10/80</f>
-        <v>1.2242729532130188</v>
+        <f>Distances!L10/80</f>
+        <v>0</v>
       </c>
       <c r="M10">
-        <f ca="1">Distances!M10/80</f>
-        <v>2.3035456237844358</v>
+        <f>Distances!M10/80</f>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f ca="1">Distances!N10/80</f>
-        <v>2.0223652166744461</v>
+        <f>Distances!N10/80</f>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f ca="1">Distances!O10/80</f>
-        <v>1.6671985756556325</v>
+        <f>Distances!O10/80</f>
+        <v>0</v>
       </c>
       <c r="P10">
-        <f ca="1">Distances!P10/80</f>
-        <v>1.4871054698547987</v>
+        <f>Distances!P10/80</f>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f ca="1">Distances!Q10/80</f>
-        <v>1.3479502470424845</v>
+        <f>Distances!Q10/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f ca="1">Distances!A11/80</f>
-        <v>0.5279464057682518</v>
+        <f>Distances!A11/80</f>
+        <v>0</v>
       </c>
       <c r="B11">
-        <f ca="1">Distances!B11/80</f>
-        <v>1.0418074097710028</v>
+        <f>Distances!B11/80</f>
+        <v>0.80427340923415258</v>
       </c>
       <c r="C11">
-        <f ca="1">Distances!C11/80</f>
-        <v>0.68001388212240355</v>
+        <f>Distances!C11/80</f>
+        <v>1.5040439950652764</v>
       </c>
       <c r="D11">
-        <f ca="1">Distances!D11/80</f>
-        <v>1.0558258748265363</v>
+        <f>Distances!D11/80</f>
+        <v>1.1819743379373033</v>
       </c>
       <c r="E11">
-        <f ca="1">Distances!E11/80</f>
-        <v>0.97664692646506224</v>
+        <f>Distances!E11/80</f>
+        <v>0.77153036356276894</v>
       </c>
       <c r="F11">
-        <f ca="1">Distances!F11/80</f>
-        <v>1.1386394705754967</v>
+        <f>Distances!F11/80</f>
+        <v>1.2065646794259086</v>
       </c>
       <c r="G11">
-        <f ca="1">Distances!G11/80</f>
-        <v>0.27427858445239928</v>
+        <f>Distances!G11/80</f>
+        <v>1.2335211549620264</v>
       </c>
       <c r="H11">
-        <f ca="1">Distances!H11/80</f>
-        <v>0.8430154504145545</v>
+        <f>Distances!H11/80</f>
+        <v>0.95743835557395762</v>
       </c>
       <c r="I11">
-        <f ca="1">Distances!I11/80</f>
-        <v>1.4701346702860532</v>
+        <f>Distances!I11/80</f>
+        <v>1.4712921922073421</v>
       </c>
       <c r="J11">
-        <f ca="1">Distances!J11/80</f>
-        <v>1.843445877083441</v>
+        <f>Distances!J11/80</f>
+        <v>0.43817498658430865</v>
       </c>
       <c r="K11">
-        <f ca="1">Distances!K11/80</f>
+        <f>Distances!K11/80</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f ca="1">Distances!L11/80</f>
-        <v>0.65548945626764032</v>
+        <f>Distances!L11/80</f>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f ca="1">Distances!M11/80</f>
-        <v>0.70871292283883447</v>
+        <f>Distances!M11/80</f>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f ca="1">Distances!N11/80</f>
-        <v>1.2223467515435265</v>
+        <f>Distances!N11/80</f>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f ca="1">Distances!O11/80</f>
-        <v>0.80384613065835142</v>
+        <f>Distances!O11/80</f>
+        <v>0</v>
       </c>
       <c r="P11">
-        <f ca="1">Distances!P11/80</f>
-        <v>1.3571194853172828</v>
+        <f>Distances!P11/80</f>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <f ca="1">Distances!Q11/80</f>
-        <v>0.5279464057682518</v>
+        <f>Distances!Q11/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f ca="1">Distances!A12/80</f>
-        <v>0.12868235474993669</v>
+        <f>Distances!A12/80</f>
+        <v>0</v>
       </c>
       <c r="B12">
-        <f ca="1">Distances!B12/80</f>
-        <v>1.6804151950394992</v>
+        <f>Distances!B12/80</f>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f ca="1">Distances!C12/80</f>
-        <v>0.71729309534641406</v>
+        <f>Distances!C12/80</f>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f ca="1">Distances!D12/80</f>
-        <v>1.3117566381416921</v>
+        <f>Distances!D12/80</f>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f ca="1">Distances!E12/80</f>
-        <v>1.2241709416061834</v>
+        <f>Distances!E12/80</f>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f ca="1">Distances!F12/80</f>
-        <v>0.87835340126099271</v>
+        <f>Distances!F12/80</f>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f ca="1">Distances!G12/80</f>
-        <v>0.38372591923356486</v>
+        <f>Distances!G12/80</f>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f ca="1">Distances!H12/80</f>
-        <v>0.9880061313000521</v>
+        <f>Distances!H12/80</f>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f ca="1">Distances!I12/80</f>
-        <v>0.97666819703877827</v>
+        <f>Distances!I12/80</f>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f ca="1">Distances!J12/80</f>
-        <v>1.2242729532130188</v>
+        <f>Distances!J12/80</f>
+        <v>0</v>
       </c>
       <c r="K12">
-        <f ca="1">Distances!K12/80</f>
-        <v>0.65548945626764032</v>
+        <f>Distances!K12/80</f>
+        <v>0</v>
       </c>
       <c r="L12">
-        <f ca="1">Distances!L12/80</f>
+        <f>Distances!L12/80</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f ca="1">Distances!M12/80</f>
-        <v>1.0975973018693614</v>
+        <f>Distances!M12/80</f>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f ca="1">Distances!N12/80</f>
-        <v>1.4385809684102338</v>
+        <f>Distances!N12/80</f>
+        <v>0</v>
       </c>
       <c r="O12">
-        <f ca="1">Distances!O12/80</f>
-        <v>0.94690752895457098</v>
+        <f>Distances!O12/80</f>
+        <v>0</v>
       </c>
       <c r="P12">
-        <f ca="1">Distances!P12/80</f>
-        <v>0.925053946973733</v>
+        <f>Distances!P12/80</f>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f ca="1">Distances!Q12/80</f>
-        <v>0.12868235474993669</v>
+        <f>Distances!Q12/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f ca="1">Distances!A13/80</f>
-        <v>0.98986737734354269</v>
+        <f>Distances!A13/80</f>
+        <v>0</v>
       </c>
       <c r="B13">
-        <f ca="1">Distances!B13/80</f>
-        <v>0.87668134519368146</v>
+        <f>Distances!B13/80</f>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f ca="1">Distances!C13/80</f>
-        <v>1.3853581454441299</v>
+        <f>Distances!C13/80</f>
+        <v>0</v>
       </c>
       <c r="D13">
-        <f ca="1">Distances!D13/80</f>
-        <v>1.7262801262155345</v>
+        <f>Distances!D13/80</f>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f ca="1">Distances!E13/80</f>
-        <v>0.31877753946094745</v>
+        <f>Distances!E13/80</f>
+        <v>0</v>
       </c>
       <c r="F13">
-        <f ca="1">Distances!F13/80</f>
-        <v>1.8132464157036736</v>
+        <f>Distances!F13/80</f>
+        <v>0</v>
       </c>
       <c r="G13">
-        <f ca="1">Distances!G13/80</f>
-        <v>0.85406341377773798</v>
+        <f>Distances!G13/80</f>
+        <v>0</v>
       </c>
       <c r="H13">
-        <f ca="1">Distances!H13/80</f>
-        <v>0.36808844109127292</v>
+        <f>Distances!H13/80</f>
+        <v>0</v>
       </c>
       <c r="I13">
-        <f ca="1">Distances!I13/80</f>
-        <v>1.4601371385581421</v>
+        <f>Distances!I13/80</f>
+        <v>0</v>
       </c>
       <c r="J13">
-        <f ca="1">Distances!J13/80</f>
-        <v>2.3035456237844358</v>
+        <f>Distances!J13/80</f>
+        <v>0</v>
       </c>
       <c r="K13">
-        <f ca="1">Distances!K13/80</f>
-        <v>0.70871292283883447</v>
+        <f>Distances!K13/80</f>
+        <v>0</v>
       </c>
       <c r="L13">
-        <f ca="1">Distances!L13/80</f>
-        <v>1.0975973018693614</v>
+        <f>Distances!L13/80</f>
+        <v>0</v>
       </c>
       <c r="M13">
-        <f ca="1">Distances!M13/80</f>
+        <f>Distances!M13/80</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f ca="1">Distances!N13/80</f>
-        <v>1.8972402066093319</v>
+        <f>Distances!N13/80</f>
+        <v>0</v>
       </c>
       <c r="O13">
-        <f ca="1">Distances!O13/80</f>
-        <v>1.5095176415538538</v>
+        <f>Distances!O13/80</f>
+        <v>0</v>
       </c>
       <c r="P13">
-        <f ca="1">Distances!P13/80</f>
-        <v>1.2960421012046361</v>
+        <f>Distances!P13/80</f>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <f ca="1">Distances!Q13/80</f>
-        <v>0.98986737734354269</v>
+        <f>Distances!Q13/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f ca="1">Distances!A14/80</f>
-        <v>1.3883443778432212</v>
+        <f>Distances!A14/80</f>
+        <v>0</v>
       </c>
       <c r="B14">
-        <f ca="1">Distances!B14/80</f>
-        <v>1.7557868997599839</v>
+        <f>Distances!B14/80</f>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f ca="1">Distances!C14/80</f>
-        <v>0.72170543770993167</v>
+        <f>Distances!C14/80</f>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f ca="1">Distances!D14/80</f>
-        <v>0.17164278527143711</v>
+        <f>Distances!D14/80</f>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f ca="1">Distances!E14/80</f>
-        <v>2.1901005950372303</v>
+        <f>Distances!E14/80</f>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f ca="1">Distances!F14/80</f>
-        <v>0.9063362341540907</v>
+        <f>Distances!F14/80</f>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f ca="1">Distances!G14/80</f>
-        <v>1.2494096821354943</v>
+        <f>Distances!G14/80</f>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f ca="1">Distances!H14/80</f>
-        <v>2.0645215206140337</v>
+        <f>Distances!H14/80</f>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f ca="1">Distances!I14/80</f>
-        <v>2.4128525850676379</v>
+        <f>Distances!I14/80</f>
+        <v>0</v>
       </c>
       <c r="J14">
-        <f ca="1">Distances!J14/80</f>
-        <v>2.0223652166744461</v>
+        <f>Distances!J14/80</f>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f ca="1">Distances!K14/80</f>
-        <v>1.2223467515435265</v>
+        <f>Distances!K14/80</f>
+        <v>0</v>
       </c>
       <c r="L14">
-        <f ca="1">Distances!L14/80</f>
-        <v>1.4385809684102338</v>
+        <f>Distances!L14/80</f>
+        <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">Distances!M14/80</f>
-        <v>1.8972402066093319</v>
+        <f>Distances!M14/80</f>
+        <v>0</v>
       </c>
       <c r="N14">
-        <f ca="1">Distances!N14/80</f>
+        <f>Distances!N14/80</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f ca="1">Distances!O14/80</f>
-        <v>0.49211179768715374</v>
+        <f>Distances!O14/80</f>
+        <v>0</v>
       </c>
       <c r="P14">
-        <f ca="1">Distances!P14/80</f>
-        <v>2.361581576493323</v>
+        <f>Distances!P14/80</f>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <f ca="1">Distances!Q14/80</f>
-        <v>1.3883443778432212</v>
+        <f>Distances!Q14/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f ca="1">Distances!A15/80</f>
-        <v>0.89717008812116605</v>
+        <f>Distances!A15/80</f>
+        <v>0</v>
       </c>
       <c r="B15">
-        <f ca="1">Distances!B15/80</f>
-        <v>1.5736543315483744</v>
+        <f>Distances!B15/80</f>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f ca="1">Distances!C15/80</f>
-        <v>0.23220325712697548</v>
+        <f>Distances!C15/80</f>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f ca="1">Distances!D15/80</f>
-        <v>0.37228162110907659</v>
+        <f>Distances!D15/80</f>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f ca="1">Distances!E15/80</f>
-        <v>1.7790514427690607</v>
+        <f>Distances!E15/80</f>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f ca="1">Distances!F15/80</f>
-        <v>0.59733508900916776</v>
+        <f>Distances!F15/80</f>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f ca="1">Distances!G15/80</f>
-        <v>0.7758382077764352</v>
+        <f>Distances!G15/80</f>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f ca="1">Distances!H15/80</f>
-        <v>1.6258398350301551</v>
+        <f>Distances!H15/80</f>
+        <v>0</v>
       </c>
       <c r="I15">
-        <f ca="1">Distances!I15/80</f>
-        <v>1.9222952715074015</v>
+        <f>Distances!I15/80</f>
+        <v>0</v>
       </c>
       <c r="J15">
-        <f ca="1">Distances!J15/80</f>
-        <v>1.6671985756556325</v>
+        <f>Distances!J15/80</f>
+        <v>0</v>
       </c>
       <c r="K15">
-        <f ca="1">Distances!K15/80</f>
-        <v>0.80384613065835142</v>
+        <f>Distances!K15/80</f>
+        <v>0</v>
       </c>
       <c r="L15">
-        <f ca="1">Distances!L15/80</f>
-        <v>0.94690752895457098</v>
+        <f>Distances!L15/80</f>
+        <v>0</v>
       </c>
       <c r="M15">
-        <f ca="1">Distances!M15/80</f>
-        <v>1.5095176415538538</v>
+        <f>Distances!M15/80</f>
+        <v>0</v>
       </c>
       <c r="N15">
-        <f ca="1">Distances!N15/80</f>
-        <v>0.49211179768715374</v>
+        <f>Distances!N15/80</f>
+        <v>0</v>
       </c>
       <c r="O15">
-        <f ca="1">Distances!O15/80</f>
+        <f>Distances!O15/80</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f ca="1">Distances!P15/80</f>
-        <v>1.8694699873823495</v>
+        <f>Distances!P15/80</f>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <f ca="1">Distances!Q15/80</f>
-        <v>0.89717008812116605</v>
+        <f>Distances!Q15/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f ca="1">Distances!A16/80</f>
-        <v>0.97751097949602828</v>
+        <f>Distances!A16/80</f>
+        <v>0</v>
       </c>
       <c r="B16">
-        <f ca="1">Distances!B16/80</f>
-        <v>2.1432633295368904</v>
+        <f>Distances!B16/80</f>
+        <v>0</v>
       </c>
       <c r="C16">
-        <f ca="1">Distances!C16/80</f>
-        <v>1.6415893181863681</v>
+        <f>Distances!C16/80</f>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f ca="1">Distances!D16/80</f>
-        <v>2.2290106211265948</v>
+        <f>Distances!D16/80</f>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f ca="1">Distances!E16/80</f>
-        <v>1.1773694825457786</v>
+        <f>Distances!E16/80</f>
+        <v>0</v>
       </c>
       <c r="F16">
-        <f ca="1">Distances!F16/80</f>
-        <v>1.7333444844497312</v>
+        <f>Distances!F16/80</f>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f ca="1">Distances!G16/80</f>
-        <v>1.172334756910874</v>
+        <f>Distances!G16/80</f>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f ca="1">Distances!H16/80</f>
-        <v>0.95472448136407662</v>
+        <f>Distances!H16/80</f>
+        <v>0</v>
       </c>
       <c r="I16">
-        <f ca="1">Distances!I16/80</f>
-        <v>0.17503983318193636</v>
+        <f>Distances!I16/80</f>
+        <v>0</v>
       </c>
       <c r="J16">
-        <f ca="1">Distances!J16/80</f>
-        <v>1.4871054698547987</v>
+        <f>Distances!J16/80</f>
+        <v>0</v>
       </c>
       <c r="K16">
-        <f ca="1">Distances!K16/80</f>
-        <v>1.3571194853172828</v>
+        <f>Distances!K16/80</f>
+        <v>0</v>
       </c>
       <c r="L16">
-        <f ca="1">Distances!L16/80</f>
-        <v>0.925053946973733</v>
+        <f>Distances!L16/80</f>
+        <v>0</v>
       </c>
       <c r="M16">
-        <f ca="1">Distances!M16/80</f>
-        <v>1.2960421012046361</v>
+        <f>Distances!M16/80</f>
+        <v>0</v>
       </c>
       <c r="N16">
-        <f ca="1">Distances!N16/80</f>
-        <v>2.361581576493323</v>
+        <f>Distances!N16/80</f>
+        <v>0</v>
       </c>
       <c r="O16">
-        <f ca="1">Distances!O16/80</f>
-        <v>1.8694699873823495</v>
+        <f>Distances!O16/80</f>
+        <v>0</v>
       </c>
       <c r="P16">
-        <f ca="1">Distances!P16/80</f>
+        <f>Distances!P16/80</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f ca="1">Distances!Q16/80</f>
-        <v>0.97751097949602828</v>
+        <f>Distances!Q16/80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4727,64 +4314,64 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <f ca="1">Distances!B17/80</f>
-        <v>1.5519735024516224</v>
+        <f>Distances!B17/80</f>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f ca="1">Distances!C17/80</f>
-        <v>0.67531875486239334</v>
+        <f>Distances!C17/80</f>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f ca="1">Distances!D17/80</f>
-        <v>1.2520065887442775</v>
+        <f>Distances!D17/80</f>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f ca="1">Distances!E17/80</f>
-        <v>1.1381547330858774</v>
+        <f>Distances!E17/80</f>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f ca="1">Distances!F17/80</f>
-        <v>0.91295468838427696</v>
+        <f>Distances!F17/80</f>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f ca="1">Distances!G17/80</f>
-        <v>0.25862564282392364</v>
+        <f>Distances!G17/80</f>
+        <v>0</v>
       </c>
       <c r="H17">
-        <f ca="1">Distances!H17/80</f>
-        <v>0.91195189237378715</v>
+        <f>Distances!H17/80</f>
+        <v>0</v>
       </c>
       <c r="I17">
-        <f ca="1">Distances!I17/80</f>
-        <v>1.0479722154675399</v>
+        <f>Distances!I17/80</f>
+        <v>0</v>
       </c>
       <c r="J17">
-        <f ca="1">Distances!J17/80</f>
-        <v>1.3479502470424845</v>
+        <f>Distances!J17/80</f>
+        <v>0</v>
       </c>
       <c r="K17">
-        <f ca="1">Distances!K17/80</f>
-        <v>0.5279464057682518</v>
+        <f>Distances!K17/80</f>
+        <v>0</v>
       </c>
       <c r="L17">
-        <f ca="1">Distances!L17/80</f>
-        <v>0.12868235474993669</v>
+        <f>Distances!L17/80</f>
+        <v>0</v>
       </c>
       <c r="M17">
-        <f ca="1">Distances!M17/80</f>
-        <v>0.98986737734354269</v>
+        <f>Distances!M17/80</f>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f ca="1">Distances!N17/80</f>
-        <v>1.3883443778432212</v>
+        <f>Distances!N17/80</f>
+        <v>0</v>
       </c>
       <c r="O17">
-        <f ca="1">Distances!O17/80</f>
-        <v>0.89717008812116605</v>
+        <f>Distances!O17/80</f>
+        <v>0</v>
       </c>
       <c r="P17">
-        <f ca="1">Distances!P17/80</f>
-        <v>0.97751097949602828</v>
+        <f>Distances!P17/80</f>
+        <v>0</v>
       </c>
       <c r="Q17">
         <f>Distances!Q17/80</f>

--- a/ExactModelData.xlsx
+++ b/ExactModelData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AF7F7-5ED8-4470-9C3E-A14F10EE1174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB2B49-056E-472F-AE7C-6DB695FE7ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,21 @@
     <sheet name="Times" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AverageUnload">'1D'!$L$2:$L$12</definedName>
-    <definedName name="CoordinatesX">'1D'!$G$3:$G$11</definedName>
-    <definedName name="CoordinatesY">'1D'!$H$3:$H$11</definedName>
-    <definedName name="Demand">'1D'!$I$2:$I$12</definedName>
+    <definedName name="AverageUnload">'1D'!$L$2:$L$15</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$14</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$14</definedName>
+    <definedName name="Demand">'1D'!$I$2:$I$15</definedName>
     <definedName name="DistanceCost">'1D'!$C$2:$C$4</definedName>
-    <definedName name="Distances">Distances!$A$1:$K$11</definedName>
-    <definedName name="Locations">'1D'!$F$2:$F$12</definedName>
+    <definedName name="Distances">Distances!$A$1:$N$14</definedName>
+    <definedName name="Locations">'1D'!$F$2:$F$15</definedName>
     <definedName name="PalletCapacity">'1D'!$E$2:$E$4</definedName>
-    <definedName name="Stores">'1D'!$F$3:$F$11</definedName>
+    <definedName name="Stores">'1D'!$F$3:$F$14</definedName>
     <definedName name="TimeCost">'1D'!$D$2:$D$4</definedName>
-    <definedName name="Times">Times!$A$1:$K$11</definedName>
+    <definedName name="Times">Times!$A$1:$N$14</definedName>
     <definedName name="Vehicles">'1D'!$A$2:$A$4</definedName>
     <definedName name="VehicleTypes">'1D'!$B$2:$B$4</definedName>
-    <definedName name="WindowEnd">'1D'!$K$2:$K$12</definedName>
-    <definedName name="WindowStart">'1D'!$J$2:$J$12</definedName>
+    <definedName name="WindowEnd">'1D'!$K$2:$K$15</definedName>
+    <definedName name="WindowStart">'1D'!$J$2:$J$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Pallets</t>
   </si>
@@ -298,7 +298,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot of Locations on Cartesian Plane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -348,7 +403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F17E6926-BB02-40A7-8199-221446AFC765}" type="CELLRANGE">
+                    <a:fld id="{DF7DCB97-57DF-438B-B032-5D26299FDCEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -357,6 +412,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -370,7 +426,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000004-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -381,7 +437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31BD0343-34DB-40F3-B2DF-4844B4A9C720}" type="CELLRANGE">
+                    <a:fld id="{9326D946-649E-4681-B866-4EF7A112FF53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -390,6 +446,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -403,7 +460,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000005-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -414,7 +471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAC75548-2767-488A-B6D9-34817EDD8F87}" type="CELLRANGE">
+                    <a:fld id="{C9AB0C5E-57B5-47FF-9E5F-5A27D46ACC32}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -423,6 +480,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -436,7 +494,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000006-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -447,7 +505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7A620F4-132F-4D68-A4F0-312F2BA70280}" type="CELLRANGE">
+                    <a:fld id="{73C0068D-E72C-46B0-A610-2C722291977D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -456,6 +514,40 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0FCB-4705-A43A-A569121E56C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{89670CBC-2F78-4C19-9C0C-C685A3C60F52}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -469,18 +561,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000007-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19B5F28F-7915-47D6-A78C-95ECB94B6280}" type="CELLRANGE">
+                    <a:fld id="{021FC67B-069F-48B3-A6B7-69779B89B92B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -489,6 +581,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -502,18 +595,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000008-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7395B56B-FEEB-446A-801A-0729D3E1D75C}" type="CELLRANGE">
+                    <a:fld id="{27C33BBD-5D13-47E9-B553-E3A712BFBE96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -522,6 +615,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -535,18 +629,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000009-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F835119-380C-4958-A60B-771182C6E8D5}" type="CELLRANGE">
+                    <a:fld id="{A919387C-39CE-43C8-8888-E1DA68C5C95C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -555,6 +649,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -568,18 +663,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{0000000A-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF203660-2615-486B-865C-58F4C4CFEC4F}" type="CELLRANGE">
+                    <a:fld id="{73014E44-0FEB-44D3-A0DB-9DFD1DF15FF3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -588,6 +683,73 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0FCB-4705-A43A-A569121E56C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BE1B25A7-95C6-4B8D-98E8-8563B407CE13}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0FCB-4705-A43A-A569121E56C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD25A86D-C5E4-4CC3-AD2A-4457F3C14670}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -601,18 +763,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{0000000B-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9512B093-07E3-4661-978B-7E4C0D6A983A}" type="CELLRANGE">
+                    <a:fld id="{5E8D9FA1-C9B3-48B3-821F-974F7759FD25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -621,6 +783,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -634,18 +797,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{0000000C-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EC9FA38-C846-4153-9824-1A347BE93213}" type="CELLRANGE">
+                    <a:fld id="{BAC16081-66DE-4993-A29F-12833E95E191}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -654,6 +817,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -667,88 +831,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-BF8A-4BDE-853D-4D797AD146A2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-BF8A-4BDE-853D-4D797AD146A2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-BF8A-4BDE-853D-4D797AD146A2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{0000000D-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -759,10 +842,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{84B14FD3-70A3-4CED-B4AC-D9BB40FB471D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -771,11 +860,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{0000000E-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -790,6 +879,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -802,7 +892,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{0000000F-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -817,6 +907,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -829,7 +920,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-BF8A-4BDE-853D-4D797AD146A2}"/>
+                  <c16:uniqueId val="{00000010-0FCB-4705-A43A-A569121E56C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -862,6 +953,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -872,21 +964,7 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -900,33 +978,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.242025697000003</c:v>
+                  <c:v>-47.741347290999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.086666249999993</c:v>
+                  <c:v>5.0747857439999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-76.004541665000005</c:v>
+                  <c:v>-87.811619023999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-38.970221631999998</c:v>
+                  <c:v>-98.930232743000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.545645200999999</c:v>
+                  <c:v>-31.105175365000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-77.815274565999999</c:v>
+                  <c:v>19.651119920999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-63.286724196000002</c:v>
+                  <c:v>-22.356872004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-77.959312108000006</c:v>
+                  <c:v>39.000982764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-33.625187943</c:v>
+                  <c:v>50.087446481999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>73.515074178999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.878366976000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-91.853676929000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -942,33 +1029,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-37.558585418</c:v>
+                  <c:v>-85.432022821999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.799082729999995</c:v>
+                  <c:v>-90.286017377999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.254022022999997</c:v>
+                  <c:v>-88.010315238000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.864183666999999</c:v>
+                  <c:v>-60.614279115000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.706405587999996</c:v>
+                  <c:v>33.406879261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-60.686567365000002</c:v>
+                  <c:v>-89.810060401000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.146205520000002</c:v>
+                  <c:v>-2.6109544609999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.184070164000005</c:v>
+                  <c:v>-70.865333324999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9060373790000007</c:v>
+                  <c:v>-92.899266737000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2.8070975859999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19.291541837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.8111015970000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -978,38 +1074,47 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'1D'!$F$2:$F$11</c15:f>
+                <c15:f>'1D'!$N$2:$N$15</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
                     <c:v>Depot</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>1 6 20</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>2 5 0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3</c:v>
+                    <c:v>3 6 0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4</c:v>
+                    <c:v>4 6 15</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5</c:v>
+                    <c:v>5 3 0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6</c:v>
+                    <c:v>6 6 0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7</c:v>
+                    <c:v>7 3 0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8</c:v>
+                    <c:v>8 3 0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9</c:v>
+                    <c:v>9 2 0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10 5 0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11 5 0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12 6 0</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1034,8 +1139,6 @@
         <c:axId val="506125392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1093,7 +1196,6 @@
         <c:crossAx val="506128344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="506128344"/>
@@ -1158,7 +1260,6 @@
         <c:crossAx val="506125392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1773,15 +1874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2075,10 +2176,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,11 +2269,11 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2174041529999999</v>
+        <v>0.73731669099999997</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>12.605782265</v>
+        <v>8.9303887399999997</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
@@ -2191,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>24</v>
@@ -2199,20 +2300,23 @@
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
       </c>
       <c r="S2">
-        <v>1.2174041529999999</v>
+        <v>0.73731669099999997</v>
       </c>
       <c r="T2">
-        <v>12.605782265</v>
+        <v>8.9303887399999997</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -2227,11 +2331,11 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2174041529999999</v>
+        <v>0.73731669099999997</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>12.605782265</v>
+        <v>8.9303887399999997</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
@@ -2241,22 +2345,27 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.242025697000003</v>
+        <v>-47.741347290999997</v>
       </c>
       <c r="H3">
-        <v>-37.558585418</v>
+        <v>-85.432022821999993</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <f>IF(J3=0,24,J3+1)</f>
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>22</v>
-      </c>
       <c r="L3">
-        <v>6.0925027999999999E-2</v>
+        <v>3.7740360000000001E-2</v>
+      </c>
+      <c r="N3" t="str">
+        <f>_xlfn.CONCAT(F3," ",I3, " ", J3)</f>
+        <v>1 6 20</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -2268,10 +2377,10 @@
         <v>30</v>
       </c>
       <c r="S3">
-        <v>1.2174041529999999</v>
+        <v>1.4933844190000001</v>
       </c>
       <c r="T3">
-        <v>12.605782265</v>
+        <v>13.662892009</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -2282,40 +2391,45 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2174041529999999</v>
+        <v>1.176718865</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>12.605782265</v>
+        <v>9.6166558270000007</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>80.086666249999993</v>
+        <v>5.0747857439999997</v>
       </c>
       <c r="H4">
-        <v>89.799082729999995</v>
+        <v>-90.286017377999997</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <f t="shared" ref="K4:K6" si="0">IF(J4=0,24,J4+1)</f>
         <v>24</v>
       </c>
       <c r="L4">
-        <v>6.0846624000000002E-2</v>
+        <v>3.8378348E-2</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N14" si="1">_xlfn.CONCAT(F4," ",I4, " ", J4)</f>
+        <v>2 5 0</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -2327,10 +2441,10 @@
         <v>31</v>
       </c>
       <c r="S4">
-        <v>1.2174041529999999</v>
+        <v>1.176718865</v>
       </c>
       <c r="T4">
-        <v>12.605782265</v>
+        <v>9.6166558270000007</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -2341,29 +2455,34 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>-76.004541665000005</v>
+        <v>-87.811619023999995</v>
       </c>
       <c r="H5">
-        <v>56.254022022999997</v>
+        <v>-88.010315238000004</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L5">
-        <v>0.13388272500000001</v>
+        <v>0.16462961000000001</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>3 6 0</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="5">
         <f ca="1">COUNT(E:E)/P2/2</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R5" s="6"/>
     </row>
@@ -2372,22 +2491,27 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>-38.970221631999998</v>
+        <v>-98.930232743000005</v>
       </c>
       <c r="H6">
-        <v>47.864183666999999</v>
+        <v>-60.614279115000002</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>0.136567037</v>
+        <v>9.0529283000000002E-2</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>4 6 15</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -2403,22 +2527,27 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>-12.545645200999999</v>
+        <v>-31.105175365000001</v>
       </c>
       <c r="H7">
-        <v>95.706405587999996</v>
+        <v>33.406879261</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
+        <f t="shared" ref="K7" si="2">IF(J7=0,24,J7+1)</f>
         <v>24</v>
       </c>
       <c r="L7">
-        <v>3.3671476999999998E-2</v>
+        <v>0.12233739</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>5 3 0</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -2433,22 +2562,27 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>-77.815274565999999</v>
+        <v>19.651119920999999</v>
       </c>
       <c r="H8">
-        <v>-60.686567365000002</v>
+        <v>-89.810060401000001</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
+        <f t="shared" ref="K8:K13" si="3">IF(J8=0,24,J8+1)</f>
         <v>24</v>
       </c>
       <c r="L8">
-        <v>5.6171013999999998E-2</v>
+        <v>9.8518772000000004E-2</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>6 6 0</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2462,10 +2596,10 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>-63.286724196000002</v>
+        <v>-22.356872004</v>
       </c>
       <c r="H9">
-        <v>43.146205520000002</v>
+        <v>-2.6109544609999999</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -2474,10 +2608,15 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L9">
-        <v>5.0397431999999999E-2</v>
+        <v>0.106235838</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>7 3 0</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2491,22 +2630,27 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>-77.959312108000006</v>
+        <v>39.000982764</v>
       </c>
       <c r="H10">
-        <v>88.184070164000005</v>
+        <v>-70.865333324999995</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L10">
-        <v>5.1806891000000001E-2</v>
+        <v>9.8985081000000003E-2</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>8 3 0</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2520,22 +2664,27 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>-33.625187943</v>
+        <v>50.087446481999997</v>
       </c>
       <c r="H11">
-        <v>9.9060373790000007</v>
+        <v>-92.899266737000005</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="L11">
-        <v>0.05</v>
+        <v>0.14073476400000001</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>9 2 0</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2545,26 +2694,31 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>11</v>
+      <c r="F12">
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>73.515074178999996</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.8070975859999998</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.7043808000000001E-2</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>10 5 0</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2573,74 +2727,103 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>45.878366976000002</v>
+      </c>
+      <c r="H13">
+        <v>-19.291541837</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>6.8492510000000006E-2</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>11 5 0</v>
+      </c>
+    </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>-91.853676929000002</v>
+      </c>
+      <c r="H14">
+        <v>-6.8111015970000004</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>IF(J14=0,24,J14+1)</f>
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>2.9831558000000001E-2</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>12 6 0</v>
+      </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>32</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f>SUM(I:I)</f>
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N24">
-        <v>7</v>
-      </c>
-      <c r="O24">
-        <v>-63.286724196000002</v>
-      </c>
-      <c r="P24">
-        <v>43.146205520000002</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>24</v>
-      </c>
-      <c r="T24">
-        <v>5.0397431999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N25">
-        <v>9</v>
-      </c>
-      <c r="O25">
-        <v>-33.625187943</v>
-      </c>
-      <c r="P25">
-        <v>9.9060373790000007</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-      <c r="R25">
-        <v>14</v>
-      </c>
-      <c r="S25">
-        <v>15</v>
-      </c>
-      <c r="T25">
-        <v>0.12837673699999999</v>
+        <v>0.90322580645161288</v>
       </c>
     </row>
   </sheetData>
@@ -2656,64 +2839,76 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="A1:K11"/>
+      <selection activeCell="N14" sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f>SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>64.341872738732206</v>
+        <v>97.866576340539268</v>
       </c>
       <c r="C1">
         <f>SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>120.32351960522212</v>
+        <v>90.428526385914438</v>
       </c>
       <c r="D1">
         <f>SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>94.557947034984267</v>
+        <v>124.32496138711748</v>
       </c>
       <c r="E1">
         <f>SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>61.722429085021517</v>
+        <v>116.02276407332863</v>
       </c>
       <c r="F1">
         <f>SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>96.525174354072689</v>
+        <v>45.645936472444454</v>
       </c>
       <c r="G1">
         <f>SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>98.681692396962106</v>
+        <v>91.934832698932951</v>
       </c>
       <c r="H1">
         <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>76.59506844591661</v>
+        <v>22.508816250541802</v>
       </c>
       <c r="I1">
         <f>SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>117.70337537658736</v>
+        <v>80.888640264385572</v>
       </c>
       <c r="J1">
         <f>SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>35.05399892674469</v>
+        <v>105.54158448383977</v>
       </c>
       <c r="K1">
         <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
+        <v>73.568647727148004</v>
+      </c>
+      <c r="L1">
+        <f>SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
+        <v>49.769349431484926</v>
+      </c>
+      <c r="M1">
+        <f>SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
+        <v>92.105857958882083</v>
+      </c>
+      <c r="N1">
+        <f>SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>64.341872738732206</v>
+        <v>97.866576340539268</v>
       </c>
       <c r="B2">
         <f>SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2721,49 +2916,61 @@
       </c>
       <c r="C2">
         <f>SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>130.36602181405192</v>
+        <v>53.038713897685113</v>
       </c>
       <c r="D2">
         <f>SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>158.89615273824339</v>
+        <v>40.153135226764817</v>
       </c>
       <c r="E2">
         <f>SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>124.96688977867657</v>
+        <v>56.88780534107741</v>
       </c>
       <c r="F2">
         <f>SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>148.17894630552891</v>
+        <v>119.99769524721835</v>
       </c>
       <c r="G2">
         <f>SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>132.09770967220021</v>
+        <v>67.534523393325514</v>
       </c>
       <c r="H2">
         <f>SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>140.92606335304208</v>
+        <v>86.623905188197028</v>
       </c>
       <c r="I2">
         <f>SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>181.00719267207367</v>
+        <v>87.956922787649674</v>
       </c>
       <c r="J2">
         <f>SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>98.112531287083272</v>
+        <v>98.113366177938616</v>
       </c>
       <c r="K2">
         <f>SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>64.341872738732206</v>
+        <v>149.96420278882491</v>
+      </c>
+      <c r="L2">
+        <f>SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
+        <v>114.62641111175849</v>
+      </c>
+      <c r="M2">
+        <f>SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
+        <v>90.150689849602514</v>
+      </c>
+      <c r="N2">
+        <f>SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
+        <v>97.866576340539268</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>120.32351960522212</v>
+        <v>90.428526385914438</v>
       </c>
       <c r="B3">
         <f>SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>130.36602181405192</v>
+        <v>53.038713897685113</v>
       </c>
       <c r="C3">
         <f>SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2771,49 +2978,61 @@
       </c>
       <c r="D3">
         <f>SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>159.65505405780323</v>
+        <v>92.914277756191666</v>
       </c>
       <c r="E3">
         <f>SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>126.22629801895924</v>
+        <v>108.15477761998861</v>
       </c>
       <c r="F3">
         <f>SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>92.820480434566335</v>
+        <v>128.8756077184317</v>
       </c>
       <c r="G3">
         <f>SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>218.12600440565157</v>
+        <v>14.584102752090484</v>
       </c>
       <c r="H3">
         <f>SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>150.77274302722128</v>
+        <v>91.866275119345715</v>
       </c>
       <c r="I3">
         <f>SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>158.0542297463935</v>
+        <v>39.091556803564444</v>
       </c>
       <c r="J3">
         <f>SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>138.97224355772281</v>
+        <v>45.088454164304636</v>
       </c>
       <c r="K3">
         <f>SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>120.32351960522212</v>
+        <v>115.54393594977849</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
+        <v>81.88496686631845</v>
+      </c>
+      <c r="M3">
+        <f>SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
+        <v>127.91867901442774</v>
+      </c>
+      <c r="N3">
+        <f>SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
+        <v>90.428526385914438</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>94.557947034984267</v>
+        <v>124.32496138711748</v>
       </c>
       <c r="B4">
         <f>SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>158.89615273824339</v>
+        <v>40.153135226764817</v>
       </c>
       <c r="C4">
         <f>SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>159.65505405780323</v>
+        <v>92.914277756191666</v>
       </c>
       <c r="D4">
         <f>SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2821,49 +3040,61 @@
       </c>
       <c r="E4">
         <f>SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>37.972756654560577</v>
+        <v>29.566304576072003</v>
       </c>
       <c r="F4">
         <f>SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>74.722969088417216</v>
+        <v>134.00655160274567</v>
       </c>
       <c r="G4">
         <f>SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>116.95460743404504</v>
+        <v>107.47780861281532</v>
       </c>
       <c r="H4">
         <f>SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>18.263563032746941</v>
+        <v>107.59820969036802</v>
       </c>
       <c r="I4">
         <f>SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>31.989828098497252</v>
+        <v>127.96634861180871</v>
       </c>
       <c r="J4">
         <f>SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>62.802430704988282</v>
+        <v>137.98570257163476</v>
       </c>
       <c r="K4">
         <f>SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>94.557947034984267</v>
+        <v>185.13266705759878</v>
+      </c>
+      <c r="L4">
+        <f>SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
+        <v>150.31727171026682</v>
+      </c>
+      <c r="M4">
+        <f>SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
+        <v>81.29975724455845</v>
+      </c>
+      <c r="N4">
+        <f>SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
+        <v>124.32496138711748</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>61.722429085021517</v>
+        <v>116.02276407332863</v>
       </c>
       <c r="B5">
         <f>SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>124.96688977867657</v>
+        <v>56.88780534107741</v>
       </c>
       <c r="C5">
         <f>SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>126.22629801895924</v>
+        <v>108.15477761998861</v>
       </c>
       <c r="D5">
         <f>SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>37.972756654560577</v>
+        <v>29.566304576072003</v>
       </c>
       <c r="E5">
         <f>SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2871,49 +3102,61 @@
       </c>
       <c r="F5">
         <f>SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>54.654701882783819</v>
+        <v>115.9319482743815</v>
       </c>
       <c r="G5">
         <f>SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>115.29181968837386</v>
+        <v>122.12260578829741</v>
       </c>
       <c r="H5">
         <f>SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>24.769974056114556</v>
+        <v>96.061778277222999</v>
       </c>
       <c r="I5">
         <f>SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>56.087809934750332</v>
+        <v>138.31162034932146</v>
       </c>
       <c r="J5">
         <f>SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>38.332626504816396</v>
+        <v>152.47488038151624</v>
       </c>
       <c r="K5">
         <f>SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>61.722429085021517</v>
+        <v>183.73800614481729</v>
+      </c>
+      <c r="L5">
+        <f>SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
+        <v>150.58917347779081</v>
+      </c>
+      <c r="M5">
+        <f>SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
+        <v>54.2665601749556</v>
+      </c>
+      <c r="N5">
+        <f>SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
+        <v>116.02276407332863</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>96.525174354072689</v>
+        <v>45.645936472444454</v>
       </c>
       <c r="B6">
         <f>SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>148.17894630552891</v>
+        <v>119.99769524721835</v>
       </c>
       <c r="C6">
         <f>SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>92.820480434566335</v>
+        <v>128.8756077184317</v>
       </c>
       <c r="D6">
         <f>SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>74.722969088417216</v>
+        <v>134.00655160274567</v>
       </c>
       <c r="E6">
         <f>SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>54.654701882783819</v>
+        <v>115.9319482743815</v>
       </c>
       <c r="F6">
         <f>SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2921,49 +3164,61 @@
       </c>
       <c r="G6">
         <f>SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>169.46647605506601</v>
+        <v>133.26145628361027</v>
       </c>
       <c r="H6">
         <f>SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>73.056359947406477</v>
+        <v>37.065039561852949</v>
       </c>
       <c r="I6">
         <f>SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>65.844767054422121</v>
+        <v>125.64858823396436</v>
       </c>
       <c r="J6">
         <f>SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>88.351855141880208</v>
+        <v>150.15153798499048</v>
       </c>
       <c r="K6">
         <f>SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>96.525174354072689</v>
+        <v>109.00340936505837</v>
+      </c>
+      <c r="L6">
+        <f>SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
+        <v>93.293029630249819</v>
+      </c>
+      <c r="M6">
+        <f>SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
+        <v>72.855105700052107</v>
+      </c>
+      <c r="N6">
+        <f>SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
+        <v>45.645936472444454</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>98.681692396962106</v>
+        <v>91.934832698932951</v>
       </c>
       <c r="B7">
         <f>SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>132.09770967220021</v>
+        <v>67.534523393325514</v>
       </c>
       <c r="C7">
         <f>SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>218.12600440565157</v>
+        <v>14.584102752090484</v>
       </c>
       <c r="D7">
         <f>SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>116.95460743404504</v>
+        <v>107.47780861281532</v>
       </c>
       <c r="E7">
         <f>SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>115.29181968837386</v>
+        <v>122.12260578829741</v>
       </c>
       <c r="F7">
         <f>SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>169.46647605506601</v>
+        <v>133.26145628361027</v>
       </c>
       <c r="G7">
         <f>SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2971,49 +3226,61 @@
       </c>
       <c r="H7">
         <f>SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>104.84428215616538</v>
+        <v>96.790265328214744</v>
       </c>
       <c r="I7">
         <f>SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>148.87070720966034</v>
+        <v>27.079879542328836</v>
       </c>
       <c r="J7">
         <f>SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>83.283129145649028</v>
+        <v>30.592697990112224</v>
       </c>
       <c r="K7">
         <f>SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>98.681692396962106</v>
+        <v>107.14132499599225</v>
+      </c>
+      <c r="L7">
+        <f>SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
+        <v>75.237822593062987</v>
+      </c>
+      <c r="M7">
+        <f>SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
+        <v>139.00412541758558</v>
+      </c>
+      <c r="N7">
+        <f>SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
+        <v>91.934832698932951</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>76.59506844591661</v>
+        <v>22.508816250541802</v>
       </c>
       <c r="B8">
         <f>SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>140.92606335304208</v>
+        <v>86.623905188197028</v>
       </c>
       <c r="C8">
         <f>SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>150.77274302722128</v>
+        <v>91.866275119345715</v>
       </c>
       <c r="D8">
         <f>SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>18.263563032746941</v>
+        <v>107.59820969036802</v>
       </c>
       <c r="E8">
         <f>SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>24.769974056114556</v>
+        <v>96.061778277222999</v>
       </c>
       <c r="F8">
         <f>SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>73.056359947406477</v>
+        <v>37.065039561852949</v>
       </c>
       <c r="G8">
         <f>SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>104.84428215616538</v>
+        <v>96.790265328214744</v>
       </c>
       <c r="H8">
         <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -3021,49 +3288,61 @@
       </c>
       <c r="I8">
         <f>SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>47.367648112679547</v>
+        <v>91.779336322733499</v>
       </c>
       <c r="J8">
         <f>SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>44.550146025910898</v>
+        <v>115.7590541363806</v>
       </c>
       <c r="K8">
         <f>SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>76.59506844591661</v>
+        <v>96.024920478488539</v>
+      </c>
+      <c r="L8">
+        <f>SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
+        <v>70.244500381639014</v>
+      </c>
+      <c r="M8">
+        <f>SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
+        <v>69.623610440335213</v>
+      </c>
+      <c r="N8">
+        <f>SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
+        <v>22.508816250541802</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>117.70337537658736</v>
+        <v>80.888640264385572</v>
       </c>
       <c r="B9">
         <f>SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>181.00719267207367</v>
+        <v>87.956922787649674</v>
       </c>
       <c r="C9">
         <f>SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>158.0542297463935</v>
+        <v>39.091556803564444</v>
       </c>
       <c r="D9">
         <f>SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>31.989828098497252</v>
+        <v>127.96634861180871</v>
       </c>
       <c r="E9">
         <f>SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>56.087809934750332</v>
+        <v>138.31162034932146</v>
       </c>
       <c r="F9">
         <f>SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>65.844767054422121</v>
+        <v>125.64858823396436</v>
       </c>
       <c r="G9">
         <f>SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>148.87070720966034</v>
+        <v>27.079879542328836</v>
       </c>
       <c r="H9">
         <f>SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>47.367648112679547</v>
+        <v>91.779336322733499</v>
       </c>
       <c r="I9">
         <f>SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -3071,49 +3350,61 @@
       </c>
       <c r="J9">
         <f>SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>89.960908077715473</v>
+        <v>24.665844793458437</v>
       </c>
       <c r="K9">
         <f>SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>117.70337537658736</v>
+        <v>81.356312493493974</v>
+      </c>
+      <c r="L9">
+        <f>SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
+        <v>52.030321756137241</v>
+      </c>
+      <c r="M9">
+        <f>SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
+        <v>145.69106549694513</v>
+      </c>
+      <c r="N9">
+        <f>SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
+        <v>80.888640264385572</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>35.05399892674469</v>
+        <v>105.54158448383977</v>
       </c>
       <c r="B10">
         <f>SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>98.112531287083272</v>
+        <v>98.113366177938616</v>
       </c>
       <c r="C10">
         <f>SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>138.97224355772281</v>
+        <v>45.088454164304636</v>
       </c>
       <c r="D10">
         <f>SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>62.802430704988282</v>
+        <v>137.98570257163476</v>
       </c>
       <c r="E10">
         <f>SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>38.332626504816396</v>
+        <v>152.47488038151624</v>
       </c>
       <c r="F10">
         <f>SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>88.351855141880208</v>
+        <v>150.15153798499048</v>
       </c>
       <c r="G10">
         <f>SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>83.283129145649028</v>
+        <v>30.592697990112224</v>
       </c>
       <c r="H10">
         <f>SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>44.550146025910898</v>
+        <v>115.7590541363806</v>
       </c>
       <c r="I10">
         <f>SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>89.960908077715473</v>
+        <v>24.665844793458437</v>
       </c>
       <c r="J10">
         <f>SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -3121,52 +3412,250 @@
       </c>
       <c r="K10">
         <f>SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>35.05399892674469</v>
+        <v>98.532034950243713</v>
+      </c>
+      <c r="L10">
+        <f>SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
+        <v>73.727969694288419</v>
+      </c>
+      <c r="M10">
+        <f>SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
+        <v>166.00739348700301</v>
+      </c>
+      <c r="N10">
+        <f>SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
+        <v>105.54158448383977</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>0</v>
+        <v>73.568647727148004</v>
       </c>
       <c r="B11">
         <f>SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>64.341872738732206</v>
+        <v>149.96420278882491</v>
       </c>
       <c r="C11">
         <f>SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>120.32351960522212</v>
+        <v>115.54393594977849</v>
       </c>
       <c r="D11">
         <f>SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>94.557947034984267</v>
+        <v>185.13266705759878</v>
       </c>
       <c r="E11">
         <f>SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>61.722429085021517</v>
+        <v>183.73800614481729</v>
       </c>
       <c r="F11">
         <f>SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>96.525174354072689</v>
+        <v>109.00340936505837</v>
       </c>
       <c r="G11">
         <f>SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>98.681692396962106</v>
+        <v>107.14132499599225</v>
       </c>
       <c r="H11">
         <f>SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>76.59506844591661</v>
+        <v>96.024920478488539</v>
       </c>
       <c r="I11">
         <f>SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>117.70337537658736</v>
+        <v>81.356312493493974</v>
       </c>
       <c r="J11">
         <f>SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>35.05399892674469</v>
+        <v>98.532034950243713</v>
       </c>
       <c r="K11">
         <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
+        <v>35.385554247067006</v>
+      </c>
+      <c r="M11">
+        <f>SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
+        <v>165.64822244305404</v>
+      </c>
+      <c r="N11">
+        <f>SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
+        <v>73.568647727148004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
+        <v>49.769349431484926</v>
+      </c>
+      <c r="B12">
+        <f>SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
+        <v>114.62641111175849</v>
+      </c>
+      <c r="C12">
+        <f>SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
+        <v>81.88496686631845</v>
+      </c>
+      <c r="D12">
+        <f>SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
+        <v>150.31727171026682</v>
+      </c>
+      <c r="E12">
+        <f>SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
+        <v>150.58917347779081</v>
+      </c>
+      <c r="F12">
+        <f>SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
+        <v>93.293029630249819</v>
+      </c>
+      <c r="G12">
+        <f>SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
+        <v>75.237822593062987</v>
+      </c>
+      <c r="H12">
+        <f>SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
+        <v>70.244500381639014</v>
+      </c>
+      <c r="I12">
+        <f>SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
+        <v>52.030321756137241</v>
+      </c>
+      <c r="J12">
+        <f>SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
+        <v>73.727969694288419</v>
+      </c>
+      <c r="K12">
+        <f>SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
+        <v>35.385554247067006</v>
+      </c>
+      <c r="L12">
+        <f>SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
+        <v>138.29633873256753</v>
+      </c>
+      <c r="N12">
+        <f>SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
+        <v>49.769349431484926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
+        <v>92.105857958882083</v>
+      </c>
+      <c r="B13">
+        <f>SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
+        <v>90.150689849602514</v>
+      </c>
+      <c r="C13">
+        <f>SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
+        <v>127.91867901442774</v>
+      </c>
+      <c r="D13">
+        <f>SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
+        <v>81.29975724455845</v>
+      </c>
+      <c r="E13">
+        <f>SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
+        <v>54.2665601749556</v>
+      </c>
+      <c r="F13">
+        <f>SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
+        <v>72.855105700052107</v>
+      </c>
+      <c r="G13">
+        <f>SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
+        <v>139.00412541758558</v>
+      </c>
+      <c r="H13">
+        <f>SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
+        <v>69.623610440335213</v>
+      </c>
+      <c r="I13">
+        <f>SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
+        <v>145.69106549694513</v>
+      </c>
+      <c r="J13">
+        <f>SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
+        <v>166.00739348700301</v>
+      </c>
+      <c r="K13">
+        <f>SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
+        <v>165.64822244305404</v>
+      </c>
+      <c r="L13">
+        <f>SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
+        <v>138.29633873256753</v>
+      </c>
+      <c r="M13">
+        <f>SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
+        <v>92.105857958882083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>SQRT(('1D'!$G$2-'1D'!$G15)^2+('1D'!$H$2-'1D'!$H15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
+        <v>97.866576340539268</v>
+      </c>
+      <c r="C14">
+        <f>SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
+        <v>90.428526385914438</v>
+      </c>
+      <c r="D14">
+        <f>SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
+        <v>124.32496138711748</v>
+      </c>
+      <c r="E14">
+        <f>SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
+        <v>116.02276407332863</v>
+      </c>
+      <c r="F14">
+        <f>SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
+        <v>45.645936472444454</v>
+      </c>
+      <c r="G14">
+        <f>SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
+        <v>91.934832698932951</v>
+      </c>
+      <c r="H14">
+        <f>SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
+        <v>22.508816250541802</v>
+      </c>
+      <c r="I14">
+        <f>SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
+        <v>80.888640264385572</v>
+      </c>
+      <c r="J14">
+        <f>SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
+        <v>105.54158448383977</v>
+      </c>
+      <c r="K14">
+        <f>SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
+        <v>73.568647727148004</v>
+      </c>
+      <c r="L14">
+        <f>SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
+        <v>49.769349431484926</v>
+      </c>
+      <c r="M14">
+        <f>SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
+        <v>92.105857958882083</v>
+      </c>
+      <c r="N14">
+        <f>SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3183,7 +3672,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,51 +3684,51 @@
       </c>
       <c r="B1">
         <f>Distances!B1/80</f>
-        <v>0.80427340923415258</v>
+        <v>1.2233322042567409</v>
       </c>
       <c r="C1">
         <f>Distances!C1/80</f>
-        <v>1.5040439950652764</v>
+        <v>1.1303565798239306</v>
       </c>
       <c r="D1">
         <f>Distances!D1/80</f>
-        <v>1.1819743379373033</v>
+        <v>1.5540620173389685</v>
       </c>
       <c r="E1">
         <f>Distances!F1/80</f>
-        <v>1.2065646794259086</v>
+        <v>0.57057420590555563</v>
       </c>
       <c r="F1">
         <f>Distances!G1/80</f>
-        <v>1.2335211549620264</v>
+        <v>1.149185408736662</v>
       </c>
       <c r="G1">
         <f>Distances!G1/80</f>
-        <v>1.2335211549620264</v>
+        <v>1.149185408736662</v>
       </c>
       <c r="H1">
         <f>Distances!H1/80</f>
-        <v>0.95743835557395762</v>
+        <v>0.28136020313177251</v>
       </c>
       <c r="I1">
         <f>Distances!I1/80</f>
-        <v>1.4712921922073421</v>
+        <v>1.0111080033048196</v>
       </c>
       <c r="J1">
         <f>Distances!J1/80</f>
-        <v>0.43817498658430865</v>
+        <v>1.319269806047997</v>
       </c>
       <c r="K1">
         <f>Distances!K1/80</f>
-        <v>0</v>
+        <v>0.91960809658935005</v>
       </c>
       <c r="L1">
         <f>Distances!L1/80</f>
-        <v>0</v>
+        <v>0.62211686789356158</v>
       </c>
       <c r="M1">
         <f>Distances!M1/80</f>
-        <v>0</v>
+        <v>1.1513232244860261</v>
       </c>
       <c r="N1">
         <f>Distances!N1/80</f>
@@ -3261,7 +3750,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Distances!A2/80</f>
-        <v>0.80427340923415258</v>
+        <v>1.2233322042567409</v>
       </c>
       <c r="B2">
         <f>Distances!B2/80</f>
@@ -3269,51 +3758,51 @@
       </c>
       <c r="C2">
         <f>Distances!C2/80</f>
-        <v>1.6295752726756489</v>
+        <v>0.66298392372106396</v>
       </c>
       <c r="D2">
         <f>Distances!D2/80</f>
-        <v>1.9862019092280423</v>
+        <v>0.5019141903345602</v>
       </c>
       <c r="E2">
         <f>Distances!E2/80</f>
-        <v>1.5620861222334572</v>
+        <v>0.71109756676346758</v>
       </c>
       <c r="F2">
         <f>Distances!F2/80</f>
-        <v>1.8522368288191113</v>
+        <v>1.4999711905902293</v>
       </c>
       <c r="G2">
         <f>Distances!G2/80</f>
-        <v>1.6512213709025025</v>
+        <v>0.84418154241656895</v>
       </c>
       <c r="H2">
         <f>Distances!H2/80</f>
-        <v>1.7615757919130259</v>
+        <v>1.0827988148524628</v>
       </c>
       <c r="I2">
         <f>Distances!I2/80</f>
-        <v>2.2625899084009209</v>
+        <v>1.0994615348456209</v>
       </c>
       <c r="J2">
         <f>Distances!J2/80</f>
-        <v>1.2264066410885408</v>
+        <v>1.2264170772242327</v>
       </c>
       <c r="K2">
         <f>Distances!K2/80</f>
-        <v>0.80427340923415258</v>
+        <v>1.8745525348603114</v>
       </c>
       <c r="L2">
         <f>Distances!L2/80</f>
-        <v>0</v>
+        <v>1.4328301388969811</v>
       </c>
       <c r="M2">
         <f>Distances!M2/80</f>
-        <v>0</v>
+        <v>1.1268836231200314</v>
       </c>
       <c r="N2">
         <f>Distances!N2/80</f>
-        <v>0</v>
+        <v>1.2233322042567409</v>
       </c>
       <c r="O2">
         <f>Distances!O2/80</f>
@@ -3331,11 +3820,11 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Distances!A3/80</f>
-        <v>1.5040439950652764</v>
+        <v>1.1303565798239306</v>
       </c>
       <c r="B3">
         <f>Distances!B3/80</f>
-        <v>1.6295752726756489</v>
+        <v>0.66298392372106396</v>
       </c>
       <c r="C3">
         <f>Distances!C3/80</f>
@@ -3343,47 +3832,47 @@
       </c>
       <c r="D3">
         <f>Distances!D3/80</f>
-        <v>1.9956881757225404</v>
+        <v>1.1614284719523957</v>
       </c>
       <c r="E3">
         <f>Distances!E3/80</f>
-        <v>1.5778287252369905</v>
+        <v>1.3519347202498575</v>
       </c>
       <c r="F3">
         <f>Distances!F3/80</f>
-        <v>1.1602560054320792</v>
+        <v>1.6109450964803962</v>
       </c>
       <c r="G3">
         <f>Distances!G3/80</f>
-        <v>2.7265750550706445</v>
+        <v>0.18230128440113105</v>
       </c>
       <c r="H3">
         <f>Distances!H3/80</f>
-        <v>1.8846592878402659</v>
+        <v>1.1483284389918214</v>
       </c>
       <c r="I3">
         <f>Distances!I3/80</f>
-        <v>1.9756778718299188</v>
+        <v>0.48864446004455553</v>
       </c>
       <c r="J3">
         <f>Distances!J3/80</f>
-        <v>1.7371530444715351</v>
+        <v>0.56360567705380793</v>
       </c>
       <c r="K3">
         <f>Distances!K3/80</f>
-        <v>1.5040439950652764</v>
+        <v>1.4442991993722312</v>
       </c>
       <c r="L3">
         <f>Distances!L3/80</f>
-        <v>0</v>
+        <v>1.0235620858289807</v>
       </c>
       <c r="M3">
         <f>Distances!M3/80</f>
-        <v>0</v>
+        <v>1.5989834876803468</v>
       </c>
       <c r="N3">
         <f>Distances!N3/80</f>
-        <v>0</v>
+        <v>1.1303565798239306</v>
       </c>
       <c r="O3">
         <f>Distances!O3/80</f>
@@ -3401,15 +3890,15 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Distances!A4/80</f>
-        <v>1.1819743379373033</v>
+        <v>1.5540620173389685</v>
       </c>
       <c r="B4">
         <f>Distances!B4/80</f>
-        <v>1.9862019092280423</v>
+        <v>0.5019141903345602</v>
       </c>
       <c r="C4">
         <f>Distances!C4/80</f>
-        <v>1.9956881757225404</v>
+        <v>1.1614284719523957</v>
       </c>
       <c r="D4">
         <f>Distances!D4/80</f>
@@ -3417,43 +3906,43 @@
       </c>
       <c r="E4">
         <f>Distances!E4/80</f>
-        <v>0.47465945818200722</v>
+        <v>0.36957880720090003</v>
       </c>
       <c r="F4">
         <f>Distances!F4/80</f>
-        <v>0.93403711360521524</v>
+        <v>1.6750818950343209</v>
       </c>
       <c r="G4">
         <f>Distances!G4/80</f>
-        <v>1.4619325929255631</v>
+        <v>1.3434726076601915</v>
       </c>
       <c r="H4">
         <f>Distances!H4/80</f>
-        <v>0.22829453790933676</v>
+        <v>1.3449776211296003</v>
       </c>
       <c r="I4">
         <f>Distances!I4/80</f>
-        <v>0.39987285123121563</v>
+        <v>1.5995793576476089</v>
       </c>
       <c r="J4">
         <f>Distances!J4/80</f>
-        <v>0.78503038381235357</v>
+        <v>1.7248212821454345</v>
       </c>
       <c r="K4">
         <f>Distances!K4/80</f>
-        <v>1.1819743379373033</v>
+        <v>2.3141583382199848</v>
       </c>
       <c r="L4">
         <f>Distances!L4/80</f>
-        <v>0</v>
+        <v>1.8789658963783353</v>
       </c>
       <c r="M4">
         <f>Distances!M4/80</f>
-        <v>0</v>
+        <v>1.0162469655569806</v>
       </c>
       <c r="N4">
         <f>Distances!N4/80</f>
-        <v>0</v>
+        <v>1.5540620173389685</v>
       </c>
       <c r="O4">
         <f>Distances!O4/80</f>
@@ -3471,19 +3960,19 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Distances!A5/80</f>
-        <v>0.77153036356276894</v>
+        <v>1.4502845509166078</v>
       </c>
       <c r="B5">
         <f>Distances!B5/80</f>
-        <v>1.5620861222334572</v>
+        <v>0.71109756676346758</v>
       </c>
       <c r="C5">
         <f>Distances!C5/80</f>
-        <v>1.5778287252369905</v>
+        <v>1.3519347202498575</v>
       </c>
       <c r="D5">
         <f>Distances!D5/80</f>
-        <v>0.47465945818200722</v>
+        <v>0.36957880720090003</v>
       </c>
       <c r="E5">
         <f>Distances!E5/80</f>
@@ -3491,39 +3980,39 @@
       </c>
       <c r="F5">
         <f>Distances!F5/80</f>
-        <v>0.68318377353479776</v>
+        <v>1.4491493534297688</v>
       </c>
       <c r="G5">
         <f>Distances!G5/80</f>
-        <v>1.4411477461046733</v>
+        <v>1.5265325723537175</v>
       </c>
       <c r="H5">
         <f>Distances!H5/80</f>
-        <v>0.30962467570143193</v>
+        <v>1.2007722284652875</v>
       </c>
       <c r="I5">
         <f>Distances!I5/80</f>
-        <v>0.70109762418437915</v>
+        <v>1.7288952543665181</v>
       </c>
       <c r="J5">
         <f>Distances!J5/80</f>
-        <v>0.47915783131020495</v>
+        <v>1.9059360047689531</v>
       </c>
       <c r="K5">
         <f>Distances!K5/80</f>
-        <v>0.77153036356276894</v>
+        <v>2.2967250768102163</v>
       </c>
       <c r="L5">
         <f>Distances!L5/80</f>
-        <v>0</v>
+        <v>1.8823646684723851</v>
       </c>
       <c r="M5">
         <f>Distances!M5/80</f>
-        <v>0</v>
+        <v>0.678332002186945</v>
       </c>
       <c r="N5">
         <f>Distances!N5/80</f>
-        <v>0</v>
+        <v>1.4502845509166078</v>
       </c>
       <c r="O5">
         <f>Distances!O5/80</f>
@@ -3541,23 +4030,23 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Distances!A6/80</f>
-        <v>1.2065646794259086</v>
+        <v>0.57057420590555563</v>
       </c>
       <c r="B6">
         <f>Distances!B6/80</f>
-        <v>1.8522368288191113</v>
+        <v>1.4999711905902293</v>
       </c>
       <c r="C6">
         <f>Distances!C6/80</f>
-        <v>1.1602560054320792</v>
+        <v>1.6109450964803962</v>
       </c>
       <c r="D6">
         <f>Distances!D6/80</f>
-        <v>0.93403711360521524</v>
+        <v>1.6750818950343209</v>
       </c>
       <c r="E6">
         <f>Distances!E6/80</f>
-        <v>0.68318377353479776</v>
+        <v>1.4491493534297688</v>
       </c>
       <c r="F6">
         <f>Distances!F6/80</f>
@@ -3565,35 +4054,35 @@
       </c>
       <c r="G6">
         <f>Distances!G6/80</f>
-        <v>2.1183309506883252</v>
+        <v>1.6657682035451284</v>
       </c>
       <c r="H6">
         <f>Distances!H6/80</f>
-        <v>0.91320449934258097</v>
+        <v>0.46331299452316188</v>
       </c>
       <c r="I6">
         <f>Distances!I6/80</f>
-        <v>0.82305958818027647</v>
+        <v>1.5706073529245546</v>
       </c>
       <c r="J6">
         <f>Distances!J6/80</f>
-        <v>1.1043981892735026</v>
+        <v>1.876894224812381</v>
       </c>
       <c r="K6">
         <f>Distances!K6/80</f>
-        <v>1.2065646794259086</v>
+        <v>1.3625426170632298</v>
       </c>
       <c r="L6">
         <f>Distances!L6/80</f>
-        <v>0</v>
+        <v>1.1661628703781228</v>
       </c>
       <c r="M6">
         <f>Distances!M6/80</f>
-        <v>0</v>
+        <v>0.91068882125065131</v>
       </c>
       <c r="N6">
         <f>Distances!N6/80</f>
-        <v>0</v>
+        <v>0.57057420590555563</v>
       </c>
       <c r="O6">
         <f>Distances!O6/80</f>
@@ -3611,27 +4100,27 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Distances!A7/80</f>
-        <v>1.2335211549620264</v>
+        <v>1.149185408736662</v>
       </c>
       <c r="B7">
         <f>Distances!B7/80</f>
-        <v>1.6512213709025025</v>
+        <v>0.84418154241656895</v>
       </c>
       <c r="C7">
         <f>Distances!C7/80</f>
-        <v>2.7265750550706445</v>
+        <v>0.18230128440113105</v>
       </c>
       <c r="D7">
         <f>Distances!D7/80</f>
-        <v>1.4619325929255631</v>
+        <v>1.3434726076601915</v>
       </c>
       <c r="E7">
         <f>Distances!E7/80</f>
-        <v>1.4411477461046733</v>
+        <v>1.5265325723537175</v>
       </c>
       <c r="F7">
         <f>Distances!F7/80</f>
-        <v>2.1183309506883252</v>
+        <v>1.6657682035451284</v>
       </c>
       <c r="G7">
         <f>Distances!G7/80</f>
@@ -3639,31 +4128,31 @@
       </c>
       <c r="H7">
         <f>Distances!H7/80</f>
-        <v>1.3105535269520672</v>
+        <v>1.2098783166026843</v>
       </c>
       <c r="I7">
         <f>Distances!I7/80</f>
-        <v>1.8608838401207541</v>
+        <v>0.33849849427911044</v>
       </c>
       <c r="J7">
         <f>Distances!J7/80</f>
-        <v>1.0410391143206128</v>
+        <v>0.38240872487640282</v>
       </c>
       <c r="K7">
         <f>Distances!K7/80</f>
-        <v>1.2335211549620264</v>
+        <v>1.3392665624499032</v>
       </c>
       <c r="L7">
         <f>Distances!L7/80</f>
-        <v>0</v>
+        <v>0.94047278241328736</v>
       </c>
       <c r="M7">
         <f>Distances!M7/80</f>
-        <v>0</v>
+        <v>1.7375515677198199</v>
       </c>
       <c r="N7">
         <f>Distances!N7/80</f>
-        <v>0</v>
+        <v>1.149185408736662</v>
       </c>
       <c r="O7">
         <f>Distances!O7/80</f>
@@ -3681,31 +4170,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Distances!A8/80</f>
-        <v>0.95743835557395762</v>
+        <v>0.28136020313177251</v>
       </c>
       <c r="B8">
         <f>Distances!B8/80</f>
-        <v>1.7615757919130259</v>
+        <v>1.0827988148524628</v>
       </c>
       <c r="C8">
         <f>Distances!C8/80</f>
-        <v>1.8846592878402659</v>
+        <v>1.1483284389918214</v>
       </c>
       <c r="D8">
         <f>Distances!D8/80</f>
-        <v>0.22829453790933676</v>
+        <v>1.3449776211296003</v>
       </c>
       <c r="E8">
         <f>Distances!E8/80</f>
-        <v>0.30962467570143193</v>
+        <v>1.2007722284652875</v>
       </c>
       <c r="F8">
         <f>Distances!F8/80</f>
-        <v>0.91320449934258097</v>
+        <v>0.46331299452316188</v>
       </c>
       <c r="G8">
         <f>Distances!G8/80</f>
-        <v>1.3105535269520672</v>
+        <v>1.2098783166026843</v>
       </c>
       <c r="H8">
         <f>Distances!H8/80</f>
@@ -3713,27 +4202,27 @@
       </c>
       <c r="I8">
         <f>Distances!I8/80</f>
-        <v>0.59209560140849438</v>
+        <v>1.1472417040341687</v>
       </c>
       <c r="J8">
         <f>Distances!J8/80</f>
-        <v>0.55687682532388627</v>
+        <v>1.4469881767047574</v>
       </c>
       <c r="K8">
         <f>Distances!K8/80</f>
-        <v>0.95743835557395762</v>
+        <v>1.2003115059811067</v>
       </c>
       <c r="L8">
         <f>Distances!L8/80</f>
-        <v>0</v>
+        <v>0.87805625477048765</v>
       </c>
       <c r="M8">
         <f>Distances!M8/80</f>
-        <v>0</v>
+        <v>0.87029513050419016</v>
       </c>
       <c r="N8">
         <f>Distances!N8/80</f>
-        <v>0</v>
+        <v>0.28136020313177251</v>
       </c>
       <c r="O8">
         <f>Distances!O8/80</f>
@@ -3751,35 +4240,35 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Distances!A9/80</f>
-        <v>1.4712921922073421</v>
+        <v>1.0111080033048196</v>
       </c>
       <c r="B9">
         <f>Distances!B9/80</f>
-        <v>2.2625899084009209</v>
+        <v>1.0994615348456209</v>
       </c>
       <c r="C9">
         <f>Distances!C9/80</f>
-        <v>1.9756778718299188</v>
+        <v>0.48864446004455553</v>
       </c>
       <c r="D9">
         <f>Distances!D9/80</f>
-        <v>0.39987285123121563</v>
+        <v>1.5995793576476089</v>
       </c>
       <c r="E9">
         <f>Distances!E9/80</f>
-        <v>0.70109762418437915</v>
+        <v>1.7288952543665181</v>
       </c>
       <c r="F9">
         <f>Distances!F9/80</f>
-        <v>0.82305958818027647</v>
+        <v>1.5706073529245546</v>
       </c>
       <c r="G9">
         <f>Distances!G9/80</f>
-        <v>1.8608838401207541</v>
+        <v>0.33849849427911044</v>
       </c>
       <c r="H9">
         <f>Distances!H9/80</f>
-        <v>0.59209560140849438</v>
+        <v>1.1472417040341687</v>
       </c>
       <c r="I9">
         <f>Distances!I9/80</f>
@@ -3787,23 +4276,23 @@
       </c>
       <c r="J9">
         <f>Distances!J9/80</f>
-        <v>1.1245113509714435</v>
+        <v>0.30832305991823045</v>
       </c>
       <c r="K9">
         <f>Distances!K9/80</f>
-        <v>1.4712921922073421</v>
+        <v>1.0169539061686748</v>
       </c>
       <c r="L9">
         <f>Distances!L9/80</f>
-        <v>0</v>
+        <v>0.65037902195171549</v>
       </c>
       <c r="M9">
         <f>Distances!M9/80</f>
-        <v>0</v>
+        <v>1.8211383187118142</v>
       </c>
       <c r="N9">
         <f>Distances!N9/80</f>
-        <v>0</v>
+        <v>1.0111080033048196</v>
       </c>
       <c r="O9">
         <f>Distances!O9/80</f>
@@ -3821,39 +4310,39 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Distances!A10/80</f>
-        <v>0.43817498658430865</v>
+        <v>1.319269806047997</v>
       </c>
       <c r="B10">
         <f>Distances!B10/80</f>
-        <v>1.2264066410885408</v>
+        <v>1.2264170772242327</v>
       </c>
       <c r="C10">
         <f>Distances!C10/80</f>
-        <v>1.7371530444715351</v>
+        <v>0.56360567705380793</v>
       </c>
       <c r="D10">
         <f>Distances!D10/80</f>
-        <v>0.78503038381235357</v>
+        <v>1.7248212821454345</v>
       </c>
       <c r="E10">
         <f>Distances!E10/80</f>
-        <v>0.47915783131020495</v>
+        <v>1.9059360047689531</v>
       </c>
       <c r="F10">
         <f>Distances!F10/80</f>
-        <v>1.1043981892735026</v>
+        <v>1.876894224812381</v>
       </c>
       <c r="G10">
         <f>Distances!G10/80</f>
-        <v>1.0410391143206128</v>
+        <v>0.38240872487640282</v>
       </c>
       <c r="H10">
         <f>Distances!H10/80</f>
-        <v>0.55687682532388627</v>
+        <v>1.4469881767047574</v>
       </c>
       <c r="I10">
         <f>Distances!I10/80</f>
-        <v>1.1245113509714435</v>
+        <v>0.30832305991823045</v>
       </c>
       <c r="J10">
         <f>Distances!J10/80</f>
@@ -3861,19 +4350,19 @@
       </c>
       <c r="K10">
         <f>Distances!K10/80</f>
-        <v>0.43817498658430865</v>
+        <v>1.2316504368780463</v>
       </c>
       <c r="L10">
         <f>Distances!L10/80</f>
-        <v>0</v>
+        <v>0.92159962117860528</v>
       </c>
       <c r="M10">
         <f>Distances!M10/80</f>
-        <v>0</v>
+        <v>2.0750924185875377</v>
       </c>
       <c r="N10">
         <f>Distances!N10/80</f>
-        <v>0</v>
+        <v>1.319269806047997</v>
       </c>
       <c r="O10">
         <f>Distances!O10/80</f>
@@ -3891,43 +4380,43 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Distances!A11/80</f>
-        <v>0</v>
+        <v>0.91960809658935005</v>
       </c>
       <c r="B11">
         <f>Distances!B11/80</f>
-        <v>0.80427340923415258</v>
+        <v>1.8745525348603114</v>
       </c>
       <c r="C11">
         <f>Distances!C11/80</f>
-        <v>1.5040439950652764</v>
+        <v>1.4442991993722312</v>
       </c>
       <c r="D11">
         <f>Distances!D11/80</f>
-        <v>1.1819743379373033</v>
+        <v>2.3141583382199848</v>
       </c>
       <c r="E11">
         <f>Distances!E11/80</f>
-        <v>0.77153036356276894</v>
+        <v>2.2967250768102163</v>
       </c>
       <c r="F11">
         <f>Distances!F11/80</f>
-        <v>1.2065646794259086</v>
+        <v>1.3625426170632298</v>
       </c>
       <c r="G11">
         <f>Distances!G11/80</f>
-        <v>1.2335211549620264</v>
+        <v>1.3392665624499032</v>
       </c>
       <c r="H11">
         <f>Distances!H11/80</f>
-        <v>0.95743835557395762</v>
+        <v>1.2003115059811067</v>
       </c>
       <c r="I11">
         <f>Distances!I11/80</f>
-        <v>1.4712921922073421</v>
+        <v>1.0169539061686748</v>
       </c>
       <c r="J11">
         <f>Distances!J11/80</f>
-        <v>0.43817498658430865</v>
+        <v>1.2316504368780463</v>
       </c>
       <c r="K11">
         <f>Distances!K11/80</f>
@@ -3935,15 +4424,15 @@
       </c>
       <c r="L11">
         <f>Distances!L11/80</f>
-        <v>0</v>
+        <v>0.44231942808833757</v>
       </c>
       <c r="M11">
         <f>Distances!M11/80</f>
-        <v>0</v>
+        <v>2.0706027805381755</v>
       </c>
       <c r="N11">
         <f>Distances!N11/80</f>
-        <v>0</v>
+        <v>0.91960809658935005</v>
       </c>
       <c r="O11">
         <f>Distances!O11/80</f>
@@ -3961,47 +4450,47 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Distances!A12/80</f>
-        <v>0</v>
+        <v>0.62211686789356158</v>
       </c>
       <c r="B12">
         <f>Distances!B12/80</f>
-        <v>0</v>
+        <v>1.4328301388969811</v>
       </c>
       <c r="C12">
         <f>Distances!C12/80</f>
-        <v>0</v>
+        <v>1.0235620858289807</v>
       </c>
       <c r="D12">
         <f>Distances!D12/80</f>
-        <v>0</v>
+        <v>1.8789658963783353</v>
       </c>
       <c r="E12">
         <f>Distances!E12/80</f>
-        <v>0</v>
+        <v>1.8823646684723851</v>
       </c>
       <c r="F12">
         <f>Distances!F12/80</f>
-        <v>0</v>
+        <v>1.1661628703781228</v>
       </c>
       <c r="G12">
         <f>Distances!G12/80</f>
-        <v>0</v>
+        <v>0.94047278241328736</v>
       </c>
       <c r="H12">
         <f>Distances!H12/80</f>
-        <v>0</v>
+        <v>0.87805625477048765</v>
       </c>
       <c r="I12">
         <f>Distances!I12/80</f>
-        <v>0</v>
+        <v>0.65037902195171549</v>
       </c>
       <c r="J12">
         <f>Distances!J12/80</f>
-        <v>0</v>
+        <v>0.92159962117860528</v>
       </c>
       <c r="K12">
         <f>Distances!K12/80</f>
-        <v>0</v>
+        <v>0.44231942808833757</v>
       </c>
       <c r="L12">
         <f>Distances!L12/80</f>
@@ -4009,11 +4498,11 @@
       </c>
       <c r="M12">
         <f>Distances!M12/80</f>
-        <v>0</v>
+        <v>1.7287042341570942</v>
       </c>
       <c r="N12">
         <f>Distances!N12/80</f>
-        <v>0</v>
+        <v>0.62211686789356158</v>
       </c>
       <c r="O12">
         <f>Distances!O12/80</f>
@@ -4031,51 +4520,51 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Distances!A13/80</f>
-        <v>0</v>
+        <v>1.1513232244860261</v>
       </c>
       <c r="B13">
         <f>Distances!B13/80</f>
-        <v>0</v>
+        <v>1.1268836231200314</v>
       </c>
       <c r="C13">
         <f>Distances!C13/80</f>
-        <v>0</v>
+        <v>1.5989834876803468</v>
       </c>
       <c r="D13">
         <f>Distances!D13/80</f>
-        <v>0</v>
+        <v>1.0162469655569806</v>
       </c>
       <c r="E13">
         <f>Distances!E13/80</f>
-        <v>0</v>
+        <v>0.678332002186945</v>
       </c>
       <c r="F13">
         <f>Distances!F13/80</f>
-        <v>0</v>
+        <v>0.91068882125065131</v>
       </c>
       <c r="G13">
         <f>Distances!G13/80</f>
-        <v>0</v>
+        <v>1.7375515677198199</v>
       </c>
       <c r="H13">
         <f>Distances!H13/80</f>
-        <v>0</v>
+        <v>0.87029513050419016</v>
       </c>
       <c r="I13">
         <f>Distances!I13/80</f>
-        <v>0</v>
+        <v>1.8211383187118142</v>
       </c>
       <c r="J13">
         <f>Distances!J13/80</f>
-        <v>0</v>
+        <v>2.0750924185875377</v>
       </c>
       <c r="K13">
         <f>Distances!K13/80</f>
-        <v>0</v>
+        <v>2.0706027805381755</v>
       </c>
       <c r="L13">
         <f>Distances!L13/80</f>
-        <v>0</v>
+        <v>1.7287042341570942</v>
       </c>
       <c r="M13">
         <f>Distances!M13/80</f>
@@ -4083,7 +4572,7 @@
       </c>
       <c r="N13">
         <f>Distances!N13/80</f>
-        <v>0</v>
+        <v>1.1513232244860261</v>
       </c>
       <c r="O13">
         <f>Distances!O13/80</f>
@@ -4105,51 +4594,51 @@
       </c>
       <c r="B14">
         <f>Distances!B14/80</f>
-        <v>0</v>
+        <v>1.2233322042567409</v>
       </c>
       <c r="C14">
         <f>Distances!C14/80</f>
-        <v>0</v>
+        <v>1.1303565798239306</v>
       </c>
       <c r="D14">
         <f>Distances!D14/80</f>
-        <v>0</v>
+        <v>1.5540620173389685</v>
       </c>
       <c r="E14">
         <f>Distances!E14/80</f>
-        <v>0</v>
+        <v>1.4502845509166078</v>
       </c>
       <c r="F14">
         <f>Distances!F14/80</f>
-        <v>0</v>
+        <v>0.57057420590555563</v>
       </c>
       <c r="G14">
         <f>Distances!G14/80</f>
-        <v>0</v>
+        <v>1.149185408736662</v>
       </c>
       <c r="H14">
         <f>Distances!H14/80</f>
-        <v>0</v>
+        <v>0.28136020313177251</v>
       </c>
       <c r="I14">
         <f>Distances!I14/80</f>
-        <v>0</v>
+        <v>1.0111080033048196</v>
       </c>
       <c r="J14">
         <f>Distances!J14/80</f>
-        <v>0</v>
+        <v>1.319269806047997</v>
       </c>
       <c r="K14">
         <f>Distances!K14/80</f>
-        <v>0</v>
+        <v>0.91960809658935005</v>
       </c>
       <c r="L14">
         <f>Distances!L14/80</f>
-        <v>0</v>
+        <v>0.62211686789356158</v>
       </c>
       <c r="M14">
         <f>Distances!M14/80</f>
-        <v>0</v>
+        <v>1.1513232244860261</v>
       </c>
       <c r="N14">
         <f>Distances!N14/80</f>

--- a/ExactModelData.xlsx
+++ b/ExactModelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB2B49-056E-472F-AE7C-6DB695FE7ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F031977-6243-4165-9D1C-023CAB8D61CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -22,15 +22,15 @@
     <definedName name="CoordinatesX">'1D'!$G$3:$G$14</definedName>
     <definedName name="CoordinatesY">'1D'!$H$3:$H$14</definedName>
     <definedName name="Demand">'1D'!$I$2:$I$15</definedName>
-    <definedName name="DistanceCost">'1D'!$C$2:$C$4</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$6</definedName>
     <definedName name="Distances">Distances!$A$1:$N$14</definedName>
     <definedName name="Locations">'1D'!$F$2:$F$15</definedName>
-    <definedName name="PalletCapacity">'1D'!$E$2:$E$4</definedName>
+    <definedName name="PalletCapacity">'1D'!$E$2:$E$6</definedName>
     <definedName name="Stores">'1D'!$F$3:$F$14</definedName>
-    <definedName name="TimeCost">'1D'!$D$2:$D$4</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$6</definedName>
     <definedName name="Times">Times!$A$1:$N$14</definedName>
-    <definedName name="Vehicles">'1D'!$A$2:$A$4</definedName>
-    <definedName name="VehicleTypes">'1D'!$B$2:$B$4</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$6</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$6</definedName>
     <definedName name="WindowEnd">'1D'!$K$2:$K$15</definedName>
     <definedName name="WindowStart">'1D'!$J$2:$J$15</definedName>
   </definedNames>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Pallets</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>SP3</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>SP5</t>
   </si>
 </sst>
 </file>
@@ -395,579 +401,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DF7DCB97-57DF-438B-B032-5D26299FDCEB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9326D946-649E-4681-B866-4EF7A112FF53}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C9AB0C5E-57B5-47FF-9E5F-5A27D46ACC32}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{73C0068D-E72C-46B0-A610-2C722291977D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{89670CBC-2F78-4C19-9C0C-C685A3C60F52}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{021FC67B-069F-48B3-A6B7-69779B89B92B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{27C33BBD-5D13-47E9-B553-E3A712BFBE96}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A919387C-39CE-43C8-8888-E1DA68C5C95C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{73014E44-0FEB-44D3-A0DB-9DFD1DF15FF3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BE1B25A7-95C6-4B8D-98E8-8563B407CE13}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DD25A86D-C5E4-4CC3-AD2A-4457F3C14670}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5E8D9FA1-C9B3-48B3-821F-974F7759FD25}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BAC16081-66DE-4993-A29F-12833E95E191}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{84B14FD3-70A3-4CED-B4AC-D9BB40FB471D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-0FCB-4705-A43A-A569121E56C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'1D'!$G$2:$G$17</c:f>
@@ -978,40 +411,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47.741347290999997</c:v>
+                  <c:v>-79.502308735567468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0747857439999997</c:v>
+                  <c:v>2.4231222477572203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-87.811619023999995</c:v>
+                  <c:v>64.139086013651479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-98.930232743000005</c:v>
+                  <c:v>-37.796881029341392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-31.105175365000001</c:v>
+                  <c:v>22.159413619847754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.651119920999999</c:v>
+                  <c:v>-73.160972382987566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22.356872004</c:v>
+                  <c:v>4.2189785697345883E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.000982764</c:v>
+                  <c:v>6.9555977058830365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.087446481999997</c:v>
+                  <c:v>-13.903984481021737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.515074178999996</c:v>
+                  <c:v>-20.094942123962085</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.878366976000002</c:v>
+                  <c:v>-16.556547685907901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-91.853676929000002</c:v>
+                  <c:v>41.380472012750374</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1029,40 +462,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-85.432022821999993</c:v>
+                  <c:v>-96.699710993645695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-90.286017377999997</c:v>
+                  <c:v>-18.506873440552624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-88.010315238000004</c:v>
+                  <c:v>60.630376833032983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-60.614279115000002</c:v>
+                  <c:v>-77.615416326944924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.406879261</c:v>
+                  <c:v>33.972595053650252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-89.810060401000001</c:v>
+                  <c:v>-88.519777652189859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.6109544609999999</c:v>
+                  <c:v>-41.322754764027408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-70.865333324999995</c:v>
+                  <c:v>49.233065500018569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-92.899266737000005</c:v>
+                  <c:v>-20.000374178047124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8070975859999998</c:v>
+                  <c:v>-38.835042097944267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.291541837</c:v>
+                  <c:v>-38.105975564245796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.8111015970000004</c:v>
+                  <c:v>-49.339984585412722</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1072,53 +505,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'1D'!$N$2:$N$15</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="14"/>
-                  <c:pt idx="0">
-                    <c:v>Depot</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1 6 20</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2 5 0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3 6 0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4 6 15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5 3 0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>6 6 0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7 3 0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8 3 0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9 2 0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>10 5 0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>11 5 0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>12 6 0</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AE0B-48B0-AD98-AFCF432CC92C}"/>
             </c:ext>
@@ -1874,15 +1260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104773</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2178,8 +1564,8 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,20 +1650,21 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
+      <c r="B2" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.73731669099999997</v>
+        <v>1.299703148007052</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>8.9303887399999997</v>
+        <v>10.92686973797551</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -2300,9 +1687,6 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2312,11 +1696,13 @@
       <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="S2">
-        <v>0.73731669099999997</v>
-      </c>
-      <c r="T2">
-        <v>8.9303887399999997</v>
+      <c r="S2" cm="1">
+        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>0.9333809528150232</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>10.622323347837407</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -2326,46 +1712,48 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B3" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.73731669099999997</v>
+        <v>1.299703148007052</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>8.9303887399999997</v>
+        <v>10.92686973797551</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>-47.741347290999997</v>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3:H14" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
+        <v>-79.502308735567468</v>
       </c>
       <c r="H3">
-        <v>-85.432022821999993</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
+        <f ca="1"/>
+        <v>-96.699710993645695</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" aca="1" ref="I3:I14" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>IF(J3=0,24,J3+1)</f>
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>3.7740360000000001E-2</v>
-      </c>
-      <c r="N3" t="str">
-        <f>_xlfn.CONCAT(F3," ",I3, " ", J3)</f>
-        <v>1 6 20</v>
+        <f ca="1">IF(J3=0,24,J3+1)</f>
+        <v>24</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3:L14" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
+        <v>4.9729819136546449E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -2377,10 +1765,12 @@
         <v>30</v>
       </c>
       <c r="S3">
-        <v>1.4933844190000001</v>
+        <f ca="1"/>
+        <v>1.299703148007052</v>
       </c>
       <c r="T3">
-        <v>13.662892009</v>
+        <f ca="1"/>
+        <v>10.92686973797551</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -2390,16 +1780,17 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
+      <c r="B4" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.176718865</v>
+        <v>0.90169714640509668</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>9.6166558270000007</v>
+        <v>9.1635709089085431</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
@@ -2409,27 +1800,28 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>5.0747857439999997</v>
+        <f ca="1"/>
+        <v>2.4231222477572203</v>
       </c>
       <c r="H4">
-        <v>-90.286017377999997</v>
+        <f ca="1"/>
+        <v>-18.506873440552624</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <f ca="1"/>
+        <v>10</v>
       </c>
       <c r="J4">
+        <f t="shared" ref="J4:J13" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K6" si="0">IF(J4=0,24,J4+1)</f>
+        <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
         <v>24</v>
       </c>
       <c r="L4">
-        <v>3.8378348E-2</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N14" si="1">_xlfn.CONCAT(F4," ",I4, " ", J4)</f>
-        <v>2 5 0</v>
+        <f ca="1"/>
+        <v>0.16495679337105287</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -2441,77 +1833,119 @@
         <v>31</v>
       </c>
       <c r="S4">
-        <v>1.176718865</v>
+        <f ca="1"/>
+        <v>0.90169714640509668</v>
       </c>
       <c r="T4">
-        <v>9.6166558270000007</v>
+        <f ca="1"/>
+        <v>9.1635709089085431</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>0.90169714640509668</v>
+      </c>
+      <c r="D5" s="8">
+        <f ca="1"/>
+        <v>9.1635709089085431</v>
+      </c>
+      <c r="E5" s="2">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>-87.811619023999995</v>
+        <f ca="1"/>
+        <v>64.139086013651479</v>
       </c>
       <c r="H5">
-        <v>-88.010315238000004</v>
+        <f ca="1"/>
+        <v>60.630376833032983</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <f ca="1"/>
+        <v>11</v>
       </c>
       <c r="J5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="L5">
-        <v>0.16462961000000001</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="1"/>
-        <v>3 6 0</v>
+        <f ca="1"/>
+        <v>0.16168147763702503</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="5">
         <f ca="1">COUNT(E:E)/P2/2</f>
-        <v>0.125</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.299703148007052</v>
+      </c>
+      <c r="D6" s="8">
+        <f ca="1"/>
+        <v>10.92686973797551</v>
+      </c>
+      <c r="E6" s="2">
+        <f ca="1"/>
+        <v>22</v>
+      </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>-98.930232743000005</v>
+        <f ca="1"/>
+        <v>-37.796881029341392</v>
       </c>
       <c r="H6">
-        <v>-60.614279115000002</v>
+        <f ca="1"/>
+        <v>-77.615416326944924</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <f ca="1"/>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
       </c>
       <c r="L6">
-        <v>9.0529283000000002E-2</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="1"/>
-        <v>4 6 15</v>
+        <f ca="1"/>
+        <v>2.1692970820546109E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -2527,27 +1961,28 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>-31.105175365000001</v>
+        <f ca="1"/>
+        <v>22.159413619847754</v>
       </c>
       <c r="H7">
-        <v>33.406879261</v>
+        <f ca="1"/>
+        <v>33.972595053650252</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <f ca="1"/>
+        <v>1</v>
       </c>
       <c r="J7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7" si="2">IF(J7=0,24,J7+1)</f>
+        <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
         <v>24</v>
       </c>
       <c r="L7">
-        <v>0.12233739</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>5 3 0</v>
+        <f ca="1"/>
+        <v>0.12590352777773281</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -2562,27 +1997,28 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>19.651119920999999</v>
+        <f ca="1"/>
+        <v>-73.160972382987566</v>
       </c>
       <c r="H8">
-        <v>-89.810060401000001</v>
+        <f ca="1"/>
+        <v>-88.519777652189859</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <f ca="1"/>
+        <v>8</v>
       </c>
       <c r="J8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K13" si="3">IF(J8=0,24,J8+1)</f>
+        <f t="shared" ref="K8:K13" ca="1" si="3">IF(J8=0,24,J8+1)</f>
         <v>24</v>
       </c>
       <c r="L8">
-        <v>9.8518772000000004E-2</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>6 6 0</v>
+        <f ca="1"/>
+        <v>0.15711788773235844</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2596,27 +2032,28 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>-22.356872004</v>
+        <f ca="1"/>
+        <v>4.2189785697345883E-2</v>
       </c>
       <c r="H9">
-        <v>-2.6109544609999999</v>
+        <f ca="1"/>
+        <v>-41.322754764027408</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <f ca="1"/>
+        <v>8</v>
       </c>
       <c r="J9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L9">
-        <v>0.106235838</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>7 3 0</v>
+        <f ca="1"/>
+        <v>8.0962034377880077E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2630,27 +2067,28 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>39.000982764</v>
+        <f ca="1"/>
+        <v>6.9555977058830365</v>
       </c>
       <c r="H10">
-        <v>-70.865333324999995</v>
+        <f ca="1"/>
+        <v>49.233065500018569</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <f ca="1"/>
+        <v>9</v>
       </c>
       <c r="J10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L10">
-        <v>9.8985081000000003E-2</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>8 3 0</v>
+        <f ca="1"/>
+        <v>0.15950308135385427</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2664,27 +2102,28 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>50.087446481999997</v>
+        <f ca="1"/>
+        <v>-13.903984481021737</v>
       </c>
       <c r="H11">
-        <v>-92.899266737000005</v>
+        <f ca="1"/>
+        <v>-20.000374178047124</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <f ca="1"/>
+        <v>8</v>
       </c>
       <c r="J11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L11">
-        <v>0.14073476400000001</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>9 2 0</v>
+        <f ca="1"/>
+        <v>3.2962771256086099E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2698,27 +2137,28 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>73.515074178999996</v>
+        <f ca="1"/>
+        <v>-20.094942123962085</v>
       </c>
       <c r="H12">
-        <v>2.8070975859999998</v>
+        <f ca="1"/>
+        <v>-38.835042097944267</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <f ca="1"/>
+        <v>4</v>
       </c>
       <c r="J12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L12">
-        <v>1.7043808000000001E-2</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>10 5 0</v>
+        <f ca="1"/>
+        <v>0.10188727918580023</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2732,27 +2172,28 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>45.878366976000002</v>
+        <f ca="1"/>
+        <v>-16.556547685907901</v>
       </c>
       <c r="H13">
-        <v>-19.291541837</v>
+        <f ca="1"/>
+        <v>-38.105975564245796</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <f ca="1"/>
+        <v>11</v>
       </c>
       <c r="J13">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="L13">
-        <v>6.8492510000000006E-2</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>11 5 0</v>
+        <f ca="1"/>
+        <v>1.9392144449094983E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2760,34 +2201,35 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>-91.853676929000002</v>
+        <f ca="1"/>
+        <v>41.380472012750374</v>
       </c>
       <c r="H14">
-        <v>-6.8111015970000004</v>
+        <f ca="1"/>
+        <v>-49.339984585412722</v>
       </c>
       <c r="I14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
         <v>6</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <f>IF(J14=0,24,J14+1)</f>
-        <v>24</v>
+        <f ca="1">IF(J14=0,24,J14+1)</f>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>2.9831558000000001E-2</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>12 6 0</v>
+        <f ca="1"/>
+        <v>1.9773239806908649E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2816,14 +2258,14 @@
         <v>26</v>
       </c>
       <c r="P15">
-        <f>SUM(I:I)</f>
-        <v>56</v>
+        <f ca="1">SUM(I:I)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.90322580645161288</v>
+        <v>0.75396825396825395</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2284,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="A1:N14"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,52 +2295,52 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>97.866576340539268</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
+        <v>125.18566691334951</v>
       </c>
       <c r="C1">
-        <f>SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>90.428526385914438</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
+        <v>18.664830188678604</v>
       </c>
       <c r="D1">
-        <f>SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>124.32496138711748</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
+        <v>88.260211588133899</v>
       </c>
       <c r="E1">
-        <f>SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>116.02276407332863</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
+        <v>86.329352291970636</v>
       </c>
       <c r="F1">
-        <f>SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>45.645936472444454</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
+        <v>40.560779413798201</v>
       </c>
       <c r="G1">
-        <f>SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>91.934832698932951</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
+        <v>114.84023212976105</v>
       </c>
       <c r="H1">
-        <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>22.508816250541802</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
+        <v>41.322776301526098</v>
       </c>
       <c r="I1">
-        <f>SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>80.888640264385572</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
+        <v>49.721977816406337</v>
       </c>
       <c r="J1">
-        <f>SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>105.54158448383977</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
+        <v>24.358484183347443</v>
       </c>
       <c r="K1">
-        <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>73.568647727148004</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
+        <v>43.726047085398527</v>
       </c>
       <c r="L1">
-        <f>SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>49.769349431484926</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
+        <v>41.547378316551331</v>
       </c>
       <c r="M1">
-        <f>SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>92.105857958882083</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
+        <v>64.395477658658464</v>
       </c>
       <c r="N1">
         <f>SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
@@ -2907,698 +2349,698 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>97.866576340539268</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
+        <v>125.18566691334951</v>
       </c>
       <c r="B2">
-        <f>SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>53.038713897685113</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
+        <v>113.25147277809634</v>
       </c>
       <c r="D2">
-        <f>SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>40.153135226764817</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
+        <v>213.03897958132302</v>
       </c>
       <c r="E2">
-        <f>SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>56.88780534107741</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
+        <v>45.864507007976364</v>
       </c>
       <c r="F2">
-        <f>SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>119.99769524721835</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
+        <v>165.56073616648274</v>
       </c>
       <c r="G2">
-        <f>SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>67.534523393325514</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
+        <v>10.350065517049263</v>
       </c>
       <c r="H2">
-        <f>SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>86.623905188197028</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
+        <v>96.922311808254761</v>
       </c>
       <c r="I2">
-        <f>SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>87.956922787649674</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
+        <v>169.62118040323969</v>
       </c>
       <c r="J2">
-        <f>SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>98.113366177938616</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
+        <v>100.92536060355275</v>
       </c>
       <c r="K2">
-        <f>SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>149.96420278882491</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
+        <v>82.931026245518282</v>
       </c>
       <c r="L2">
-        <f>SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>114.62641111175849</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
+        <v>85.996480542469598</v>
       </c>
       <c r="M2">
-        <f>SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>90.150689849602514</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
+        <v>129.82908136048934</v>
       </c>
       <c r="N2">
-        <f>SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>97.866576340539268</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
+        <v>125.18566691334951</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>90.428526385914438</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
+        <v>18.664830188678604</v>
       </c>
       <c r="B3">
-        <f>SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>53.038713897685113</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
+        <v>113.25147277809634</v>
       </c>
       <c r="C3">
-        <f>SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>92.914277756191666</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
+        <v>100.35718491676268</v>
       </c>
       <c r="E3">
-        <f>SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>108.15477761998861</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
+        <v>71.494534796460499</v>
       </c>
       <c r="F3">
-        <f>SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>128.8756077184317</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
+        <v>56.067957074946897</v>
       </c>
       <c r="G3">
-        <f>SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>14.584102752090484</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
+        <v>103.02796764615555</v>
       </c>
       <c r="H3">
-        <f>SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>91.866275119345715</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
+        <v>22.93977506332126</v>
       </c>
       <c r="I3">
-        <f>SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>39.091556803564444</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
+        <v>67.891403442931022</v>
       </c>
       <c r="J3">
-        <f>SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>45.088454164304636</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
+        <v>16.395272446221675</v>
       </c>
       <c r="K3">
-        <f>SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>115.54393594977849</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
+        <v>30.336408225303373</v>
       </c>
       <c r="L3">
-        <f>SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>81.88496686631845</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
+        <v>27.282827471613459</v>
       </c>
       <c r="M3">
-        <f>SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>127.91867901442774</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
+        <v>49.682550695222041</v>
       </c>
       <c r="N3">
-        <f>SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>90.428526385914438</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
+        <v>18.664830188678604</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>124.32496138711748</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
+        <v>88.260211588133899</v>
       </c>
       <c r="B4">
-        <f>SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>40.153135226764817</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
+        <v>213.03897958132302</v>
       </c>
       <c r="C4">
-        <f>SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>92.914277756191666</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
+        <v>100.35718491676268</v>
       </c>
       <c r="D4">
-        <f>SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>29.566304576072003</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
+        <v>171.76390978148325</v>
       </c>
       <c r="F4">
-        <f>SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>134.00655160274567</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
+        <v>49.728565469841136</v>
       </c>
       <c r="G4">
-        <f>SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>107.47780861281532</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
+        <v>202.72413427780702</v>
       </c>
       <c r="H4">
-        <f>SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>107.59820969036802</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
+        <v>120.42779225953049</v>
       </c>
       <c r="I4">
-        <f>SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>127.96634861180871</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
+        <v>58.308233043596417</v>
       </c>
       <c r="J4">
-        <f>SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>137.98570257163476</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
+        <v>112.21425426766125</v>
       </c>
       <c r="K4">
-        <f>SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>185.13266705759878</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
+        <v>130.34086488666202</v>
       </c>
       <c r="L4">
-        <f>SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>150.31727171026682</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
+        <v>127.51726386216528</v>
       </c>
       <c r="M4">
-        <f>SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>81.29975724455845</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
+        <v>112.30064515284666</v>
       </c>
       <c r="N4">
-        <f>SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>124.32496138711748</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
+        <v>88.260211588133899</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>116.02276407332863</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
+        <v>86.329352291970636</v>
       </c>
       <c r="B5">
-        <f>SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>56.88780534107741</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
+        <v>45.864507007976364</v>
       </c>
       <c r="C5">
-        <f>SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>108.15477761998861</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
+        <v>71.494534796460499</v>
       </c>
       <c r="D5">
-        <f>SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>29.566304576072003</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
+        <v>171.76390978148325</v>
       </c>
       <c r="E5">
-        <f>SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>115.9319482743815</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
+        <v>126.67533916250719</v>
       </c>
       <c r="G5">
-        <f>SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>122.12260578829741</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
+        <v>37.007081122138359</v>
       </c>
       <c r="H5">
-        <f>SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>96.061778277222999</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
+        <v>52.430454541859419</v>
       </c>
       <c r="I5">
-        <f>SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>138.31162034932146</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
+        <v>134.51141845491111</v>
       </c>
       <c r="J5">
-        <f>SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>152.47488038151624</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
+        <v>62.372779217283366</v>
       </c>
       <c r="K5">
-        <f>SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>183.73800614481729</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
+        <v>42.629521066405616</v>
       </c>
       <c r="L5">
-        <f>SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>150.58917347779081</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
+        <v>44.856969022899932</v>
       </c>
       <c r="M5">
-        <f>SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>54.2665601749556</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
+        <v>84.074688669789822</v>
       </c>
       <c r="N5">
-        <f>SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>116.02276407332863</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
+        <v>86.329352291970636</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>45.645936472444454</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
+        <v>40.560779413798201</v>
       </c>
       <c r="B6">
-        <f>SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>119.99769524721835</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
+        <v>165.56073616648274</v>
       </c>
       <c r="C6">
-        <f>SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>128.8756077184317</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
+        <v>56.067957074946897</v>
       </c>
       <c r="D6">
-        <f>SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>134.00655160274567</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
+        <v>49.728565469841136</v>
       </c>
       <c r="E6">
-        <f>SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>115.9319482743815</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
+        <v>126.67533916250719</v>
       </c>
       <c r="F6">
-        <f>SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>133.26145628361027</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
+        <v>155.21068699943302</v>
       </c>
       <c r="H6">
-        <f>SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>37.065039561852949</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
+        <v>78.476501542158232</v>
       </c>
       <c r="I6">
-        <f>SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>125.64858823396436</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
+        <v>21.541540719971902</v>
       </c>
       <c r="J6">
-        <f>SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>150.15153798499048</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
+        <v>64.912634288461504</v>
       </c>
       <c r="K6">
-        <f>SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>109.00340936505837</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
+        <v>84.180654588347565</v>
       </c>
       <c r="L6">
-        <f>SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>93.293029630249819</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
+        <v>81.818372033106328</v>
       </c>
       <c r="M6">
-        <f>SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>72.855105700052107</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
+        <v>85.501081933847956</v>
       </c>
       <c r="N6">
-        <f>SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>45.645936472444454</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
+        <v>40.560779413798201</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>91.934832698932951</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
+        <v>114.84023212976105</v>
       </c>
       <c r="B7">
-        <f>SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>67.534523393325514</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
+        <v>10.350065517049263</v>
       </c>
       <c r="C7">
-        <f>SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>14.584102752090484</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
+        <v>103.02796764615555</v>
       </c>
       <c r="D7">
-        <f>SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>107.47780861281532</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
+        <v>202.72413427780702</v>
       </c>
       <c r="E7">
-        <f>SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>122.12260578829741</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
+        <v>37.007081122138359</v>
       </c>
       <c r="F7">
-        <f>SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>133.26145628361027</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
+        <v>155.21068699943302</v>
       </c>
       <c r="G7">
-        <f>SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>96.790265328214744</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
+        <v>87.099149944190117</v>
       </c>
       <c r="I7">
-        <f>SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>27.079879542328836</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
+        <v>159.35655179289569</v>
       </c>
       <c r="J7">
-        <f>SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>30.592697990112224</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
+        <v>90.588626591123955</v>
       </c>
       <c r="K7">
-        <f>SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>107.14132499599225</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
+        <v>72.695092781749196</v>
       </c>
       <c r="L7">
-        <f>SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>75.237822593062987</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
+        <v>75.799817521216738</v>
       </c>
       <c r="M7">
-        <f>SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>139.00412541758558</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
+        <v>121.05700586507749</v>
       </c>
       <c r="N7">
-        <f>SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>91.934832698932951</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
+        <v>114.84023212976105</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>22.508816250541802</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
+        <v>41.322776301526098</v>
       </c>
       <c r="B8">
-        <f>SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>86.623905188197028</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
+        <v>96.922311808254761</v>
       </c>
       <c r="C8">
-        <f>SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>91.866275119345715</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
+        <v>22.93977506332126</v>
       </c>
       <c r="D8">
-        <f>SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>107.59820969036802</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
+        <v>120.42779225953049</v>
       </c>
       <c r="E8">
-        <f>SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>96.061778277222999</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
+        <v>52.430454541859419</v>
       </c>
       <c r="F8">
-        <f>SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>37.065039561852949</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
+        <v>78.476501542158232</v>
       </c>
       <c r="G8">
-        <f>SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>96.790265328214744</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
+        <v>87.099149944190117</v>
       </c>
       <c r="H8">
-        <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>91.779336322733499</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
+        <v>90.819336007070021</v>
       </c>
       <c r="J8">
-        <f>SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>115.7590541363806</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
+        <v>25.478219924694237</v>
       </c>
       <c r="K8">
-        <f>SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>96.024920478488539</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
+        <v>20.290214288075287</v>
       </c>
       <c r="L8">
-        <f>SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>70.244500381639014</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
+        <v>16.907564995333296</v>
       </c>
       <c r="M8">
-        <f>SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>69.623610440335213</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
+        <v>42.1085448750298</v>
       </c>
       <c r="N8">
-        <f>SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>22.508816250541802</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
+        <v>41.322776301526098</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>80.888640264385572</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
+        <v>49.721977816406337</v>
       </c>
       <c r="B9">
-        <f>SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>87.956922787649674</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
+        <v>169.62118040323969</v>
       </c>
       <c r="C9">
-        <f>SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>39.091556803564444</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
+        <v>67.891403442931022</v>
       </c>
       <c r="D9">
-        <f>SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>127.96634861180871</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
+        <v>58.308233043596417</v>
       </c>
       <c r="E9">
-        <f>SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>138.31162034932146</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
+        <v>134.51141845491111</v>
       </c>
       <c r="F9">
-        <f>SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>125.64858823396436</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
+        <v>21.541540719971902</v>
       </c>
       <c r="G9">
-        <f>SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>27.079879542328836</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
+        <v>159.35655179289569</v>
       </c>
       <c r="H9">
-        <f>SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>91.779336322733499</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
+        <v>90.819336007070021</v>
       </c>
       <c r="I9">
-        <f>SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>24.665844793458437</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
+        <v>72.30761604885474</v>
       </c>
       <c r="K9">
-        <f>SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>81.356312493493974</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
+        <v>92.128840657919909</v>
       </c>
       <c r="L9">
-        <f>SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>52.030321756137241</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
+        <v>90.448488516668831</v>
       </c>
       <c r="M9">
-        <f>SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>145.69106549694513</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
+        <v>104.41129332686461</v>
       </c>
       <c r="N9">
-        <f>SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>80.888640264385572</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
+        <v>49.721977816406337</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>105.54158448383977</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
+        <v>24.358484183347443</v>
       </c>
       <c r="B10">
-        <f>SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>98.113366177938616</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
+        <v>100.92536060355275</v>
       </c>
       <c r="C10">
-        <f>SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>45.088454164304636</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
+        <v>16.395272446221675</v>
       </c>
       <c r="D10">
-        <f>SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>137.98570257163476</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
+        <v>112.21425426766125</v>
       </c>
       <c r="E10">
-        <f>SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>152.47488038151624</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
+        <v>62.372779217283366</v>
       </c>
       <c r="F10">
-        <f>SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>150.15153798499048</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
+        <v>64.912634288461504</v>
       </c>
       <c r="G10">
-        <f>SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>30.592697990112224</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
+        <v>90.588626591123955</v>
       </c>
       <c r="H10">
-        <f>SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>115.7590541363806</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
+        <v>25.478219924694237</v>
       </c>
       <c r="I10">
-        <f>SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>24.665844793458437</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
+        <v>72.30761604885474</v>
       </c>
       <c r="J10">
-        <f>SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>98.532034950243713</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
+        <v>19.8260604303902</v>
       </c>
       <c r="L10">
-        <f>SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>73.727969694288419</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
+        <v>18.298876826511378</v>
       </c>
       <c r="M10">
-        <f>SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>166.00739348700301</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
+        <v>62.587409825521434</v>
       </c>
       <c r="N10">
-        <f>SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>105.54158448383977</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
+        <v>24.358484183347443</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>73.568647727148004</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
+        <v>43.726047085398527</v>
       </c>
       <c r="B11">
-        <f>SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>149.96420278882491</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
+        <v>82.931026245518282</v>
       </c>
       <c r="C11">
-        <f>SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>115.54393594977849</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
+        <v>30.336408225303373</v>
       </c>
       <c r="D11">
-        <f>SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>185.13266705759878</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
+        <v>130.34086488666202</v>
       </c>
       <c r="E11">
-        <f>SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>183.73800614481729</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
+        <v>42.629521066405616</v>
       </c>
       <c r="F11">
-        <f>SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>109.00340936505837</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
+        <v>84.180654588347565</v>
       </c>
       <c r="G11">
-        <f>SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>107.14132499599225</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
+        <v>72.695092781749196</v>
       </c>
       <c r="H11">
-        <f>SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>96.024920478488539</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
+        <v>20.290214288075287</v>
       </c>
       <c r="I11">
-        <f>SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>81.356312493493974</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
+        <v>92.128840657919909</v>
       </c>
       <c r="J11">
-        <f>SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>98.532034950243713</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
+        <v>19.8260604303902</v>
       </c>
       <c r="K11">
-        <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>35.385554247067006</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
+        <v>3.612723793734014</v>
       </c>
       <c r="M11">
-        <f>SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>165.64822244305404</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
+        <v>62.366500302208124</v>
       </c>
       <c r="N11">
-        <f>SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>73.568647727148004</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
+        <v>43.726047085398527</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>49.769349431484926</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
+        <v>41.547378316551331</v>
       </c>
       <c r="B12">
-        <f>SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>114.62641111175849</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
+        <v>85.996480542469598</v>
       </c>
       <c r="C12">
-        <f>SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>81.88496686631845</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
+        <v>27.282827471613459</v>
       </c>
       <c r="D12">
-        <f>SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>150.31727171026682</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
+        <v>127.51726386216528</v>
       </c>
       <c r="E12">
-        <f>SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>150.58917347779081</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
+        <v>44.856969022899932</v>
       </c>
       <c r="F12">
-        <f>SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>93.293029630249819</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
+        <v>81.818372033106328</v>
       </c>
       <c r="G12">
-        <f>SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>75.237822593062987</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
+        <v>75.799817521216738</v>
       </c>
       <c r="H12">
-        <f>SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>70.244500381639014</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
+        <v>16.907564995333296</v>
       </c>
       <c r="I12">
-        <f>SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>52.030321756137241</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
+        <v>90.448488516668831</v>
       </c>
       <c r="J12">
-        <f>SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>73.727969694288419</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
+        <v>18.298876826511378</v>
       </c>
       <c r="K12">
-        <f>SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>35.385554247067006</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
+        <v>3.612723793734014</v>
       </c>
       <c r="L12">
-        <f>SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>138.29633873256753</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
+        <v>59.01610975191754</v>
       </c>
       <c r="N12">
-        <f>SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>49.769349431484926</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
+        <v>41.547378316551331</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>92.105857958882083</v>
+        <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
+        <v>64.395477658658464</v>
       </c>
       <c r="B13">
-        <f>SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>90.150689849602514</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
+        <v>129.82908136048934</v>
       </c>
       <c r="C13">
-        <f>SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>127.91867901442774</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
+        <v>49.682550695222041</v>
       </c>
       <c r="D13">
-        <f>SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>81.29975724455845</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
+        <v>112.30064515284666</v>
       </c>
       <c r="E13">
-        <f>SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>54.2665601749556</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
+        <v>84.074688669789822</v>
       </c>
       <c r="F13">
-        <f>SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>72.855105700052107</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
+        <v>85.501081933847956</v>
       </c>
       <c r="G13">
-        <f>SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>139.00412541758558</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
+        <v>121.05700586507749</v>
       </c>
       <c r="H13">
-        <f>SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>69.623610440335213</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
+        <v>42.1085448750298</v>
       </c>
       <c r="I13">
-        <f>SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>145.69106549694513</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
+        <v>104.41129332686461</v>
       </c>
       <c r="J13">
-        <f>SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>166.00739348700301</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
+        <v>62.587409825521434</v>
       </c>
       <c r="K13">
-        <f>SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>165.64822244305404</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
+        <v>62.366500302208124</v>
       </c>
       <c r="L13">
-        <f>SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>138.29633873256753</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
+        <v>59.01610975191754</v>
       </c>
       <c r="M13">
-        <f>SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>92.105857958882083</v>
+        <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
+        <v>64.395477658658464</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3607,52 +3049,52 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <f>SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>97.866576340539268</v>
+        <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
+        <v>125.18566691334951</v>
       </c>
       <c r="C14">
-        <f>SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>90.428526385914438</v>
+        <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
+        <v>18.664830188678604</v>
       </c>
       <c r="D14">
-        <f>SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>124.32496138711748</v>
+        <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
+        <v>88.260211588133899</v>
       </c>
       <c r="E14">
-        <f>SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>116.02276407332863</v>
+        <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
+        <v>86.329352291970636</v>
       </c>
       <c r="F14">
-        <f>SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>45.645936472444454</v>
+        <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
+        <v>40.560779413798201</v>
       </c>
       <c r="G14">
-        <f>SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>91.934832698932951</v>
+        <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
+        <v>114.84023212976105</v>
       </c>
       <c r="H14">
-        <f>SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>22.508816250541802</v>
+        <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
+        <v>41.322776301526098</v>
       </c>
       <c r="I14">
-        <f>SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>80.888640264385572</v>
+        <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
+        <v>49.721977816406337</v>
       </c>
       <c r="J14">
-        <f>SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>105.54158448383977</v>
+        <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
+        <v>24.358484183347443</v>
       </c>
       <c r="K14">
-        <f>SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>73.568647727148004</v>
+        <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
+        <v>43.726047085398527</v>
       </c>
       <c r="L14">
-        <f>SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>49.769349431484926</v>
+        <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
+        <v>41.547378316551331</v>
       </c>
       <c r="M14">
-        <f>SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>92.105857958882083</v>
+        <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
+        <v>64.395477658658464</v>
       </c>
       <c r="N14">
         <f>SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3671,8 +3113,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,52 +3125,52 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>Distances!B1/80</f>
-        <v>1.2233322042567409</v>
+        <f ca="1">Distances!B1/80</f>
+        <v>1.5648208364168688</v>
       </c>
       <c r="C1">
-        <f>Distances!C1/80</f>
-        <v>1.1303565798239306</v>
+        <f ca="1">Distances!C1/80</f>
+        <v>0.23331037735848253</v>
       </c>
       <c r="D1">
-        <f>Distances!D1/80</f>
-        <v>1.5540620173389685</v>
+        <f ca="1">Distances!D1/80</f>
+        <v>1.1032526448516737</v>
       </c>
       <c r="E1">
-        <f>Distances!F1/80</f>
-        <v>0.57057420590555563</v>
+        <f ca="1">Distances!E1/80</f>
+        <v>1.0791169036496329</v>
       </c>
       <c r="F1">
-        <f>Distances!G1/80</f>
-        <v>1.149185408736662</v>
+        <f ca="1">Distances!F1/80</f>
+        <v>0.50700974267247756</v>
       </c>
       <c r="G1">
-        <f>Distances!G1/80</f>
-        <v>1.149185408736662</v>
+        <f ca="1">Distances!G1/80</f>
+        <v>1.4355029016220131</v>
       </c>
       <c r="H1">
-        <f>Distances!H1/80</f>
-        <v>0.28136020313177251</v>
+        <f ca="1">Distances!H1/80</f>
+        <v>0.51653470376907618</v>
       </c>
       <c r="I1">
-        <f>Distances!I1/80</f>
-        <v>1.0111080033048196</v>
+        <f ca="1">Distances!I1/80</f>
+        <v>0.62152472270507919</v>
       </c>
       <c r="J1">
-        <f>Distances!J1/80</f>
-        <v>1.319269806047997</v>
+        <f ca="1">Distances!J1/80</f>
+        <v>0.30448105229184302</v>
       </c>
       <c r="K1">
-        <f>Distances!K1/80</f>
-        <v>0.91960809658935005</v>
+        <f ca="1">Distances!K1/80</f>
+        <v>0.54657558856748156</v>
       </c>
       <c r="L1">
-        <f>Distances!L1/80</f>
-        <v>0.62211686789356158</v>
+        <f ca="1">Distances!L1/80</f>
+        <v>0.51934222895689164</v>
       </c>
       <c r="M1">
-        <f>Distances!M1/80</f>
-        <v>1.1513232244860261</v>
+        <f ca="1">Distances!M1/80</f>
+        <v>0.8049434707332308</v>
       </c>
       <c r="N1">
         <f>Distances!N1/80</f>
@@ -3749,60 +3191,60 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Distances!A2/80</f>
-        <v>1.2233322042567409</v>
+        <f ca="1">Distances!A2/80</f>
+        <v>1.5648208364168688</v>
       </c>
       <c r="B2">
-        <f>Distances!B2/80</f>
+        <f ca="1">Distances!B2/80</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>Distances!C2/80</f>
-        <v>0.66298392372106396</v>
+        <f ca="1">Distances!C2/80</f>
+        <v>1.4156434097262043</v>
       </c>
       <c r="D2">
-        <f>Distances!D2/80</f>
-        <v>0.5019141903345602</v>
+        <f ca="1">Distances!D2/80</f>
+        <v>2.6629872447665379</v>
       </c>
       <c r="E2">
-        <f>Distances!E2/80</f>
-        <v>0.71109756676346758</v>
+        <f ca="1">Distances!E2/80</f>
+        <v>0.57330633759970451</v>
       </c>
       <c r="F2">
-        <f>Distances!F2/80</f>
-        <v>1.4999711905902293</v>
+        <f ca="1">Distances!F2/80</f>
+        <v>2.0695092020810342</v>
       </c>
       <c r="G2">
-        <f>Distances!G2/80</f>
-        <v>0.84418154241656895</v>
+        <f ca="1">Distances!G2/80</f>
+        <v>0.12937581896311579</v>
       </c>
       <c r="H2">
-        <f>Distances!H2/80</f>
-        <v>1.0827988148524628</v>
+        <f ca="1">Distances!H2/80</f>
+        <v>1.2115288976031846</v>
       </c>
       <c r="I2">
-        <f>Distances!I2/80</f>
-        <v>1.0994615348456209</v>
+        <f ca="1">Distances!I2/80</f>
+        <v>2.1202647550404961</v>
       </c>
       <c r="J2">
-        <f>Distances!J2/80</f>
-        <v>1.2264170772242327</v>
+        <f ca="1">Distances!J2/80</f>
+        <v>1.2615670075444094</v>
       </c>
       <c r="K2">
-        <f>Distances!K2/80</f>
-        <v>1.8745525348603114</v>
+        <f ca="1">Distances!K2/80</f>
+        <v>1.0366378280689785</v>
       </c>
       <c r="L2">
-        <f>Distances!L2/80</f>
-        <v>1.4328301388969811</v>
+        <f ca="1">Distances!L2/80</f>
+        <v>1.0749560067808699</v>
       </c>
       <c r="M2">
-        <f>Distances!M2/80</f>
-        <v>1.1268836231200314</v>
+        <f ca="1">Distances!M2/80</f>
+        <v>1.6228635170061168</v>
       </c>
       <c r="N2">
-        <f>Distances!N2/80</f>
-        <v>1.2233322042567409</v>
+        <f ca="1">Distances!N2/80</f>
+        <v>1.5648208364168688</v>
       </c>
       <c r="O2">
         <f>Distances!O2/80</f>
@@ -3819,60 +3261,60 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Distances!A3/80</f>
-        <v>1.1303565798239306</v>
+        <f ca="1">Distances!A3/80</f>
+        <v>0.23331037735848253</v>
       </c>
       <c r="B3">
-        <f>Distances!B3/80</f>
-        <v>0.66298392372106396</v>
+        <f ca="1">Distances!B3/80</f>
+        <v>1.4156434097262043</v>
       </c>
       <c r="C3">
-        <f>Distances!C3/80</f>
+        <f ca="1">Distances!C3/80</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Distances!D3/80</f>
-        <v>1.1614284719523957</v>
+        <f ca="1">Distances!D3/80</f>
+        <v>1.2544648114595334</v>
       </c>
       <c r="E3">
-        <f>Distances!E3/80</f>
-        <v>1.3519347202498575</v>
+        <f ca="1">Distances!E3/80</f>
+        <v>0.89368168495575628</v>
       </c>
       <c r="F3">
-        <f>Distances!F3/80</f>
-        <v>1.6109450964803962</v>
+        <f ca="1">Distances!F3/80</f>
+        <v>0.70084946343683618</v>
       </c>
       <c r="G3">
-        <f>Distances!G3/80</f>
-        <v>0.18230128440113105</v>
+        <f ca="1">Distances!G3/80</f>
+        <v>1.2878495955769442</v>
       </c>
       <c r="H3">
-        <f>Distances!H3/80</f>
-        <v>1.1483284389918214</v>
+        <f ca="1">Distances!H3/80</f>
+        <v>0.28674718829151574</v>
       </c>
       <c r="I3">
-        <f>Distances!I3/80</f>
-        <v>0.48864446004455553</v>
+        <f ca="1">Distances!I3/80</f>
+        <v>0.84864254303663778</v>
       </c>
       <c r="J3">
-        <f>Distances!J3/80</f>
-        <v>0.56360567705380793</v>
+        <f ca="1">Distances!J3/80</f>
+        <v>0.20494090557777095</v>
       </c>
       <c r="K3">
-        <f>Distances!K3/80</f>
-        <v>1.4442991993722312</v>
+        <f ca="1">Distances!K3/80</f>
+        <v>0.37920510281629216</v>
       </c>
       <c r="L3">
-        <f>Distances!L3/80</f>
-        <v>1.0235620858289807</v>
+        <f ca="1">Distances!L3/80</f>
+        <v>0.34103534339516822</v>
       </c>
       <c r="M3">
-        <f>Distances!M3/80</f>
-        <v>1.5989834876803468</v>
+        <f ca="1">Distances!M3/80</f>
+        <v>0.62103188369027551</v>
       </c>
       <c r="N3">
-        <f>Distances!N3/80</f>
-        <v>1.1303565798239306</v>
+        <f ca="1">Distances!N3/80</f>
+        <v>0.23331037735848253</v>
       </c>
       <c r="O3">
         <f>Distances!O3/80</f>
@@ -3889,60 +3331,60 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Distances!A4/80</f>
-        <v>1.5540620173389685</v>
+        <f ca="1">Distances!A4/80</f>
+        <v>1.1032526448516737</v>
       </c>
       <c r="B4">
-        <f>Distances!B4/80</f>
-        <v>0.5019141903345602</v>
+        <f ca="1">Distances!B4/80</f>
+        <v>2.6629872447665379</v>
       </c>
       <c r="C4">
-        <f>Distances!C4/80</f>
-        <v>1.1614284719523957</v>
+        <f ca="1">Distances!C4/80</f>
+        <v>1.2544648114595334</v>
       </c>
       <c r="D4">
-        <f>Distances!D4/80</f>
+        <f ca="1">Distances!D4/80</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>Distances!E4/80</f>
-        <v>0.36957880720090003</v>
+        <f ca="1">Distances!E4/80</f>
+        <v>2.1470488722685408</v>
       </c>
       <c r="F4">
-        <f>Distances!F4/80</f>
-        <v>1.6750818950343209</v>
+        <f ca="1">Distances!F4/80</f>
+        <v>0.62160706837301416</v>
       </c>
       <c r="G4">
-        <f>Distances!G4/80</f>
-        <v>1.3434726076601915</v>
+        <f ca="1">Distances!G4/80</f>
+        <v>2.5340516784725877</v>
       </c>
       <c r="H4">
-        <f>Distances!H4/80</f>
-        <v>1.3449776211296003</v>
+        <f ca="1">Distances!H4/80</f>
+        <v>1.5053474032441312</v>
       </c>
       <c r="I4">
-        <f>Distances!I4/80</f>
-        <v>1.5995793576476089</v>
+        <f ca="1">Distances!I4/80</f>
+        <v>0.72885291304495525</v>
       </c>
       <c r="J4">
-        <f>Distances!J4/80</f>
-        <v>1.7248212821454345</v>
+        <f ca="1">Distances!J4/80</f>
+        <v>1.4026781783457656</v>
       </c>
       <c r="K4">
-        <f>Distances!K4/80</f>
-        <v>2.3141583382199848</v>
+        <f ca="1">Distances!K4/80</f>
+        <v>1.6292608110832751</v>
       </c>
       <c r="L4">
-        <f>Distances!L4/80</f>
-        <v>1.8789658963783353</v>
+        <f ca="1">Distances!L4/80</f>
+        <v>1.5939657982770661</v>
       </c>
       <c r="M4">
-        <f>Distances!M4/80</f>
-        <v>1.0162469655569806</v>
+        <f ca="1">Distances!M4/80</f>
+        <v>1.4037580644105832</v>
       </c>
       <c r="N4">
-        <f>Distances!N4/80</f>
-        <v>1.5540620173389685</v>
+        <f ca="1">Distances!N4/80</f>
+        <v>1.1032526448516737</v>
       </c>
       <c r="O4">
         <f>Distances!O4/80</f>
@@ -3959,60 +3401,60 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Distances!A5/80</f>
-        <v>1.4502845509166078</v>
+        <f ca="1">Distances!A5/80</f>
+        <v>1.0791169036496329</v>
       </c>
       <c r="B5">
-        <f>Distances!B5/80</f>
-        <v>0.71109756676346758</v>
+        <f ca="1">Distances!B5/80</f>
+        <v>0.57330633759970451</v>
       </c>
       <c r="C5">
-        <f>Distances!C5/80</f>
-        <v>1.3519347202498575</v>
+        <f ca="1">Distances!C5/80</f>
+        <v>0.89368168495575628</v>
       </c>
       <c r="D5">
-        <f>Distances!D5/80</f>
-        <v>0.36957880720090003</v>
+        <f ca="1">Distances!D5/80</f>
+        <v>2.1470488722685408</v>
       </c>
       <c r="E5">
-        <f>Distances!E5/80</f>
+        <f ca="1">Distances!E5/80</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>Distances!F5/80</f>
-        <v>1.4491493534297688</v>
+        <f ca="1">Distances!F5/80</f>
+        <v>1.5834417395313398</v>
       </c>
       <c r="G5">
-        <f>Distances!G5/80</f>
-        <v>1.5265325723537175</v>
+        <f ca="1">Distances!G5/80</f>
+        <v>0.46258851402672951</v>
       </c>
       <c r="H5">
-        <f>Distances!H5/80</f>
-        <v>1.2007722284652875</v>
+        <f ca="1">Distances!H5/80</f>
+        <v>0.65538068177324271</v>
       </c>
       <c r="I5">
-        <f>Distances!I5/80</f>
-        <v>1.7288952543665181</v>
+        <f ca="1">Distances!I5/80</f>
+        <v>1.6813927306863889</v>
       </c>
       <c r="J5">
-        <f>Distances!J5/80</f>
-        <v>1.9059360047689531</v>
+        <f ca="1">Distances!J5/80</f>
+        <v>0.77965974021604212</v>
       </c>
       <c r="K5">
-        <f>Distances!K5/80</f>
-        <v>2.2967250768102163</v>
+        <f ca="1">Distances!K5/80</f>
+        <v>0.5328690133300702</v>
       </c>
       <c r="L5">
-        <f>Distances!L5/80</f>
-        <v>1.8823646684723851</v>
+        <f ca="1">Distances!L5/80</f>
+        <v>0.56071211278624911</v>
       </c>
       <c r="M5">
-        <f>Distances!M5/80</f>
-        <v>0.678332002186945</v>
+        <f ca="1">Distances!M5/80</f>
+        <v>1.0509336083723728</v>
       </c>
       <c r="N5">
-        <f>Distances!N5/80</f>
-        <v>1.4502845509166078</v>
+        <f ca="1">Distances!N5/80</f>
+        <v>1.0791169036496329</v>
       </c>
       <c r="O5">
         <f>Distances!O5/80</f>
@@ -4029,60 +3471,60 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Distances!A6/80</f>
-        <v>0.57057420590555563</v>
+        <f ca="1">Distances!A6/80</f>
+        <v>0.50700974267247756</v>
       </c>
       <c r="B6">
-        <f>Distances!B6/80</f>
-        <v>1.4999711905902293</v>
+        <f ca="1">Distances!B6/80</f>
+        <v>2.0695092020810342</v>
       </c>
       <c r="C6">
-        <f>Distances!C6/80</f>
-        <v>1.6109450964803962</v>
+        <f ca="1">Distances!C6/80</f>
+        <v>0.70084946343683618</v>
       </c>
       <c r="D6">
-        <f>Distances!D6/80</f>
-        <v>1.6750818950343209</v>
+        <f ca="1">Distances!D6/80</f>
+        <v>0.62160706837301416</v>
       </c>
       <c r="E6">
-        <f>Distances!E6/80</f>
-        <v>1.4491493534297688</v>
+        <f ca="1">Distances!E6/80</f>
+        <v>1.5834417395313398</v>
       </c>
       <c r="F6">
-        <f>Distances!F6/80</f>
+        <f ca="1">Distances!F6/80</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>Distances!G6/80</f>
-        <v>1.6657682035451284</v>
+        <f ca="1">Distances!G6/80</f>
+        <v>1.9401335874929129</v>
       </c>
       <c r="H6">
-        <f>Distances!H6/80</f>
-        <v>0.46331299452316188</v>
+        <f ca="1">Distances!H6/80</f>
+        <v>0.98095626927697788</v>
       </c>
       <c r="I6">
-        <f>Distances!I6/80</f>
-        <v>1.5706073529245546</v>
+        <f ca="1">Distances!I6/80</f>
+        <v>0.26926925899964876</v>
       </c>
       <c r="J6">
-        <f>Distances!J6/80</f>
-        <v>1.876894224812381</v>
+        <f ca="1">Distances!J6/80</f>
+        <v>0.81140792860576882</v>
       </c>
       <c r="K6">
-        <f>Distances!K6/80</f>
-        <v>1.3625426170632298</v>
+        <f ca="1">Distances!K6/80</f>
+        <v>1.0522581823543447</v>
       </c>
       <c r="L6">
-        <f>Distances!L6/80</f>
-        <v>1.1661628703781228</v>
+        <f ca="1">Distances!L6/80</f>
+        <v>1.022729650413829</v>
       </c>
       <c r="M6">
-        <f>Distances!M6/80</f>
-        <v>0.91068882125065131</v>
+        <f ca="1">Distances!M6/80</f>
+        <v>1.0687635241730995</v>
       </c>
       <c r="N6">
-        <f>Distances!N6/80</f>
-        <v>0.57057420590555563</v>
+        <f ca="1">Distances!N6/80</f>
+        <v>0.50700974267247756</v>
       </c>
       <c r="O6">
         <f>Distances!O6/80</f>
@@ -4099,60 +3541,60 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>Distances!A7/80</f>
-        <v>1.149185408736662</v>
+        <f ca="1">Distances!A7/80</f>
+        <v>1.4355029016220131</v>
       </c>
       <c r="B7">
-        <f>Distances!B7/80</f>
-        <v>0.84418154241656895</v>
+        <f ca="1">Distances!B7/80</f>
+        <v>0.12937581896311579</v>
       </c>
       <c r="C7">
-        <f>Distances!C7/80</f>
-        <v>0.18230128440113105</v>
+        <f ca="1">Distances!C7/80</f>
+        <v>1.2878495955769442</v>
       </c>
       <c r="D7">
-        <f>Distances!D7/80</f>
-        <v>1.3434726076601915</v>
+        <f ca="1">Distances!D7/80</f>
+        <v>2.5340516784725877</v>
       </c>
       <c r="E7">
-        <f>Distances!E7/80</f>
-        <v>1.5265325723537175</v>
+        <f ca="1">Distances!E7/80</f>
+        <v>0.46258851402672951</v>
       </c>
       <c r="F7">
-        <f>Distances!F7/80</f>
-        <v>1.6657682035451284</v>
+        <f ca="1">Distances!F7/80</f>
+        <v>1.9401335874929129</v>
       </c>
       <c r="G7">
-        <f>Distances!G7/80</f>
+        <f ca="1">Distances!G7/80</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>Distances!H7/80</f>
-        <v>1.2098783166026843</v>
+        <f ca="1">Distances!H7/80</f>
+        <v>1.0887393743023766</v>
       </c>
       <c r="I7">
-        <f>Distances!I7/80</f>
-        <v>0.33849849427911044</v>
+        <f ca="1">Distances!I7/80</f>
+        <v>1.9919568974111961</v>
       </c>
       <c r="J7">
-        <f>Distances!J7/80</f>
-        <v>0.38240872487640282</v>
+        <f ca="1">Distances!J7/80</f>
+        <v>1.1323578323890495</v>
       </c>
       <c r="K7">
-        <f>Distances!K7/80</f>
-        <v>1.3392665624499032</v>
+        <f ca="1">Distances!K7/80</f>
+        <v>0.90868865977186497</v>
       </c>
       <c r="L7">
-        <f>Distances!L7/80</f>
-        <v>0.94047278241328736</v>
+        <f ca="1">Distances!L7/80</f>
+        <v>0.94749771901520918</v>
       </c>
       <c r="M7">
-        <f>Distances!M7/80</f>
-        <v>1.7375515677198199</v>
+        <f ca="1">Distances!M7/80</f>
+        <v>1.5132125733134685</v>
       </c>
       <c r="N7">
-        <f>Distances!N7/80</f>
-        <v>1.149185408736662</v>
+        <f ca="1">Distances!N7/80</f>
+        <v>1.4355029016220131</v>
       </c>
       <c r="O7">
         <f>Distances!O7/80</f>
@@ -4169,60 +3611,60 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>Distances!A8/80</f>
-        <v>0.28136020313177251</v>
+        <f ca="1">Distances!A8/80</f>
+        <v>0.51653470376907618</v>
       </c>
       <c r="B8">
-        <f>Distances!B8/80</f>
-        <v>1.0827988148524628</v>
+        <f ca="1">Distances!B8/80</f>
+        <v>1.2115288976031846</v>
       </c>
       <c r="C8">
-        <f>Distances!C8/80</f>
-        <v>1.1483284389918214</v>
+        <f ca="1">Distances!C8/80</f>
+        <v>0.28674718829151574</v>
       </c>
       <c r="D8">
-        <f>Distances!D8/80</f>
-        <v>1.3449776211296003</v>
+        <f ca="1">Distances!D8/80</f>
+        <v>1.5053474032441312</v>
       </c>
       <c r="E8">
-        <f>Distances!E8/80</f>
-        <v>1.2007722284652875</v>
+        <f ca="1">Distances!E8/80</f>
+        <v>0.65538068177324271</v>
       </c>
       <c r="F8">
-        <f>Distances!F8/80</f>
-        <v>0.46331299452316188</v>
+        <f ca="1">Distances!F8/80</f>
+        <v>0.98095626927697788</v>
       </c>
       <c r="G8">
-        <f>Distances!G8/80</f>
-        <v>1.2098783166026843</v>
+        <f ca="1">Distances!G8/80</f>
+        <v>1.0887393743023766</v>
       </c>
       <c r="H8">
-        <f>Distances!H8/80</f>
+        <f ca="1">Distances!H8/80</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>Distances!I8/80</f>
-        <v>1.1472417040341687</v>
+        <f ca="1">Distances!I8/80</f>
+        <v>1.1352417000883752</v>
       </c>
       <c r="J8">
-        <f>Distances!J8/80</f>
-        <v>1.4469881767047574</v>
+        <f ca="1">Distances!J8/80</f>
+        <v>0.31847774905867798</v>
       </c>
       <c r="K8">
-        <f>Distances!K8/80</f>
-        <v>1.2003115059811067</v>
+        <f ca="1">Distances!K8/80</f>
+        <v>0.2536276786009411</v>
       </c>
       <c r="L8">
-        <f>Distances!L8/80</f>
-        <v>0.87805625477048765</v>
+        <f ca="1">Distances!L8/80</f>
+        <v>0.21134456244166619</v>
       </c>
       <c r="M8">
-        <f>Distances!M8/80</f>
-        <v>0.87029513050419016</v>
+        <f ca="1">Distances!M8/80</f>
+        <v>0.52635681093787245</v>
       </c>
       <c r="N8">
-        <f>Distances!N8/80</f>
-        <v>0.28136020313177251</v>
+        <f ca="1">Distances!N8/80</f>
+        <v>0.51653470376907618</v>
       </c>
       <c r="O8">
         <f>Distances!O8/80</f>
@@ -4239,60 +3681,60 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>Distances!A9/80</f>
-        <v>1.0111080033048196</v>
+        <f ca="1">Distances!A9/80</f>
+        <v>0.62152472270507919</v>
       </c>
       <c r="B9">
-        <f>Distances!B9/80</f>
-        <v>1.0994615348456209</v>
+        <f ca="1">Distances!B9/80</f>
+        <v>2.1202647550404961</v>
       </c>
       <c r="C9">
-        <f>Distances!C9/80</f>
-        <v>0.48864446004455553</v>
+        <f ca="1">Distances!C9/80</f>
+        <v>0.84864254303663778</v>
       </c>
       <c r="D9">
-        <f>Distances!D9/80</f>
-        <v>1.5995793576476089</v>
+        <f ca="1">Distances!D9/80</f>
+        <v>0.72885291304495525</v>
       </c>
       <c r="E9">
-        <f>Distances!E9/80</f>
-        <v>1.7288952543665181</v>
+        <f ca="1">Distances!E9/80</f>
+        <v>1.6813927306863889</v>
       </c>
       <c r="F9">
-        <f>Distances!F9/80</f>
-        <v>1.5706073529245546</v>
+        <f ca="1">Distances!F9/80</f>
+        <v>0.26926925899964876</v>
       </c>
       <c r="G9">
-        <f>Distances!G9/80</f>
-        <v>0.33849849427911044</v>
+        <f ca="1">Distances!G9/80</f>
+        <v>1.9919568974111961</v>
       </c>
       <c r="H9">
-        <f>Distances!H9/80</f>
-        <v>1.1472417040341687</v>
+        <f ca="1">Distances!H9/80</f>
+        <v>1.1352417000883752</v>
       </c>
       <c r="I9">
-        <f>Distances!I9/80</f>
+        <f ca="1">Distances!I9/80</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>Distances!J9/80</f>
-        <v>0.30832305991823045</v>
+        <f ca="1">Distances!J9/80</f>
+        <v>0.9038452006106843</v>
       </c>
       <c r="K9">
-        <f>Distances!K9/80</f>
-        <v>1.0169539061686748</v>
+        <f ca="1">Distances!K9/80</f>
+        <v>1.1516105082239989</v>
       </c>
       <c r="L9">
-        <f>Distances!L9/80</f>
-        <v>0.65037902195171549</v>
+        <f ca="1">Distances!L9/80</f>
+        <v>1.1306061064583603</v>
       </c>
       <c r="M9">
-        <f>Distances!M9/80</f>
-        <v>1.8211383187118142</v>
+        <f ca="1">Distances!M9/80</f>
+        <v>1.3051411665858077</v>
       </c>
       <c r="N9">
-        <f>Distances!N9/80</f>
-        <v>1.0111080033048196</v>
+        <f ca="1">Distances!N9/80</f>
+        <v>0.62152472270507919</v>
       </c>
       <c r="O9">
         <f>Distances!O9/80</f>
@@ -4309,60 +3751,60 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>Distances!A10/80</f>
-        <v>1.319269806047997</v>
+        <f ca="1">Distances!A10/80</f>
+        <v>0.30448105229184302</v>
       </c>
       <c r="B10">
-        <f>Distances!B10/80</f>
-        <v>1.2264170772242327</v>
+        <f ca="1">Distances!B10/80</f>
+        <v>1.2615670075444094</v>
       </c>
       <c r="C10">
-        <f>Distances!C10/80</f>
-        <v>0.56360567705380793</v>
+        <f ca="1">Distances!C10/80</f>
+        <v>0.20494090557777095</v>
       </c>
       <c r="D10">
-        <f>Distances!D10/80</f>
-        <v>1.7248212821454345</v>
+        <f ca="1">Distances!D10/80</f>
+        <v>1.4026781783457656</v>
       </c>
       <c r="E10">
-        <f>Distances!E10/80</f>
-        <v>1.9059360047689531</v>
+        <f ca="1">Distances!E10/80</f>
+        <v>0.77965974021604212</v>
       </c>
       <c r="F10">
-        <f>Distances!F10/80</f>
-        <v>1.876894224812381</v>
+        <f ca="1">Distances!F10/80</f>
+        <v>0.81140792860576882</v>
       </c>
       <c r="G10">
-        <f>Distances!G10/80</f>
-        <v>0.38240872487640282</v>
+        <f ca="1">Distances!G10/80</f>
+        <v>1.1323578323890495</v>
       </c>
       <c r="H10">
-        <f>Distances!H10/80</f>
-        <v>1.4469881767047574</v>
+        <f ca="1">Distances!H10/80</f>
+        <v>0.31847774905867798</v>
       </c>
       <c r="I10">
-        <f>Distances!I10/80</f>
-        <v>0.30832305991823045</v>
+        <f ca="1">Distances!I10/80</f>
+        <v>0.9038452006106843</v>
       </c>
       <c r="J10">
-        <f>Distances!J10/80</f>
+        <f ca="1">Distances!J10/80</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>Distances!K10/80</f>
-        <v>1.2316504368780463</v>
+        <f ca="1">Distances!K10/80</f>
+        <v>0.2478257553798775</v>
       </c>
       <c r="L10">
-        <f>Distances!L10/80</f>
-        <v>0.92159962117860528</v>
+        <f ca="1">Distances!L10/80</f>
+        <v>0.22873596033139224</v>
       </c>
       <c r="M10">
-        <f>Distances!M10/80</f>
-        <v>2.0750924185875377</v>
+        <f ca="1">Distances!M10/80</f>
+        <v>0.7823426228190179</v>
       </c>
       <c r="N10">
-        <f>Distances!N10/80</f>
-        <v>1.319269806047997</v>
+        <f ca="1">Distances!N10/80</f>
+        <v>0.30448105229184302</v>
       </c>
       <c r="O10">
         <f>Distances!O10/80</f>
@@ -4379,60 +3821,60 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>Distances!A11/80</f>
-        <v>0.91960809658935005</v>
+        <f ca="1">Distances!A11/80</f>
+        <v>0.54657558856748156</v>
       </c>
       <c r="B11">
-        <f>Distances!B11/80</f>
-        <v>1.8745525348603114</v>
+        <f ca="1">Distances!B11/80</f>
+        <v>1.0366378280689785</v>
       </c>
       <c r="C11">
-        <f>Distances!C11/80</f>
-        <v>1.4442991993722312</v>
+        <f ca="1">Distances!C11/80</f>
+        <v>0.37920510281629216</v>
       </c>
       <c r="D11">
-        <f>Distances!D11/80</f>
-        <v>2.3141583382199848</v>
+        <f ca="1">Distances!D11/80</f>
+        <v>1.6292608110832751</v>
       </c>
       <c r="E11">
-        <f>Distances!E11/80</f>
-        <v>2.2967250768102163</v>
+        <f ca="1">Distances!E11/80</f>
+        <v>0.5328690133300702</v>
       </c>
       <c r="F11">
-        <f>Distances!F11/80</f>
-        <v>1.3625426170632298</v>
+        <f ca="1">Distances!F11/80</f>
+        <v>1.0522581823543447</v>
       </c>
       <c r="G11">
-        <f>Distances!G11/80</f>
-        <v>1.3392665624499032</v>
+        <f ca="1">Distances!G11/80</f>
+        <v>0.90868865977186497</v>
       </c>
       <c r="H11">
-        <f>Distances!H11/80</f>
-        <v>1.2003115059811067</v>
+        <f ca="1">Distances!H11/80</f>
+        <v>0.2536276786009411</v>
       </c>
       <c r="I11">
-        <f>Distances!I11/80</f>
-        <v>1.0169539061686748</v>
+        <f ca="1">Distances!I11/80</f>
+        <v>1.1516105082239989</v>
       </c>
       <c r="J11">
-        <f>Distances!J11/80</f>
-        <v>1.2316504368780463</v>
+        <f ca="1">Distances!J11/80</f>
+        <v>0.2478257553798775</v>
       </c>
       <c r="K11">
-        <f>Distances!K11/80</f>
+        <f ca="1">Distances!K11/80</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>Distances!L11/80</f>
-        <v>0.44231942808833757</v>
+        <f ca="1">Distances!L11/80</f>
+        <v>4.5159047421675175E-2</v>
       </c>
       <c r="M11">
-        <f>Distances!M11/80</f>
-        <v>2.0706027805381755</v>
+        <f ca="1">Distances!M11/80</f>
+        <v>0.77958125377760157</v>
       </c>
       <c r="N11">
-        <f>Distances!N11/80</f>
-        <v>0.91960809658935005</v>
+        <f ca="1">Distances!N11/80</f>
+        <v>0.54657558856748156</v>
       </c>
       <c r="O11">
         <f>Distances!O11/80</f>
@@ -4449,60 +3891,60 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>Distances!A12/80</f>
-        <v>0.62211686789356158</v>
+        <f ca="1">Distances!A12/80</f>
+        <v>0.51934222895689164</v>
       </c>
       <c r="B12">
-        <f>Distances!B12/80</f>
-        <v>1.4328301388969811</v>
+        <f ca="1">Distances!B12/80</f>
+        <v>1.0749560067808699</v>
       </c>
       <c r="C12">
-        <f>Distances!C12/80</f>
-        <v>1.0235620858289807</v>
+        <f ca="1">Distances!C12/80</f>
+        <v>0.34103534339516822</v>
       </c>
       <c r="D12">
-        <f>Distances!D12/80</f>
-        <v>1.8789658963783353</v>
+        <f ca="1">Distances!D12/80</f>
+        <v>1.5939657982770661</v>
       </c>
       <c r="E12">
-        <f>Distances!E12/80</f>
-        <v>1.8823646684723851</v>
+        <f ca="1">Distances!E12/80</f>
+        <v>0.56071211278624911</v>
       </c>
       <c r="F12">
-        <f>Distances!F12/80</f>
-        <v>1.1661628703781228</v>
+        <f ca="1">Distances!F12/80</f>
+        <v>1.022729650413829</v>
       </c>
       <c r="G12">
-        <f>Distances!G12/80</f>
-        <v>0.94047278241328736</v>
+        <f ca="1">Distances!G12/80</f>
+        <v>0.94749771901520918</v>
       </c>
       <c r="H12">
-        <f>Distances!H12/80</f>
-        <v>0.87805625477048765</v>
+        <f ca="1">Distances!H12/80</f>
+        <v>0.21134456244166619</v>
       </c>
       <c r="I12">
-        <f>Distances!I12/80</f>
-        <v>0.65037902195171549</v>
+        <f ca="1">Distances!I12/80</f>
+        <v>1.1306061064583603</v>
       </c>
       <c r="J12">
-        <f>Distances!J12/80</f>
-        <v>0.92159962117860528</v>
+        <f ca="1">Distances!J12/80</f>
+        <v>0.22873596033139224</v>
       </c>
       <c r="K12">
-        <f>Distances!K12/80</f>
-        <v>0.44231942808833757</v>
+        <f ca="1">Distances!K12/80</f>
+        <v>4.5159047421675175E-2</v>
       </c>
       <c r="L12">
-        <f>Distances!L12/80</f>
+        <f ca="1">Distances!L12/80</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>Distances!M12/80</f>
-        <v>1.7287042341570942</v>
+        <f ca="1">Distances!M12/80</f>
+        <v>0.73770137189896923</v>
       </c>
       <c r="N12">
-        <f>Distances!N12/80</f>
-        <v>0.62211686789356158</v>
+        <f ca="1">Distances!N12/80</f>
+        <v>0.51934222895689164</v>
       </c>
       <c r="O12">
         <f>Distances!O12/80</f>
@@ -4519,60 +3961,60 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>Distances!A13/80</f>
-        <v>1.1513232244860261</v>
+        <f ca="1">Distances!A13/80</f>
+        <v>0.8049434707332308</v>
       </c>
       <c r="B13">
-        <f>Distances!B13/80</f>
-        <v>1.1268836231200314</v>
+        <f ca="1">Distances!B13/80</f>
+        <v>1.6228635170061168</v>
       </c>
       <c r="C13">
-        <f>Distances!C13/80</f>
-        <v>1.5989834876803468</v>
+        <f ca="1">Distances!C13/80</f>
+        <v>0.62103188369027551</v>
       </c>
       <c r="D13">
-        <f>Distances!D13/80</f>
-        <v>1.0162469655569806</v>
+        <f ca="1">Distances!D13/80</f>
+        <v>1.4037580644105832</v>
       </c>
       <c r="E13">
-        <f>Distances!E13/80</f>
-        <v>0.678332002186945</v>
+        <f ca="1">Distances!E13/80</f>
+        <v>1.0509336083723728</v>
       </c>
       <c r="F13">
-        <f>Distances!F13/80</f>
-        <v>0.91068882125065131</v>
+        <f ca="1">Distances!F13/80</f>
+        <v>1.0687635241730995</v>
       </c>
       <c r="G13">
-        <f>Distances!G13/80</f>
-        <v>1.7375515677198199</v>
+        <f ca="1">Distances!G13/80</f>
+        <v>1.5132125733134685</v>
       </c>
       <c r="H13">
-        <f>Distances!H13/80</f>
-        <v>0.87029513050419016</v>
+        <f ca="1">Distances!H13/80</f>
+        <v>0.52635681093787245</v>
       </c>
       <c r="I13">
-        <f>Distances!I13/80</f>
-        <v>1.8211383187118142</v>
+        <f ca="1">Distances!I13/80</f>
+        <v>1.3051411665858077</v>
       </c>
       <c r="J13">
-        <f>Distances!J13/80</f>
-        <v>2.0750924185875377</v>
+        <f ca="1">Distances!J13/80</f>
+        <v>0.7823426228190179</v>
       </c>
       <c r="K13">
-        <f>Distances!K13/80</f>
-        <v>2.0706027805381755</v>
+        <f ca="1">Distances!K13/80</f>
+        <v>0.77958125377760157</v>
       </c>
       <c r="L13">
-        <f>Distances!L13/80</f>
-        <v>1.7287042341570942</v>
+        <f ca="1">Distances!L13/80</f>
+        <v>0.73770137189896923</v>
       </c>
       <c r="M13">
-        <f>Distances!M13/80</f>
+        <f ca="1">Distances!M13/80</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>Distances!N13/80</f>
-        <v>1.1513232244860261</v>
+        <f ca="1">Distances!N13/80</f>
+        <v>0.8049434707332308</v>
       </c>
       <c r="O13">
         <f>Distances!O13/80</f>
@@ -4593,52 +4035,52 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <f>Distances!B14/80</f>
-        <v>1.2233322042567409</v>
+        <f ca="1">Distances!B14/80</f>
+        <v>1.5648208364168688</v>
       </c>
       <c r="C14">
-        <f>Distances!C14/80</f>
-        <v>1.1303565798239306</v>
+        <f ca="1">Distances!C14/80</f>
+        <v>0.23331037735848253</v>
       </c>
       <c r="D14">
-        <f>Distances!D14/80</f>
-        <v>1.5540620173389685</v>
+        <f ca="1">Distances!D14/80</f>
+        <v>1.1032526448516737</v>
       </c>
       <c r="E14">
-        <f>Distances!E14/80</f>
-        <v>1.4502845509166078</v>
+        <f ca="1">Distances!E14/80</f>
+        <v>1.0791169036496329</v>
       </c>
       <c r="F14">
-        <f>Distances!F14/80</f>
-        <v>0.57057420590555563</v>
+        <f ca="1">Distances!F14/80</f>
+        <v>0.50700974267247756</v>
       </c>
       <c r="G14">
-        <f>Distances!G14/80</f>
-        <v>1.149185408736662</v>
+        <f ca="1">Distances!G14/80</f>
+        <v>1.4355029016220131</v>
       </c>
       <c r="H14">
-        <f>Distances!H14/80</f>
-        <v>0.28136020313177251</v>
+        <f ca="1">Distances!H14/80</f>
+        <v>0.51653470376907618</v>
       </c>
       <c r="I14">
-        <f>Distances!I14/80</f>
-        <v>1.0111080033048196</v>
+        <f ca="1">Distances!I14/80</f>
+        <v>0.62152472270507919</v>
       </c>
       <c r="J14">
-        <f>Distances!J14/80</f>
-        <v>1.319269806047997</v>
+        <f ca="1">Distances!J14/80</f>
+        <v>0.30448105229184302</v>
       </c>
       <c r="K14">
-        <f>Distances!K14/80</f>
-        <v>0.91960809658935005</v>
+        <f ca="1">Distances!K14/80</f>
+        <v>0.54657558856748156</v>
       </c>
       <c r="L14">
-        <f>Distances!L14/80</f>
-        <v>0.62211686789356158</v>
+        <f ca="1">Distances!L14/80</f>
+        <v>0.51934222895689164</v>
       </c>
       <c r="M14">
-        <f>Distances!M14/80</f>
-        <v>1.1513232244860261</v>
+        <f ca="1">Distances!M14/80</f>
+        <v>0.8049434707332308</v>
       </c>
       <c r="N14">
         <f>Distances!N14/80</f>
